--- a/data/inputs/foreground.xlsx
+++ b/data/inputs/foreground.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\370-Energie\370.25-BATTERIES\370.25.190-Thèse Téo LAVISSE\05 - Formation\AutumnSchool_oct2022\formation\project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="foreground" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -341,9 +346,6 @@
     <t>hydropower plant construction, run-of-river</t>
   </si>
   <si>
-    <t>Ecoinvent3.8_cutoff</t>
-  </si>
-  <si>
     <t>d4275f89-98aa-441a-9e02-15b877085438</t>
   </si>
   <si>
@@ -1305,12 +1307,15 @@
   <si>
     <t>storage, 650 l mini CHP plant</t>
   </si>
+  <si>
+    <t>ei 3.8 cutoff</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1356,11 +1361,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1402,7 +1415,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1434,9 +1447,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1468,6 +1482,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1643,14 +1658,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L75" sqref="L75"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1658,7 +1679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1666,7 +1687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1674,7 +1695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1682,7 +1703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1690,7 +1711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1698,7 +1719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1706,12 +1727,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1734,7 +1755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1757,12 +1778,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.5594</v>
+        <v>0.55940000000000001</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -1780,12 +1801,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13">
-        <v>0.4406</v>
+        <v>0.44059999999999999</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -1803,7 +1824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1811,7 +1832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1819,7 +1840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1827,7 +1848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1835,7 +1856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1843,7 +1864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1851,12 +1872,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1879,7 +1900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1902,12 +1923,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.907</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -1925,12 +1946,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
       <c r="B25">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -1948,12 +1969,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.067</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -1971,7 +1992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
@@ -1979,7 +2000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1987,7 +2008,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1995,7 +2016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2003,7 +2024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2011,7 +2032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -2019,12 +2040,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -2047,7 +2068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -2070,12 +2091,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>30</v>
       </c>
       <c r="B37">
-        <v>0.004668</v>
+        <v>4.6680000000000003E-3</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
@@ -2093,12 +2114,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>32</v>
       </c>
       <c r="B38">
-        <v>0.9953</v>
+        <v>0.99529999999999996</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
@@ -2116,7 +2137,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -2124,7 +2145,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2132,7 +2153,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -2140,7 +2161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -2148,7 +2169,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -2156,7 +2177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -2164,12 +2185,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -2192,7 +2213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -2215,7 +2236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -2238,7 +2259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -2261,7 +2282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
@@ -2269,7 +2290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -2277,7 +2298,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -2285,7 +2306,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -2293,7 +2314,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -2301,7 +2322,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>43</v>
       </c>
@@ -2309,7 +2330,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -2317,7 +2338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>45</v>
       </c>
@@ -2325,7 +2346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2333,7 +2354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -2341,7 +2362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -2349,12 +2370,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -2416,7 +2437,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>57</v>
       </c>
@@ -2460,12 +2481,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.004496</v>
+        <v>4.496E-3</v>
       </c>
       <c r="C66" t="s">
         <v>58</v>
@@ -2483,10 +2504,10 @@
         <v>2</v>
       </c>
       <c r="J66">
-        <v>-5.404567166390748</v>
+        <v>-5.4045671663907484</v>
       </c>
       <c r="K66">
-        <v>0.204939015319192</v>
+        <v>0.20493901531919201</v>
       </c>
       <c r="M66" t="s">
         <v>61</v>
@@ -2510,12 +2531,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>70</v>
       </c>
       <c r="B67">
-        <v>2.81E-05</v>
+        <v>2.8099999999999999E-5</v>
       </c>
       <c r="C67" t="s">
         <v>58</v>
@@ -2539,7 +2560,7 @@
         <v>-10.47974098162457</v>
       </c>
       <c r="K67">
-        <v>0.3492849839314596</v>
+        <v>0.34928498393145962</v>
       </c>
       <c r="M67" t="s">
         <v>61</v>
@@ -2560,15 +2581,15 @@
         <v>61</v>
       </c>
       <c r="T67">
-        <v>0.3464101615137755</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20">
+        <v>0.34641016151377552</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>75</v>
       </c>
       <c r="B68">
-        <v>2.81E-05</v>
+        <v>2.8099999999999999E-5</v>
       </c>
       <c r="C68" t="s">
         <v>58</v>
@@ -2592,7 +2613,7 @@
         <v>-10.47974098162457</v>
       </c>
       <c r="K68">
-        <v>0.3492849839314596</v>
+        <v>0.34928498393145962</v>
       </c>
       <c r="M68" t="s">
         <v>61</v>
@@ -2613,15 +2634,15 @@
         <v>61</v>
       </c>
       <c r="T68">
-        <v>0.3464101615137755</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20">
+        <v>0.34641016151377552</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>79</v>
       </c>
       <c r="B69">
-        <v>5.630000000000001E-07</v>
+        <v>5.6300000000000005E-7</v>
       </c>
       <c r="C69" t="s">
         <v>58</v>
@@ -2645,7 +2666,7 @@
         <v>-14.38998620880672</v>
       </c>
       <c r="K69">
-        <v>0.3492849839314596</v>
+        <v>0.34928498393145962</v>
       </c>
       <c r="M69" t="s">
         <v>61</v>
@@ -2666,15 +2687,15 @@
         <v>61</v>
       </c>
       <c r="T69">
-        <v>0.3464101615137755</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20">
+        <v>0.34641016151377552</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>82</v>
       </c>
       <c r="B70">
-        <v>5.57E-05</v>
+        <v>5.5699999999999999E-5</v>
       </c>
       <c r="C70" t="s">
         <v>58</v>
@@ -2695,10 +2716,10 @@
         <v>2</v>
       </c>
       <c r="J70">
-        <v>-9.795530411031036</v>
+        <v>-9.7955304110310362</v>
       </c>
       <c r="K70">
-        <v>0.3492849839314596</v>
+        <v>0.34928498393145962</v>
       </c>
       <c r="M70" t="s">
         <v>61</v>
@@ -2719,10 +2740,10 @@
         <v>61</v>
       </c>
       <c r="T70">
-        <v>0.3464101615137755</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20">
+        <v>0.34641016151377552</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>85</v>
       </c>
@@ -2748,10 +2769,10 @@
         <v>2</v>
       </c>
       <c r="J71">
-        <v>3.80666248977032</v>
+        <v>3.8066624897703201</v>
       </c>
       <c r="K71">
-        <v>0.3605897946420558</v>
+        <v>0.36058979464205582</v>
       </c>
       <c r="M71" t="s">
         <v>61</v>
@@ -2775,7 +2796,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>92</v>
       </c>
@@ -2801,10 +2822,10 @@
         <v>2</v>
       </c>
       <c r="J72">
-        <v>3.80666248977032</v>
+        <v>3.8066624897703201</v>
       </c>
       <c r="K72">
-        <v>0.2063976744055029</v>
+        <v>0.20639767440550291</v>
       </c>
       <c r="M72" t="s">
         <v>61</v>
@@ -2825,10 +2846,10 @@
         <v>61</v>
       </c>
       <c r="T72">
-        <v>0.02449489742783178</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20">
+        <v>2.4494897427831779E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -2872,15 +2893,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>97</v>
       </c>
       <c r="B74">
-        <v>8.07284939292173E-13</v>
+        <v>8.0728493929217302E-13</v>
       </c>
       <c r="C74" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D74" t="s">
         <v>21</v>
@@ -2895,22 +2916,22 @@
         <v>2</v>
       </c>
       <c r="J74">
-        <v>-27.84509970433569</v>
+        <v>-27.845099704335691</v>
       </c>
       <c r="K74">
-        <v>0.2863564212655271</v>
+        <v>0.28635642126552707</v>
       </c>
       <c r="L74" t="s">
+        <v>98</v>
+      </c>
+      <c r="M74" t="s">
+        <v>61</v>
+      </c>
+      <c r="N74" t="s">
         <v>99</v>
       </c>
-      <c r="M74" t="s">
-        <v>61</v>
-      </c>
-      <c r="N74" t="s">
+      <c r="O74" t="s">
         <v>100</v>
-      </c>
-      <c r="O74" t="s">
-        <v>101</v>
       </c>
       <c r="P74" t="s">
         <v>95</v>
@@ -2922,27 +2943,27 @@
         <v>61</v>
       </c>
       <c r="S74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T74">
         <v>0.2</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75">
+        <v>7.5599999999999996E-6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>405</v>
+      </c>
+      <c r="D75" t="s">
         <v>103</v>
       </c>
-      <c r="B75">
-        <v>7.56E-06</v>
-      </c>
-      <c r="C75" t="s">
-        <v>98</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>104</v>
-      </c>
-      <c r="E75" t="s">
-        <v>105</v>
       </c>
       <c r="G75" t="s">
         <v>19</v>
@@ -2957,48 +2978,48 @@
         <v>0.5</v>
       </c>
       <c r="L75" t="s">
+        <v>105</v>
+      </c>
+      <c r="M75" t="s">
+        <v>61</v>
+      </c>
+      <c r="N75" t="s">
         <v>106</v>
       </c>
-      <c r="M75" t="s">
-        <v>61</v>
-      </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>107</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>108</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75" t="s">
+        <v>61</v>
+      </c>
+      <c r="S75" t="s">
         <v>109</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75" t="s">
-        <v>61</v>
-      </c>
-      <c r="S75" t="s">
-        <v>110</v>
       </c>
       <c r="T75">
         <v>0.3</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B76">
-        <v>-7.56E-06</v>
+        <v>-7.5599999999999996E-6</v>
       </c>
       <c r="C76" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D76" t="s">
         <v>21</v>
       </c>
       <c r="E76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G76" t="s">
         <v>19</v>
@@ -3010,37 +3031,37 @@
         <v>-11.79263936777283</v>
       </c>
       <c r="K76">
-        <v>0.303315017762062</v>
+        <v>0.30331501776206199</v>
       </c>
       <c r="L76" t="s">
+        <v>111</v>
+      </c>
+      <c r="M76" t="s">
+        <v>61</v>
+      </c>
+      <c r="N76" t="s">
         <v>112</v>
       </c>
-      <c r="M76" t="s">
-        <v>61</v>
-      </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>113</v>
-      </c>
-      <c r="O76" t="s">
-        <v>114</v>
       </c>
       <c r="P76" t="s">
         <v>64</v>
       </c>
       <c r="Q76">
-        <v>78224.454</v>
+        <v>78224.453999999998</v>
       </c>
       <c r="R76" t="s">
         <v>61</v>
       </c>
       <c r="S76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T76">
         <v>0.3</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>2</v>
       </c>
@@ -3048,7 +3069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>36</v>
       </c>
@@ -3056,39 +3077,39 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>41</v>
       </c>
       <c r="B82" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>43</v>
       </c>
       <c r="B83" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -3096,7 +3117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>45</v>
       </c>
@@ -3104,7 +3125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -3112,7 +3133,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -3120,7 +3141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -3128,12 +3149,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -3195,12 +3216,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B91">
-        <v>3.8503</v>
+        <v>3.8502999999999998</v>
       </c>
       <c r="C91" t="s">
         <v>58</v>
@@ -3209,7 +3230,7 @@
         <v>29</v>
       </c>
       <c r="F91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G91" t="s">
         <v>60</v>
@@ -3221,20 +3242,20 @@
         <v>1.348151067341848</v>
       </c>
       <c r="K91">
-        <v>0.04565539100347297</v>
+        <v>4.5655391003472968E-2</v>
       </c>
       <c r="M91" t="s">
         <v>61</v>
       </c>
       <c r="N91" t="s">
+        <v>121</v>
+      </c>
+      <c r="O91" t="s">
         <v>122</v>
       </c>
-      <c r="O91" t="s">
+      <c r="P91" t="s">
         <v>123</v>
       </c>
-      <c r="P91" t="s">
-        <v>124</v>
-      </c>
       <c r="Q91">
         <v>0</v>
       </c>
@@ -3242,15 +3263,15 @@
         <v>61</v>
       </c>
       <c r="T91">
-        <v>0.03441532692972711</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20">
+        <v>3.4415326929727111E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>85</v>
       </c>
       <c r="B92">
-        <v>7.67712979560076E-07</v>
+        <v>7.6771297956007602E-7</v>
       </c>
       <c r="C92" t="s">
         <v>58</v>
@@ -3259,7 +3280,7 @@
         <v>86</v>
       </c>
       <c r="F92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G92" t="s">
         <v>60</v>
@@ -3274,19 +3295,19 @@
         <v>-14.07984989818231</v>
       </c>
       <c r="K92">
-        <v>0.3130894440890654</v>
+        <v>0.31308944408906542</v>
       </c>
       <c r="M92" t="s">
         <v>61</v>
       </c>
       <c r="N92" t="s">
+        <v>125</v>
+      </c>
+      <c r="O92" t="s">
         <v>126</v>
       </c>
-      <c r="O92" t="s">
+      <c r="P92" t="s">
         <v>127</v>
-      </c>
-      <c r="P92" t="s">
-        <v>128</v>
       </c>
       <c r="Q92">
         <v>0</v>
@@ -3298,7 +3319,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -3324,13 +3345,13 @@
         <v>1</v>
       </c>
       <c r="L93" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M93" t="s">
         <v>61</v>
       </c>
       <c r="O93" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q93">
         <v>0</v>
@@ -3342,21 +3363,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B94">
-        <v>0.00511808653040051</v>
+        <v>5.11808653040051E-3</v>
       </c>
       <c r="C94" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D94" t="s">
         <v>21</v>
       </c>
       <c r="E94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G94" t="s">
         <v>19</v>
@@ -3365,48 +3386,48 @@
         <v>2</v>
       </c>
       <c r="J94">
-        <v>-5.274974634314288</v>
+        <v>-5.2749746343142876</v>
       </c>
       <c r="K94">
-        <v>0.05385164807134504</v>
+        <v>5.3851648071345043E-2</v>
       </c>
       <c r="L94" t="s">
+        <v>130</v>
+      </c>
+      <c r="M94" t="s">
+        <v>61</v>
+      </c>
+      <c r="N94" t="s">
         <v>131</v>
       </c>
-      <c r="M94" t="s">
-        <v>61</v>
-      </c>
-      <c r="N94" t="s">
+      <c r="O94" t="s">
         <v>132</v>
       </c>
-      <c r="O94" t="s">
+      <c r="P94" t="s">
         <v>133</v>
       </c>
-      <c r="P94" t="s">
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94" t="s">
+        <v>61</v>
+      </c>
+      <c r="S94" t="s">
         <v>134</v>
       </c>
-      <c r="Q94">
-        <v>0</v>
-      </c>
-      <c r="R94" t="s">
-        <v>61</v>
-      </c>
-      <c r="S94" t="s">
+      <c r="T94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>135</v>
       </c>
-      <c r="T94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20">
-      <c r="A95" t="s">
-        <v>136</v>
-      </c>
       <c r="B95">
-        <v>-5.11808653040051E-06</v>
+        <v>-5.1180865304005096E-6</v>
       </c>
       <c r="C95" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D95" t="s">
         <v>21</v>
@@ -3421,48 +3442,48 @@
         <v>2</v>
       </c>
       <c r="J95">
-        <v>-12.18272991329643</v>
+        <v>-12.182729913296431</v>
       </c>
       <c r="K95">
-        <v>0.05385164807134504</v>
+        <v>5.3851648071345043E-2</v>
       </c>
       <c r="L95" t="s">
+        <v>136</v>
+      </c>
+      <c r="M95" t="s">
+        <v>61</v>
+      </c>
+      <c r="N95" t="s">
         <v>137</v>
       </c>
-      <c r="M95" t="s">
-        <v>61</v>
-      </c>
-      <c r="N95" t="s">
+      <c r="O95" t="s">
         <v>138</v>
       </c>
-      <c r="O95" t="s">
+      <c r="P95" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95" t="s">
+        <v>61</v>
+      </c>
+      <c r="S95" t="s">
         <v>139</v>
       </c>
-      <c r="P95" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q95">
-        <v>0</v>
-      </c>
-      <c r="R95" t="s">
-        <v>61</v>
-      </c>
-      <c r="S95" t="s">
+      <c r="T95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>140</v>
       </c>
-      <c r="T95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20">
-      <c r="A96" t="s">
-        <v>141</v>
-      </c>
       <c r="B96">
-        <v>1.15793812904989E-05</v>
+        <v>1.15793812904989E-5</v>
       </c>
       <c r="C96" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D96" t="s">
         <v>21</v>
@@ -3477,26 +3498,26 @@
         <v>2</v>
       </c>
       <c r="J96">
-        <v>-11.36628451639199</v>
+        <v>-11.366284516391991</v>
       </c>
       <c r="K96">
         <v>0.119582607431014</v>
       </c>
       <c r="L96" t="s">
+        <v>141</v>
+      </c>
+      <c r="M96" t="s">
+        <v>61</v>
+      </c>
+      <c r="N96" t="s">
         <v>142</v>
       </c>
-      <c r="M96" t="s">
-        <v>61</v>
-      </c>
-      <c r="N96" t="s">
+      <c r="O96" t="s">
         <v>143</v>
       </c>
-      <c r="O96" t="s">
+      <c r="P96" t="s">
         <v>144</v>
       </c>
-      <c r="P96" t="s">
-        <v>145</v>
-      </c>
       <c r="Q96">
         <v>0</v>
       </c>
@@ -3504,21 +3525,21 @@
         <v>61</v>
       </c>
       <c r="S96" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T96">
         <v>0.1</v>
       </c>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>36</v>
       </c>
@@ -3526,31 +3547,31 @@
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>39</v>
       </c>
       <c r="B101" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>41</v>
       </c>
       <c r="B102" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>43</v>
       </c>
@@ -3558,7 +3579,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -3566,7 +3587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>45</v>
       </c>
@@ -3574,7 +3595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -3582,7 +3603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -3590,7 +3611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -3598,12 +3619,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -3662,9 +3683,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B111">
         <v>3.87</v>
@@ -3676,7 +3697,7 @@
         <v>29</v>
       </c>
       <c r="F111" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G111" t="s">
         <v>60</v>
@@ -3691,7 +3712,7 @@
         <v>61</v>
       </c>
       <c r="N111" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O111" t="s">
         <v>64</v>
@@ -3703,9 +3724,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -3729,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="K112" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L112" t="s">
         <v>61</v>
@@ -3738,7 +3759,7 @@
         <v>44</v>
       </c>
       <c r="P112">
-        <v>686107.422</v>
+        <v>686107.42200000002</v>
       </c>
       <c r="Q112" t="s">
         <v>61</v>
@@ -3747,21 +3768,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>102</v>
+      </c>
+      <c r="B113">
+        <v>4.6694214876033101E-5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>405</v>
+      </c>
+      <c r="D113" t="s">
         <v>103</v>
       </c>
-      <c r="B113">
-        <v>4.66942148760331E-05</v>
-      </c>
-      <c r="C113" t="s">
-        <v>98</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>104</v>
-      </c>
-      <c r="E113" t="s">
-        <v>105</v>
       </c>
       <c r="G113" t="s">
         <v>19</v>
@@ -3770,22 +3791,22 @@
         <v>2</v>
       </c>
       <c r="I113">
-        <v>-9.971890279420528</v>
+        <v>-9.9718902794205277</v>
       </c>
       <c r="J113">
-        <v>0.04472135954999579</v>
+        <v>4.4721359549995787E-2</v>
       </c>
       <c r="K113" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L113" t="s">
         <v>61</v>
       </c>
       <c r="M113" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N113" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O113" t="s">
         <v>64</v>
@@ -3797,27 +3818,27 @@
         <v>61</v>
       </c>
       <c r="R113" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>153</v>
+      </c>
+      <c r="B114">
+        <v>2.7686980354147901E-12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>405</v>
+      </c>
+      <c r="D114" t="s">
+        <v>103</v>
+      </c>
+      <c r="E114" t="s">
         <v>154</v>
-      </c>
-      <c r="B114">
-        <v>2.76869803541479E-12</v>
-      </c>
-      <c r="C114" t="s">
-        <v>98</v>
-      </c>
-      <c r="D114" t="s">
-        <v>104</v>
-      </c>
-      <c r="E114" t="s">
-        <v>155</v>
       </c>
       <c r="G114" t="s">
         <v>19</v>
@@ -3826,19 +3847,19 @@
         <v>0</v>
       </c>
       <c r="I114">
-        <v>2.76869803541479E-12</v>
+        <v>2.7686980354147901E-12</v>
       </c>
       <c r="K114" t="s">
+        <v>155</v>
+      </c>
+      <c r="L114" t="s">
+        <v>61</v>
+      </c>
+      <c r="M114" t="s">
         <v>156</v>
       </c>
-      <c r="L114" t="s">
-        <v>61</v>
-      </c>
-      <c r="M114" t="s">
+      <c r="N114" t="s">
         <v>157</v>
-      </c>
-      <c r="N114" t="s">
-        <v>158</v>
       </c>
       <c r="O114" t="s">
         <v>64</v>
@@ -3850,24 +3871,24 @@
         <v>61</v>
       </c>
       <c r="R114" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B115">
-        <v>-4.66942148760331E-05</v>
+        <v>-4.6694214876033101E-5</v>
       </c>
       <c r="C115" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D115" t="s">
         <v>21</v>
       </c>
       <c r="E115" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G115" t="s">
         <v>19</v>
@@ -3876,48 +3897,48 @@
         <v>2</v>
       </c>
       <c r="I115">
-        <v>-9.971890279420528</v>
+        <v>-9.9718902794205277</v>
       </c>
       <c r="J115">
-        <v>0.04472135954999579</v>
+        <v>4.4721359549995787E-2</v>
       </c>
       <c r="K115" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L115" t="s">
         <v>61</v>
       </c>
       <c r="M115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O115" t="s">
         <v>64</v>
       </c>
       <c r="P115">
-        <v>32.0372473909091</v>
+        <v>32.037247390909101</v>
       </c>
       <c r="Q115" t="s">
         <v>61</v>
       </c>
       <c r="R115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S115">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B116">
-        <v>1.48235602781057E-08</v>
+        <v>1.48235602781057E-8</v>
       </c>
       <c r="C116" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
@@ -3932,48 +3953,48 @@
         <v>2</v>
       </c>
       <c r="I116">
-        <v>-18.02704801124021</v>
+        <v>-18.027048011240211</v>
       </c>
       <c r="J116">
-        <v>0.4764451699828638</v>
+        <v>0.47644516998286379</v>
       </c>
       <c r="K116" t="s">
+        <v>161</v>
+      </c>
+      <c r="L116" t="s">
+        <v>61</v>
+      </c>
+      <c r="M116" t="s">
         <v>162</v>
       </c>
-      <c r="L116" t="s">
-        <v>61</v>
-      </c>
-      <c r="M116" t="s">
+      <c r="N116" t="s">
         <v>163</v>
       </c>
-      <c r="N116" t="s">
+      <c r="O116" t="s">
         <v>164</v>
       </c>
-      <c r="O116" t="s">
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>61</v>
+      </c>
+      <c r="R116" t="s">
         <v>165</v>
       </c>
-      <c r="P116">
-        <v>0</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>61</v>
-      </c>
-      <c r="R116" t="s">
+      <c r="S116">
+        <v>0.13038404810405299</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>166</v>
       </c>
-      <c r="S116">
-        <v>0.130384048104053</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19">
-      <c r="A117" t="s">
-        <v>167</v>
-      </c>
       <c r="B117">
-        <v>1.48235602781057E-08</v>
+        <v>1.48235602781057E-8</v>
       </c>
       <c r="C117" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
@@ -3988,48 +4009,48 @@
         <v>2</v>
       </c>
       <c r="I117">
-        <v>-18.02704801124021</v>
+        <v>-18.027048011240211</v>
       </c>
       <c r="J117">
-        <v>0.4764451699828638</v>
+        <v>0.47644516998286379</v>
       </c>
       <c r="K117" t="s">
+        <v>167</v>
+      </c>
+      <c r="L117" t="s">
+        <v>61</v>
+      </c>
+      <c r="M117" t="s">
+        <v>162</v>
+      </c>
+      <c r="N117" t="s">
         <v>168</v>
       </c>
-      <c r="L117" t="s">
-        <v>61</v>
-      </c>
-      <c r="M117" t="s">
-        <v>163</v>
-      </c>
-      <c r="N117" t="s">
+      <c r="O117" t="s">
+        <v>164</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>61</v>
+      </c>
+      <c r="R117" t="s">
         <v>169</v>
       </c>
-      <c r="O117" t="s">
-        <v>165</v>
-      </c>
-      <c r="P117">
-        <v>0</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>61</v>
-      </c>
-      <c r="R117" t="s">
-        <v>170</v>
-      </c>
       <c r="S117">
-        <v>0.130384048104053</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19">
+        <v>0.13038404810405299</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>36</v>
       </c>
@@ -4037,31 +4058,31 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>4</v>
       </c>
       <c r="B121" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>39</v>
       </c>
       <c r="B122" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>41</v>
       </c>
       <c r="B123" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>43</v>
       </c>
@@ -4069,7 +4090,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -4077,7 +4098,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>45</v>
       </c>
@@ -4085,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -4093,7 +4114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -4101,7 +4122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -4109,12 +4130,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>14</v>
       </c>
@@ -4167,229 +4188,229 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B132">
-        <v>9.701580259328919E-07</v>
+        <v>9.7015802593289195E-7</v>
       </c>
       <c r="C132" t="s">
         <v>58</v>
       </c>
       <c r="E132" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F132" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G132" t="s">
         <v>60</v>
       </c>
       <c r="H132" t="s">
+        <v>176</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>9.7015802593289195E-7</v>
+      </c>
+      <c r="L132" t="s">
+        <v>61</v>
+      </c>
+      <c r="M132" t="s">
         <v>177</v>
       </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-      <c r="J132">
-        <v>9.701580259328919E-07</v>
-      </c>
-      <c r="L132" t="s">
-        <v>61</v>
-      </c>
-      <c r="M132" t="s">
+      <c r="N132" t="s">
         <v>178</v>
       </c>
-      <c r="N132" t="s">
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>179</v>
       </c>
-      <c r="O132">
-        <v>0</v>
-      </c>
-      <c r="P132" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17">
-      <c r="A133" t="s">
-        <v>180</v>
-      </c>
       <c r="B133">
-        <v>0.000270371908866544</v>
+        <v>2.7037190886654403E-4</v>
       </c>
       <c r="C133" t="s">
         <v>58</v>
       </c>
       <c r="E133" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F133" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G133" t="s">
         <v>60</v>
       </c>
       <c r="H133" t="s">
+        <v>180</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>2.7037190886654403E-4</v>
+      </c>
+      <c r="L133" t="s">
+        <v>61</v>
+      </c>
+      <c r="M133" t="s">
+        <v>177</v>
+      </c>
+      <c r="N133" t="s">
         <v>181</v>
       </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133">
-        <v>0.000270371908866544</v>
-      </c>
-      <c r="L133" t="s">
-        <v>61</v>
-      </c>
-      <c r="M133" t="s">
-        <v>178</v>
-      </c>
-      <c r="N133" t="s">
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>182</v>
       </c>
-      <c r="O133">
-        <v>0</v>
-      </c>
-      <c r="P133" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17">
-      <c r="A134" t="s">
-        <v>183</v>
-      </c>
       <c r="B134">
-        <v>1.59042299333261E-08</v>
+        <v>1.5904229933326101E-8</v>
       </c>
       <c r="C134" t="s">
         <v>58</v>
       </c>
       <c r="E134" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F134" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G134" t="s">
         <v>60</v>
       </c>
       <c r="H134" t="s">
+        <v>183</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>1.5904229933326101E-8</v>
+      </c>
+      <c r="L134" t="s">
+        <v>61</v>
+      </c>
+      <c r="M134" t="s">
+        <v>177</v>
+      </c>
+      <c r="N134" t="s">
         <v>184</v>
       </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-      <c r="J134">
-        <v>1.59042299333261E-08</v>
-      </c>
-      <c r="L134" t="s">
-        <v>61</v>
-      </c>
-      <c r="M134" t="s">
-        <v>178</v>
-      </c>
-      <c r="N134" t="s">
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>185</v>
       </c>
-      <c r="O134">
-        <v>0</v>
-      </c>
-      <c r="P134" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17">
-      <c r="A135" t="s">
-        <v>186</v>
-      </c>
       <c r="B135">
-        <v>1.44728492393268E-05</v>
+        <v>1.44728492393268E-5</v>
       </c>
       <c r="C135" t="s">
         <v>58</v>
       </c>
       <c r="E135" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F135" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G135" t="s">
         <v>60</v>
       </c>
       <c r="H135" t="s">
+        <v>186</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>1.44728492393268E-5</v>
+      </c>
+      <c r="L135" t="s">
+        <v>61</v>
+      </c>
+      <c r="M135" t="s">
+        <v>177</v>
+      </c>
+      <c r="N135" t="s">
         <v>187</v>
       </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="J135">
-        <v>1.44728492393268E-05</v>
-      </c>
-      <c r="L135" t="s">
-        <v>61</v>
-      </c>
-      <c r="M135" t="s">
-        <v>178</v>
-      </c>
-      <c r="N135" t="s">
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>188</v>
       </c>
-      <c r="O135">
-        <v>0</v>
-      </c>
-      <c r="P135" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17">
-      <c r="A136" t="s">
-        <v>189</v>
-      </c>
       <c r="B136">
-        <v>4.77126897999783E-07</v>
+        <v>4.7712689799978296E-7</v>
       </c>
       <c r="C136" t="s">
         <v>58</v>
       </c>
       <c r="E136" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F136" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G136" t="s">
         <v>60</v>
       </c>
       <c r="H136" t="s">
+        <v>189</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>4.7712689799978296E-7</v>
+      </c>
+      <c r="L136" t="s">
+        <v>61</v>
+      </c>
+      <c r="M136" t="s">
+        <v>177</v>
+      </c>
+      <c r="N136" t="s">
         <v>190</v>
       </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="J136">
-        <v>4.77126897999783E-07</v>
-      </c>
-      <c r="L136" t="s">
-        <v>61</v>
-      </c>
-      <c r="M136" t="s">
-        <v>178</v>
-      </c>
-      <c r="N136" t="s">
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>191</v>
-      </c>
-      <c r="O136">
-        <v>0</v>
-      </c>
-      <c r="P136" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17">
-      <c r="A137" t="s">
-        <v>192</v>
       </c>
       <c r="B137">
         <v>1.14510455519948E-13</v>
@@ -4398,16 +4419,16 @@
         <v>58</v>
       </c>
       <c r="E137" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F137" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G137" t="s">
         <v>60</v>
       </c>
       <c r="H137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -4419,649 +4440,649 @@
         <v>61</v>
       </c>
       <c r="M137" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N137" t="s">
+        <v>193</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>194</v>
       </c>
-      <c r="O137">
-        <v>0</v>
-      </c>
-      <c r="P137" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17">
-      <c r="A138" t="s">
-        <v>195</v>
-      </c>
       <c r="B138">
-        <v>7.952114966663051E-09</v>
+        <v>7.9521149666630506E-9</v>
       </c>
       <c r="C138" t="s">
         <v>58</v>
       </c>
       <c r="E138" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F138" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G138" t="s">
         <v>60</v>
       </c>
       <c r="H138" t="s">
+        <v>195</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>7.9521149666630506E-9</v>
+      </c>
+      <c r="L138" t="s">
+        <v>61</v>
+      </c>
+      <c r="M138" t="s">
+        <v>177</v>
+      </c>
+      <c r="N138" t="s">
         <v>196</v>
       </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="J138">
-        <v>7.952114966663051E-09</v>
-      </c>
-      <c r="L138" t="s">
-        <v>61</v>
-      </c>
-      <c r="M138" t="s">
-        <v>178</v>
-      </c>
-      <c r="N138" t="s">
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>197</v>
       </c>
-      <c r="O138">
-        <v>0</v>
-      </c>
-      <c r="P138" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17">
-      <c r="A139" t="s">
-        <v>198</v>
-      </c>
       <c r="B139">
-        <v>9.542537959995659E-07</v>
+        <v>9.5425379599956591E-7</v>
       </c>
       <c r="C139" t="s">
         <v>58</v>
       </c>
       <c r="E139" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F139" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G139" t="s">
         <v>60</v>
       </c>
       <c r="H139" t="s">
+        <v>198</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>9.5425379599956591E-7</v>
+      </c>
+      <c r="L139" t="s">
+        <v>61</v>
+      </c>
+      <c r="M139" t="s">
+        <v>177</v>
+      </c>
+      <c r="N139" t="s">
         <v>199</v>
       </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="J139">
-        <v>9.542537959995659E-07</v>
-      </c>
-      <c r="L139" t="s">
-        <v>61</v>
-      </c>
-      <c r="M139" t="s">
-        <v>178</v>
-      </c>
-      <c r="N139" t="s">
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>200</v>
       </c>
-      <c r="O139">
-        <v>0</v>
-      </c>
-      <c r="P139" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17">
-      <c r="A140" t="s">
-        <v>201</v>
-      </c>
       <c r="B140">
-        <v>1.11329609533283E-08</v>
+        <v>1.11329609533283E-8</v>
       </c>
       <c r="C140" t="s">
         <v>58</v>
       </c>
       <c r="E140" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G140" t="s">
         <v>60</v>
       </c>
       <c r="H140" t="s">
+        <v>201</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>1.11329609533283E-8</v>
+      </c>
+      <c r="L140" t="s">
+        <v>61</v>
+      </c>
+      <c r="M140" t="s">
+        <v>177</v>
+      </c>
+      <c r="N140" t="s">
         <v>202</v>
       </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140">
-        <v>1.11329609533283E-08</v>
-      </c>
-      <c r="L140" t="s">
-        <v>61</v>
-      </c>
-      <c r="M140" t="s">
-        <v>178</v>
-      </c>
-      <c r="N140" t="s">
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>203</v>
       </c>
-      <c r="O140">
-        <v>0</v>
-      </c>
-      <c r="P140" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17">
-      <c r="A141" t="s">
-        <v>204</v>
-      </c>
       <c r="B141">
-        <v>9.30397451099577E-05</v>
+        <v>9.3039745109957703E-5</v>
       </c>
       <c r="C141" t="s">
         <v>58</v>
       </c>
       <c r="E141" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F141" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G141" t="s">
         <v>60</v>
       </c>
       <c r="H141" t="s">
+        <v>204</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>9.3039745109957703E-5</v>
+      </c>
+      <c r="L141" t="s">
+        <v>61</v>
+      </c>
+      <c r="M141" t="s">
+        <v>177</v>
+      </c>
+      <c r="N141" t="s">
         <v>205</v>
       </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="J141">
-        <v>9.30397451099577E-05</v>
-      </c>
-      <c r="L141" t="s">
-        <v>61</v>
-      </c>
-      <c r="M141" t="s">
-        <v>178</v>
-      </c>
-      <c r="N141" t="s">
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>206</v>
       </c>
-      <c r="O141">
-        <v>0</v>
-      </c>
-      <c r="P141" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17">
-      <c r="A142" t="s">
-        <v>207</v>
-      </c>
       <c r="B142">
-        <v>1.52680607359931</v>
+        <v>1.5268060735993101</v>
       </c>
       <c r="C142" t="s">
         <v>58</v>
       </c>
       <c r="E142" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F142" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G142" t="s">
         <v>60</v>
       </c>
       <c r="H142" t="s">
+        <v>207</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>1.5268060735993101</v>
+      </c>
+      <c r="L142" t="s">
+        <v>61</v>
+      </c>
+      <c r="M142" t="s">
+        <v>177</v>
+      </c>
+      <c r="N142" t="s">
         <v>208</v>
       </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-      <c r="J142">
-        <v>1.52680607359931</v>
-      </c>
-      <c r="L142" t="s">
-        <v>61</v>
-      </c>
-      <c r="M142" t="s">
-        <v>178</v>
-      </c>
-      <c r="N142" t="s">
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>209</v>
       </c>
-      <c r="O142">
-        <v>0</v>
-      </c>
-      <c r="P142" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17">
-      <c r="A143" t="s">
-        <v>210</v>
-      </c>
       <c r="B143">
-        <v>0.00159042299333261</v>
+        <v>1.5904229933326099E-3</v>
       </c>
       <c r="C143" t="s">
         <v>58</v>
       </c>
       <c r="E143" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F143" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G143" t="s">
         <v>60</v>
       </c>
       <c r="H143" t="s">
+        <v>210</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>1.5904229933326099E-3</v>
+      </c>
+      <c r="L143" t="s">
+        <v>61</v>
+      </c>
+      <c r="M143" t="s">
         <v>211</v>
       </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143">
-        <v>0.00159042299333261</v>
-      </c>
-      <c r="L143" t="s">
-        <v>61</v>
-      </c>
-      <c r="M143" t="s">
+      <c r="N143" t="s">
         <v>212</v>
       </c>
-      <c r="N143" t="s">
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>213</v>
       </c>
-      <c r="O143">
-        <v>0</v>
-      </c>
-      <c r="P143" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17">
-      <c r="A144" t="s">
-        <v>214</v>
-      </c>
       <c r="B144">
-        <v>2.8627613879987E-06</v>
+        <v>2.8627613879986999E-6</v>
       </c>
       <c r="C144" t="s">
         <v>58</v>
       </c>
       <c r="E144" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F144" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G144" t="s">
         <v>60</v>
       </c>
       <c r="H144" t="s">
+        <v>214</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>2.8627613879986999E-6</v>
+      </c>
+      <c r="L144" t="s">
+        <v>61</v>
+      </c>
+      <c r="M144" t="s">
+        <v>177</v>
+      </c>
+      <c r="N144" t="s">
         <v>215</v>
       </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144">
-        <v>2.8627613879987E-06</v>
-      </c>
-      <c r="L144" t="s">
-        <v>61</v>
-      </c>
-      <c r="M144" t="s">
-        <v>178</v>
-      </c>
-      <c r="N144" t="s">
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>216</v>
       </c>
-      <c r="O144">
-        <v>0</v>
-      </c>
-      <c r="P144" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16">
-      <c r="A145" t="s">
-        <v>217</v>
-      </c>
       <c r="B145">
-        <v>6.298075053597141E-08</v>
+        <v>6.2980750535971406E-8</v>
       </c>
       <c r="C145" t="s">
         <v>58</v>
       </c>
       <c r="E145" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F145" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G145" t="s">
         <v>60</v>
       </c>
       <c r="H145" t="s">
+        <v>217</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>6.2980750535971406E-8</v>
+      </c>
+      <c r="L145" t="s">
+        <v>61</v>
+      </c>
+      <c r="M145" t="s">
+        <v>177</v>
+      </c>
+      <c r="N145" t="s">
         <v>218</v>
       </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145">
-        <v>6.298075053597141E-08</v>
-      </c>
-      <c r="L145" t="s">
-        <v>61</v>
-      </c>
-      <c r="M145" t="s">
-        <v>178</v>
-      </c>
-      <c r="N145" t="s">
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>219</v>
       </c>
-      <c r="O145">
-        <v>0</v>
-      </c>
-      <c r="P145" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16">
-      <c r="A146" t="s">
-        <v>220</v>
-      </c>
       <c r="B146">
-        <v>6.36169197333044E-10</v>
+        <v>6.3616919733304401E-10</v>
       </c>
       <c r="C146" t="s">
         <v>58</v>
       </c>
       <c r="E146" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F146" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G146" t="s">
         <v>60</v>
       </c>
       <c r="H146" t="s">
+        <v>220</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>6.3616919733304401E-10</v>
+      </c>
+      <c r="L146" t="s">
+        <v>61</v>
+      </c>
+      <c r="M146" t="s">
+        <v>177</v>
+      </c>
+      <c r="N146" t="s">
         <v>221</v>
       </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146">
-        <v>6.36169197333044E-10</v>
-      </c>
-      <c r="L146" t="s">
-        <v>61</v>
-      </c>
-      <c r="M146" t="s">
-        <v>178</v>
-      </c>
-      <c r="N146" t="s">
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>222</v>
       </c>
-      <c r="O146">
-        <v>0</v>
-      </c>
-      <c r="P146" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16">
-      <c r="A147" t="s">
-        <v>223</v>
-      </c>
       <c r="B147">
-        <v>3.49893058533174E-07</v>
+        <v>3.4989305853317399E-7</v>
       </c>
       <c r="C147" t="s">
         <v>58</v>
       </c>
       <c r="E147" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F147" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G147" t="s">
         <v>60</v>
       </c>
       <c r="H147" t="s">
+        <v>223</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>3.4989305853317399E-7</v>
+      </c>
+      <c r="L147" t="s">
+        <v>61</v>
+      </c>
+      <c r="M147" t="s">
+        <v>177</v>
+      </c>
+      <c r="N147" t="s">
         <v>224</v>
       </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-      <c r="J147">
-        <v>3.49893058533174E-07</v>
-      </c>
-      <c r="L147" t="s">
-        <v>61</v>
-      </c>
-      <c r="M147" t="s">
-        <v>178</v>
-      </c>
-      <c r="N147" t="s">
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>225</v>
       </c>
-      <c r="O147">
-        <v>0</v>
-      </c>
-      <c r="P147" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16">
-      <c r="A148" t="s">
-        <v>226</v>
-      </c>
       <c r="B148">
-        <v>3.657972884665E-05</v>
+        <v>3.6579728846650002E-5</v>
       </c>
       <c r="C148" t="s">
         <v>58</v>
       </c>
       <c r="E148" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F148" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G148" t="s">
         <v>60</v>
       </c>
       <c r="H148" t="s">
+        <v>226</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>3.6579728846650002E-5</v>
+      </c>
+      <c r="L148" t="s">
+        <v>61</v>
+      </c>
+      <c r="M148" t="s">
+        <v>177</v>
+      </c>
+      <c r="N148" t="s">
         <v>227</v>
       </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
-      <c r="J148">
-        <v>3.657972884665E-05</v>
-      </c>
-      <c r="L148" t="s">
-        <v>61</v>
-      </c>
-      <c r="M148" t="s">
-        <v>178</v>
-      </c>
-      <c r="N148" t="s">
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>228</v>
       </c>
-      <c r="O148">
-        <v>0</v>
-      </c>
-      <c r="P148" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16">
-      <c r="A149" t="s">
-        <v>229</v>
-      </c>
       <c r="B149">
-        <v>4.93031127933109E-13</v>
+        <v>4.9303112793310896E-13</v>
       </c>
       <c r="C149" t="s">
         <v>58</v>
       </c>
       <c r="E149" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F149" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G149" t="s">
         <v>60</v>
       </c>
       <c r="H149" t="s">
+        <v>229</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>4.9303112793310896E-13</v>
+      </c>
+      <c r="L149" t="s">
+        <v>61</v>
+      </c>
+      <c r="M149" t="s">
+        <v>177</v>
+      </c>
+      <c r="N149" t="s">
         <v>230</v>
       </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149">
-        <v>4.93031127933109E-13</v>
-      </c>
-      <c r="L149" t="s">
-        <v>61</v>
-      </c>
-      <c r="M149" t="s">
-        <v>178</v>
-      </c>
-      <c r="N149" t="s">
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>231</v>
       </c>
-      <c r="O149">
-        <v>0</v>
-      </c>
-      <c r="P149" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16">
-      <c r="A150" t="s">
-        <v>232</v>
-      </c>
       <c r="B150">
-        <v>7.95211496666305E-07</v>
+        <v>7.9521149666630503E-7</v>
       </c>
       <c r="C150" t="s">
         <v>58</v>
       </c>
       <c r="E150" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F150" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G150" t="s">
         <v>60</v>
       </c>
       <c r="H150" t="s">
+        <v>232</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>7.9521149666630503E-7</v>
+      </c>
+      <c r="L150" t="s">
+        <v>61</v>
+      </c>
+      <c r="M150" t="s">
+        <v>177</v>
+      </c>
+      <c r="N150" t="s">
         <v>233</v>
       </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="J150">
-        <v>7.95211496666305E-07</v>
-      </c>
-      <c r="L150" t="s">
-        <v>61</v>
-      </c>
-      <c r="M150" t="s">
-        <v>178</v>
-      </c>
-      <c r="N150" t="s">
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>234</v>
       </c>
-      <c r="O150">
-        <v>0</v>
-      </c>
-      <c r="P150" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16">
-      <c r="A151" t="s">
-        <v>235</v>
-      </c>
       <c r="B151">
-        <v>2.06754989133239E-06</v>
+        <v>2.0675498913323901E-6</v>
       </c>
       <c r="C151" t="s">
         <v>58</v>
       </c>
       <c r="E151" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F151" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G151" t="s">
         <v>60</v>
       </c>
       <c r="H151" t="s">
+        <v>235</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>2.0675498913323901E-6</v>
+      </c>
+      <c r="L151" t="s">
+        <v>61</v>
+      </c>
+      <c r="M151" t="s">
+        <v>177</v>
+      </c>
+      <c r="N151" t="s">
         <v>236</v>
       </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
-      <c r="J151">
-        <v>2.06754989133239E-06</v>
-      </c>
-      <c r="L151" t="s">
-        <v>61</v>
-      </c>
-      <c r="M151" t="s">
-        <v>178</v>
-      </c>
-      <c r="N151" t="s">
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>237</v>
       </c>
-      <c r="O151">
-        <v>0</v>
-      </c>
-      <c r="P151" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16">
-      <c r="A152" t="s">
-        <v>238</v>
-      </c>
       <c r="B152">
-        <v>1.44728492393268E-05</v>
+        <v>1.44728492393268E-5</v>
       </c>
       <c r="C152" t="s">
         <v>58</v>
       </c>
       <c r="E152" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F152" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G152" t="s">
         <v>60</v>
@@ -5070,39 +5091,39 @@
         <v>0</v>
       </c>
       <c r="J152">
-        <v>1.44728492393268E-05</v>
+        <v>1.44728492393268E-5</v>
       </c>
       <c r="L152" t="s">
         <v>61</v>
       </c>
       <c r="M152" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N152" t="s">
+        <v>238</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>239</v>
       </c>
-      <c r="O152">
-        <v>0</v>
-      </c>
-      <c r="P152" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16">
-      <c r="A153" t="s">
-        <v>240</v>
-      </c>
       <c r="B153">
-        <v>4.93031127933109E-05</v>
+        <v>4.9303112793310897E-5</v>
       </c>
       <c r="C153" t="s">
         <v>58</v>
       </c>
       <c r="E153" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F153" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G153" t="s">
         <v>60</v>
@@ -5111,259 +5132,259 @@
         <v>0</v>
       </c>
       <c r="J153">
-        <v>4.93031127933109E-05</v>
+        <v>4.9303112793310897E-5</v>
       </c>
       <c r="L153" t="s">
         <v>61</v>
       </c>
       <c r="M153" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N153" t="s">
+        <v>240</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+      <c r="P153" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>241</v>
       </c>
-      <c r="O153">
-        <v>0</v>
-      </c>
-      <c r="P153" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16">
-      <c r="A154" t="s">
-        <v>242</v>
-      </c>
       <c r="B154">
-        <v>3.97605748333153E-07</v>
+        <v>3.9760574833315299E-7</v>
       </c>
       <c r="C154" t="s">
         <v>58</v>
       </c>
       <c r="E154" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F154" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G154" t="s">
         <v>60</v>
       </c>
       <c r="H154" t="s">
+        <v>242</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>3.9760574833315299E-7</v>
+      </c>
+      <c r="L154" t="s">
+        <v>61</v>
+      </c>
+      <c r="M154" t="s">
+        <v>177</v>
+      </c>
+      <c r="N154" t="s">
         <v>243</v>
       </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-      <c r="J154">
-        <v>3.97605748333153E-07</v>
-      </c>
-      <c r="L154" t="s">
-        <v>61</v>
-      </c>
-      <c r="M154" t="s">
-        <v>178</v>
-      </c>
-      <c r="N154" t="s">
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>244</v>
       </c>
-      <c r="O154">
-        <v>0</v>
-      </c>
-      <c r="P154" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16">
-      <c r="A155" t="s">
-        <v>245</v>
-      </c>
       <c r="B155">
-        <v>5.7255227759974E-06</v>
+        <v>5.7255227759973997E-6</v>
       </c>
       <c r="C155" t="s">
         <v>58</v>
       </c>
       <c r="E155" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F155" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G155" t="s">
         <v>60</v>
       </c>
       <c r="H155" t="s">
+        <v>245</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>5.7255227759973997E-6</v>
+      </c>
+      <c r="L155" t="s">
+        <v>61</v>
+      </c>
+      <c r="M155" t="s">
+        <v>177</v>
+      </c>
+      <c r="N155" t="s">
         <v>246</v>
       </c>
-      <c r="I155">
-        <v>0</v>
-      </c>
-      <c r="J155">
-        <v>5.7255227759974E-06</v>
-      </c>
-      <c r="L155" t="s">
-        <v>61</v>
-      </c>
-      <c r="M155" t="s">
-        <v>178</v>
-      </c>
-      <c r="N155" t="s">
+      <c r="O155">
+        <v>0</v>
+      </c>
+      <c r="P155" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>247</v>
       </c>
-      <c r="O155">
-        <v>0</v>
-      </c>
-      <c r="P155" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16">
-      <c r="A156" t="s">
-        <v>248</v>
-      </c>
       <c r="B156">
-        <v>2.70371908866544E-06</v>
+        <v>2.7037190886654399E-6</v>
       </c>
       <c r="C156" t="s">
         <v>58</v>
       </c>
       <c r="E156" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F156" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G156" t="s">
         <v>60</v>
       </c>
       <c r="H156" t="s">
+        <v>248</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>2.7037190886654399E-6</v>
+      </c>
+      <c r="L156" t="s">
+        <v>61</v>
+      </c>
+      <c r="M156" t="s">
+        <v>177</v>
+      </c>
+      <c r="N156" t="s">
         <v>249</v>
       </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="J156">
-        <v>2.70371908866544E-06</v>
-      </c>
-      <c r="L156" t="s">
-        <v>61</v>
-      </c>
-      <c r="M156" t="s">
-        <v>178</v>
-      </c>
-      <c r="N156" t="s">
+      <c r="O156">
+        <v>0</v>
+      </c>
+      <c r="P156" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>250</v>
       </c>
-      <c r="O156">
-        <v>0</v>
-      </c>
-      <c r="P156" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16">
-      <c r="A157" t="s">
-        <v>251</v>
-      </c>
       <c r="B157">
-        <v>4.77126897999783E-09</v>
+        <v>4.7712689799978297E-9</v>
       </c>
       <c r="C157" t="s">
         <v>58</v>
       </c>
       <c r="E157" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F157" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G157" t="s">
         <v>60</v>
       </c>
       <c r="H157" t="s">
+        <v>251</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>4.7712689799978297E-9</v>
+      </c>
+      <c r="L157" t="s">
+        <v>61</v>
+      </c>
+      <c r="M157" t="s">
+        <v>177</v>
+      </c>
+      <c r="N157" t="s">
         <v>252</v>
       </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
-      <c r="J157">
-        <v>4.77126897999783E-09</v>
-      </c>
-      <c r="L157" t="s">
-        <v>61</v>
-      </c>
-      <c r="M157" t="s">
-        <v>178</v>
-      </c>
-      <c r="N157" t="s">
+      <c r="O157">
+        <v>0</v>
+      </c>
+      <c r="P157" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>253</v>
       </c>
-      <c r="O157">
-        <v>0</v>
-      </c>
-      <c r="P157" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16">
-      <c r="A158" t="s">
-        <v>254</v>
-      </c>
       <c r="B158">
-        <v>1.90850759199913E-05</v>
+        <v>1.90850759199913E-5</v>
       </c>
       <c r="C158" t="s">
         <v>58</v>
       </c>
       <c r="E158" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F158" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G158" t="s">
         <v>60</v>
       </c>
       <c r="H158" t="s">
+        <v>254</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>1.90850759199913E-5</v>
+      </c>
+      <c r="L158" t="s">
+        <v>61</v>
+      </c>
+      <c r="M158" t="s">
+        <v>211</v>
+      </c>
+      <c r="N158" t="s">
         <v>255</v>
       </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
-      <c r="J158">
-        <v>1.90850759199913E-05</v>
-      </c>
-      <c r="L158" t="s">
-        <v>61</v>
-      </c>
-      <c r="M158" t="s">
-        <v>212</v>
-      </c>
-      <c r="N158" t="s">
+      <c r="O158">
+        <v>0</v>
+      </c>
+      <c r="P158" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>256</v>
       </c>
-      <c r="O158">
-        <v>0</v>
-      </c>
-      <c r="P158" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16">
-      <c r="A159" t="s">
-        <v>257</v>
-      </c>
       <c r="B159">
-        <v>4.45318438133131E-05</v>
+        <v>4.4531843813313098E-5</v>
       </c>
       <c r="C159" t="s">
         <v>58</v>
       </c>
       <c r="E159" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F159" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G159" t="s">
         <v>60</v>
@@ -5372,127 +5393,127 @@
         <v>0</v>
       </c>
       <c r="J159">
-        <v>4.45318438133131E-05</v>
+        <v>4.4531843813313098E-5</v>
       </c>
       <c r="L159" t="s">
         <v>61</v>
       </c>
       <c r="M159" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N159" t="s">
+        <v>257</v>
+      </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+      <c r="P159" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>258</v>
       </c>
-      <c r="O159">
-        <v>0</v>
-      </c>
-      <c r="P159" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16">
-      <c r="A160" t="s">
-        <v>259</v>
-      </c>
       <c r="B160">
-        <v>9.542537959995659E-08</v>
+        <v>9.5425379599956594E-8</v>
       </c>
       <c r="C160" t="s">
         <v>58</v>
       </c>
       <c r="E160" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F160" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G160" t="s">
         <v>60</v>
       </c>
       <c r="H160" t="s">
+        <v>259</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>9.5425379599956594E-8</v>
+      </c>
+      <c r="L160" t="s">
+        <v>61</v>
+      </c>
+      <c r="M160" t="s">
+        <v>177</v>
+      </c>
+      <c r="N160" t="s">
         <v>260</v>
       </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
-      <c r="J160">
-        <v>9.542537959995659E-08</v>
-      </c>
-      <c r="L160" t="s">
-        <v>61</v>
-      </c>
-      <c r="M160" t="s">
-        <v>178</v>
-      </c>
-      <c r="N160" t="s">
+      <c r="O160">
+        <v>0</v>
+      </c>
+      <c r="P160" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>261</v>
       </c>
-      <c r="O160">
-        <v>0</v>
-      </c>
-      <c r="P160" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17">
-      <c r="A161" t="s">
-        <v>262</v>
-      </c>
       <c r="B161">
-        <v>0.00127233839466609</v>
+        <v>1.27233839466609E-3</v>
       </c>
       <c r="C161" t="s">
         <v>58</v>
       </c>
       <c r="E161" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F161" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G161" t="s">
         <v>60</v>
       </c>
       <c r="H161" t="s">
+        <v>262</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>1.27233839466609E-3</v>
+      </c>
+      <c r="L161" t="s">
+        <v>61</v>
+      </c>
+      <c r="M161" t="s">
+        <v>211</v>
+      </c>
+      <c r="N161" t="s">
         <v>263</v>
       </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-      <c r="J161">
-        <v>0.00127233839466609</v>
-      </c>
-      <c r="L161" t="s">
-        <v>61</v>
-      </c>
-      <c r="M161" t="s">
-        <v>212</v>
-      </c>
-      <c r="N161" t="s">
+      <c r="O161">
+        <v>0</v>
+      </c>
+      <c r="P161" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>264</v>
       </c>
-      <c r="O161">
-        <v>0</v>
-      </c>
-      <c r="P161" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17">
-      <c r="A162" t="s">
-        <v>265</v>
-      </c>
       <c r="B162">
-        <v>1.7653695225992E-07</v>
+        <v>1.7653695225992E-7</v>
       </c>
       <c r="C162" t="s">
         <v>58</v>
       </c>
       <c r="E162" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F162" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G162" t="s">
         <v>60</v>
@@ -5501,39 +5522,39 @@
         <v>0</v>
       </c>
       <c r="J162">
-        <v>1.7653695225992E-07</v>
+        <v>1.7653695225992E-7</v>
       </c>
       <c r="L162" t="s">
         <v>61</v>
       </c>
       <c r="M162" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N162" t="s">
+        <v>265</v>
+      </c>
+      <c r="O162">
+        <v>0</v>
+      </c>
+      <c r="P162" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>266</v>
       </c>
-      <c r="O162">
-        <v>0</v>
-      </c>
-      <c r="P162" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17">
-      <c r="A163" t="s">
-        <v>267</v>
-      </c>
       <c r="B163">
-        <v>7.95211496666305E-05</v>
+        <v>7.9521149666630502E-5</v>
       </c>
       <c r="C163" t="s">
         <v>58</v>
       </c>
       <c r="E163" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F163" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G163" t="s">
         <v>60</v>
@@ -5542,27 +5563,27 @@
         <v>0</v>
       </c>
       <c r="J163">
-        <v>7.95211496666305E-05</v>
+        <v>7.9521149666630502E-5</v>
       </c>
       <c r="L163" t="s">
         <v>61</v>
       </c>
       <c r="M163" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N163" t="s">
+        <v>267</v>
+      </c>
+      <c r="O163">
+        <v>0</v>
+      </c>
+      <c r="P163" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>268</v>
-      </c>
-      <c r="O163">
-        <v>0</v>
-      </c>
-      <c r="P163" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="164" spans="1:17">
-      <c r="A164" t="s">
-        <v>269</v>
       </c>
       <c r="B164">
         <v>1.28824262459941E-10</v>
@@ -5571,16 +5592,16 @@
         <v>58</v>
       </c>
       <c r="E164" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F164" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G164" t="s">
         <v>60</v>
       </c>
       <c r="H164" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -5592,231 +5613,231 @@
         <v>61</v>
       </c>
       <c r="M164" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N164" t="s">
+        <v>270</v>
+      </c>
+      <c r="O164">
+        <v>0</v>
+      </c>
+      <c r="P164" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>271</v>
       </c>
-      <c r="O164">
-        <v>0</v>
-      </c>
-      <c r="P164" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="165" spans="1:17">
-      <c r="A165" t="s">
-        <v>272</v>
-      </c>
       <c r="B165">
-        <v>4.77126897999783E-06</v>
+        <v>4.77126897999783E-6</v>
       </c>
       <c r="C165" t="s">
         <v>58</v>
       </c>
       <c r="E165" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F165" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G165" t="s">
         <v>60</v>
       </c>
       <c r="H165" t="s">
+        <v>272</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>4.77126897999783E-6</v>
+      </c>
+      <c r="L165" t="s">
+        <v>61</v>
+      </c>
+      <c r="M165" t="s">
+        <v>177</v>
+      </c>
+      <c r="N165" t="s">
         <v>273</v>
       </c>
-      <c r="I165">
-        <v>0</v>
-      </c>
-      <c r="J165">
-        <v>4.77126897999783E-06</v>
-      </c>
-      <c r="L165" t="s">
-        <v>61</v>
-      </c>
-      <c r="M165" t="s">
-        <v>178</v>
-      </c>
-      <c r="N165" t="s">
+      <c r="O165">
+        <v>0</v>
+      </c>
+      <c r="P165" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>274</v>
       </c>
-      <c r="O165">
-        <v>0</v>
-      </c>
-      <c r="P165" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="166" spans="1:17">
-      <c r="A166" t="s">
-        <v>275</v>
-      </c>
       <c r="B166">
-        <v>0.000372158980439831</v>
+        <v>3.7215898043983098E-4</v>
       </c>
       <c r="C166" t="s">
         <v>58</v>
       </c>
       <c r="E166" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F166" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G166" t="s">
         <v>60</v>
       </c>
       <c r="H166" t="s">
+        <v>275</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>3.7215898043983098E-4</v>
+      </c>
+      <c r="L166" t="s">
+        <v>61</v>
+      </c>
+      <c r="M166" t="s">
+        <v>177</v>
+      </c>
+      <c r="N166" t="s">
         <v>276</v>
       </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
-      <c r="J166">
-        <v>0.000372158980439831</v>
-      </c>
-      <c r="L166" t="s">
-        <v>61</v>
-      </c>
-      <c r="M166" t="s">
-        <v>178</v>
-      </c>
-      <c r="N166" t="s">
+      <c r="O166">
+        <v>0</v>
+      </c>
+      <c r="P166" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>277</v>
       </c>
-      <c r="O166">
-        <v>0</v>
-      </c>
-      <c r="P166" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="167" spans="1:17">
-      <c r="A167" t="s">
-        <v>278</v>
-      </c>
       <c r="B167">
-        <v>2.06754989133239E-05</v>
+        <v>2.0675498913323901E-5</v>
       </c>
       <c r="C167" t="s">
         <v>58</v>
       </c>
       <c r="E167" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F167" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G167" t="s">
         <v>60</v>
       </c>
       <c r="H167" t="s">
+        <v>278</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>2.0675498913323901E-5</v>
+      </c>
+      <c r="L167" t="s">
+        <v>61</v>
+      </c>
+      <c r="M167" t="s">
+        <v>177</v>
+      </c>
+      <c r="N167" t="s">
         <v>279</v>
       </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
-      <c r="J167">
-        <v>2.06754989133239E-05</v>
-      </c>
-      <c r="L167" t="s">
-        <v>61</v>
-      </c>
-      <c r="M167" t="s">
-        <v>178</v>
-      </c>
-      <c r="N167" t="s">
+      <c r="O167">
+        <v>0</v>
+      </c>
+      <c r="P167" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>280</v>
       </c>
-      <c r="O167">
-        <v>0</v>
-      </c>
-      <c r="P167" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="168" spans="1:17">
-      <c r="A168" t="s">
-        <v>281</v>
-      </c>
       <c r="B168">
-        <v>3.97605748333153E-05</v>
+        <v>3.9760574833315298E-5</v>
       </c>
       <c r="C168" t="s">
         <v>58</v>
       </c>
       <c r="E168" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F168" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G168" t="s">
         <v>60</v>
       </c>
       <c r="H168" t="s">
+        <v>281</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>3.9760574833315298E-5</v>
+      </c>
+      <c r="L168" t="s">
+        <v>61</v>
+      </c>
+      <c r="M168" t="s">
+        <v>177</v>
+      </c>
+      <c r="N168" t="s">
         <v>282</v>
       </c>
-      <c r="I168">
-        <v>0</v>
-      </c>
-      <c r="J168">
-        <v>3.97605748333153E-05</v>
-      </c>
-      <c r="L168" t="s">
-        <v>61</v>
-      </c>
-      <c r="M168" t="s">
-        <v>178</v>
-      </c>
-      <c r="N168" t="s">
+      <c r="O168">
+        <v>0</v>
+      </c>
+      <c r="P168" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>283</v>
       </c>
-      <c r="O168">
-        <v>0</v>
-      </c>
-      <c r="P168" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="169" spans="1:17">
-      <c r="A169" t="s">
-        <v>284</v>
-      </c>
       <c r="B169">
-        <v>4.77126897999783E-06</v>
+        <v>4.77126897999783E-6</v>
       </c>
       <c r="C169" t="s">
         <v>58</v>
       </c>
       <c r="E169" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F169" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G169" t="s">
         <v>60</v>
       </c>
       <c r="H169" t="s">
+        <v>284</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>4.77126897999783E-6</v>
+      </c>
+      <c r="L169" t="s">
+        <v>61</v>
+      </c>
+      <c r="M169" t="s">
+        <v>177</v>
+      </c>
+      <c r="N169" t="s">
         <v>285</v>
       </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-      <c r="J169">
-        <v>4.77126897999783E-06</v>
-      </c>
-      <c r="L169" t="s">
-        <v>61</v>
-      </c>
-      <c r="M169" t="s">
-        <v>178</v>
-      </c>
-      <c r="N169" t="s">
-        <v>286</v>
-      </c>
       <c r="O169">
         <v>0</v>
       </c>
@@ -5824,12 +5845,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>85</v>
       </c>
       <c r="B170">
-        <v>0.000925626182119579</v>
+        <v>9.25626182119579E-4</v>
       </c>
       <c r="C170" t="s">
         <v>58</v>
@@ -5838,7 +5859,7 @@
         <v>86</v>
       </c>
       <c r="F170" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G170" t="s">
         <v>60</v>
@@ -5850,104 +5871,104 @@
         <v>0</v>
       </c>
       <c r="J170">
-        <v>0.000925626182119579</v>
+        <v>9.25626182119579E-4</v>
       </c>
       <c r="L170" t="s">
         <v>61</v>
       </c>
       <c r="M170" t="s">
+        <v>287</v>
+      </c>
+      <c r="N170" t="s">
         <v>288</v>
       </c>
-      <c r="N170" t="s">
+      <c r="O170">
+        <v>0</v>
+      </c>
+      <c r="P170" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>289</v>
       </c>
-      <c r="O170">
-        <v>0</v>
-      </c>
-      <c r="P170" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17">
-      <c r="A171" t="s">
-        <v>290</v>
-      </c>
       <c r="B171">
-        <v>4.77126897999783E-06</v>
+        <v>4.77126897999783E-6</v>
       </c>
       <c r="C171" t="s">
         <v>58</v>
       </c>
       <c r="E171" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F171" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G171" t="s">
         <v>60</v>
       </c>
       <c r="H171" t="s">
+        <v>290</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>4.77126897999783E-6</v>
+      </c>
+      <c r="L171" t="s">
+        <v>61</v>
+      </c>
+      <c r="M171" t="s">
+        <v>177</v>
+      </c>
+      <c r="N171" t="s">
         <v>291</v>
       </c>
-      <c r="I171">
-        <v>0</v>
-      </c>
-      <c r="J171">
-        <v>4.77126897999783E-06</v>
-      </c>
-      <c r="L171" t="s">
-        <v>61</v>
-      </c>
-      <c r="M171" t="s">
-        <v>178</v>
-      </c>
-      <c r="N171" t="s">
+      <c r="O171">
+        <v>0</v>
+      </c>
+      <c r="P171" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>292</v>
       </c>
-      <c r="O171">
-        <v>0</v>
-      </c>
-      <c r="P171" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="172" spans="1:17">
-      <c r="A172" t="s">
-        <v>293</v>
-      </c>
       <c r="B172">
-        <v>1.90850759199913E-06</v>
+        <v>1.9085075919991301E-6</v>
       </c>
       <c r="C172" t="s">
         <v>58</v>
       </c>
       <c r="E172" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F172" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G172" t="s">
         <v>60</v>
       </c>
       <c r="H172" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I172">
         <v>0</v>
       </c>
       <c r="J172">
-        <v>1.90850759199913E-06</v>
+        <v>1.9085075919991301E-6</v>
       </c>
       <c r="L172" t="s">
         <v>61</v>
       </c>
       <c r="M172" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N172" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O172">
         <v>0</v>
@@ -5956,9 +5977,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -5982,13 +6003,13 @@
         <v>1</v>
       </c>
       <c r="K173" t="s">
+        <v>294</v>
+      </c>
+      <c r="L173" t="s">
+        <v>61</v>
+      </c>
+      <c r="M173" t="s">
         <v>295</v>
-      </c>
-      <c r="L173" t="s">
-        <v>61</v>
-      </c>
-      <c r="M173" t="s">
-        <v>296</v>
       </c>
       <c r="N173" t="s">
         <v>44</v>
@@ -6003,15 +6024,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:17">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B174">
-        <v>8.283038938327101E-09</v>
+        <v>8.2830389383271006E-9</v>
       </c>
       <c r="C174" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D174" t="s">
         <v>21</v>
@@ -6026,45 +6047,45 @@
         <v>0</v>
       </c>
       <c r="J174">
-        <v>8.283038938327101E-09</v>
+        <v>8.2830389383271006E-9</v>
       </c>
       <c r="K174" t="s">
+        <v>297</v>
+      </c>
+      <c r="L174" t="s">
+        <v>61</v>
+      </c>
+      <c r="M174" t="s">
         <v>298</v>
       </c>
-      <c r="L174" t="s">
-        <v>61</v>
-      </c>
-      <c r="M174" t="s">
+      <c r="N174" t="s">
         <v>299</v>
       </c>
-      <c r="N174" t="s">
+      <c r="O174">
+        <v>0</v>
+      </c>
+      <c r="P174" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q174" t="s">
         <v>300</v>
       </c>
-      <c r="O174">
-        <v>0</v>
-      </c>
-      <c r="P174" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q174" t="s">
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="175" spans="1:17">
-      <c r="A175" t="s">
-        <v>302</v>
-      </c>
       <c r="B175">
-        <v>0.00127233839466609</v>
+        <v>1.27233839466609E-3</v>
       </c>
       <c r="C175" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D175" t="s">
         <v>7</v>
       </c>
       <c r="E175" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G175" t="s">
         <v>19</v>
@@ -6073,45 +6094,45 @@
         <v>0</v>
       </c>
       <c r="J175">
-        <v>0.00127233839466609</v>
+        <v>1.27233839466609E-3</v>
       </c>
       <c r="K175" t="s">
+        <v>302</v>
+      </c>
+      <c r="L175" t="s">
+        <v>61</v>
+      </c>
+      <c r="M175" t="s">
+        <v>211</v>
+      </c>
+      <c r="N175" t="s">
         <v>303</v>
       </c>
-      <c r="L175" t="s">
-        <v>61</v>
-      </c>
-      <c r="M175" t="s">
-        <v>212</v>
-      </c>
-      <c r="N175" t="s">
+      <c r="O175">
+        <v>0</v>
+      </c>
+      <c r="P175" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q175" t="s">
         <v>304</v>
       </c>
-      <c r="O175">
-        <v>0</v>
-      </c>
-      <c r="P175" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q175" t="s">
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="176" spans="1:17">
-      <c r="A176" t="s">
-        <v>306</v>
-      </c>
       <c r="B176">
-        <v>1.30414685453274E-07</v>
+        <v>1.30414685453274E-7</v>
       </c>
       <c r="C176" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D176" t="s">
+        <v>103</v>
+      </c>
+      <c r="E176" t="s">
         <v>104</v>
-      </c>
-      <c r="E176" t="s">
-        <v>105</v>
       </c>
       <c r="G176" t="s">
         <v>19</v>
@@ -6120,45 +6141,45 @@
         <v>0</v>
       </c>
       <c r="J176">
-        <v>1.30414685453274E-07</v>
+        <v>1.30414685453274E-7</v>
       </c>
       <c r="K176" t="s">
+        <v>306</v>
+      </c>
+      <c r="L176" t="s">
+        <v>61</v>
+      </c>
+      <c r="M176" t="s">
+        <v>177</v>
+      </c>
+      <c r="N176" t="s">
         <v>307</v>
       </c>
-      <c r="L176" t="s">
-        <v>61</v>
-      </c>
-      <c r="M176" t="s">
-        <v>178</v>
-      </c>
-      <c r="N176" t="s">
+      <c r="O176">
+        <v>0</v>
+      </c>
+      <c r="P176" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q176" t="s">
         <v>308</v>
       </c>
-      <c r="O176">
-        <v>0</v>
-      </c>
-      <c r="P176" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q176" t="s">
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="177" spans="1:17">
-      <c r="A177" t="s">
-        <v>310</v>
-      </c>
       <c r="B177">
-        <v>9.30397451099577E-05</v>
+        <v>9.3039745109957703E-5</v>
       </c>
       <c r="C177" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D177" t="s">
         <v>7</v>
       </c>
       <c r="E177" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G177" t="s">
         <v>19</v>
@@ -6167,45 +6188,45 @@
         <v>0</v>
       </c>
       <c r="J177">
-        <v>9.30397451099577E-05</v>
+        <v>9.3039745109957703E-5</v>
       </c>
       <c r="K177" t="s">
+        <v>310</v>
+      </c>
+      <c r="L177" t="s">
+        <v>61</v>
+      </c>
+      <c r="M177" t="s">
+        <v>177</v>
+      </c>
+      <c r="N177" t="s">
         <v>311</v>
       </c>
-      <c r="L177" t="s">
-        <v>61</v>
-      </c>
-      <c r="M177" t="s">
-        <v>178</v>
-      </c>
-      <c r="N177" t="s">
+      <c r="O177">
+        <v>0</v>
+      </c>
+      <c r="P177" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q177" t="s">
         <v>312</v>
       </c>
-      <c r="O177">
-        <v>0</v>
-      </c>
-      <c r="P177" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q177" t="s">
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="178" spans="1:17">
-      <c r="A178" t="s">
-        <v>314</v>
-      </c>
       <c r="B178">
-        <v>5.21658741813096E-06</v>
+        <v>5.2165874181309598E-6</v>
       </c>
       <c r="C178" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D178" t="s">
+        <v>103</v>
+      </c>
+      <c r="E178" t="s">
         <v>104</v>
-      </c>
-      <c r="E178" t="s">
-        <v>105</v>
       </c>
       <c r="G178" t="s">
         <v>19</v>
@@ -6214,39 +6235,39 @@
         <v>0</v>
       </c>
       <c r="J178">
-        <v>5.21658741813096E-06</v>
+        <v>5.2165874181309598E-6</v>
       </c>
       <c r="K178" t="s">
+        <v>314</v>
+      </c>
+      <c r="L178" t="s">
+        <v>61</v>
+      </c>
+      <c r="M178" t="s">
+        <v>177</v>
+      </c>
+      <c r="N178" t="s">
         <v>315</v>
       </c>
-      <c r="L178" t="s">
-        <v>61</v>
-      </c>
-      <c r="M178" t="s">
-        <v>178</v>
-      </c>
-      <c r="N178" t="s">
+      <c r="O178">
+        <v>0</v>
+      </c>
+      <c r="P178" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q178" t="s">
         <v>316</v>
       </c>
-      <c r="O178">
-        <v>0</v>
-      </c>
-      <c r="P178" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q178" t="s">
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="179" spans="1:17">
-      <c r="A179" t="s">
-        <v>318</v>
-      </c>
       <c r="B179">
-        <v>8.283038938327101E-09</v>
+        <v>8.2830389383271006E-9</v>
       </c>
       <c r="C179" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D179" t="s">
         <v>7</v>
@@ -6261,39 +6282,39 @@
         <v>0</v>
       </c>
       <c r="J179">
-        <v>8.283038938327101E-09</v>
+        <v>8.2830389383271006E-9</v>
       </c>
       <c r="K179" t="s">
+        <v>318</v>
+      </c>
+      <c r="L179" t="s">
+        <v>61</v>
+      </c>
+      <c r="M179" t="s">
+        <v>298</v>
+      </c>
+      <c r="N179" t="s">
         <v>319</v>
       </c>
-      <c r="L179" t="s">
-        <v>61</v>
-      </c>
-      <c r="M179" t="s">
-        <v>299</v>
-      </c>
-      <c r="N179" t="s">
+      <c r="O179">
+        <v>0</v>
+      </c>
+      <c r="P179" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q179" t="s">
         <v>320</v>
       </c>
-      <c r="O179">
-        <v>0</v>
-      </c>
-      <c r="P179" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q179" t="s">
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="180" spans="1:17">
-      <c r="A180" t="s">
-        <v>322</v>
-      </c>
       <c r="B180">
-        <v>8.283038938327101E-09</v>
+        <v>8.2830389383271006E-9</v>
       </c>
       <c r="C180" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D180" t="s">
         <v>7</v>
@@ -6308,45 +6329,45 @@
         <v>0</v>
       </c>
       <c r="J180">
-        <v>8.283038938327101E-09</v>
+        <v>8.2830389383271006E-9</v>
       </c>
       <c r="K180" t="s">
+        <v>322</v>
+      </c>
+      <c r="L180" t="s">
+        <v>61</v>
+      </c>
+      <c r="M180" t="s">
+        <v>298</v>
+      </c>
+      <c r="N180" t="s">
         <v>323</v>
       </c>
-      <c r="L180" t="s">
-        <v>61</v>
-      </c>
-      <c r="M180" t="s">
-        <v>299</v>
-      </c>
-      <c r="N180" t="s">
+      <c r="O180">
+        <v>0</v>
+      </c>
+      <c r="P180" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q180" t="s">
         <v>324</v>
       </c>
-      <c r="O180">
-        <v>0</v>
-      </c>
-      <c r="P180" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q180" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="181" spans="1:17">
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
+        <v>102</v>
+      </c>
+      <c r="B181">
+        <v>5.2165874181309602E-5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>405</v>
+      </c>
+      <c r="D181" t="s">
         <v>103</v>
       </c>
-      <c r="B181">
-        <v>5.21658741813096E-05</v>
-      </c>
-      <c r="C181" t="s">
-        <v>98</v>
-      </c>
-      <c r="D181" t="s">
+      <c r="E181" t="s">
         <v>104</v>
-      </c>
-      <c r="E181" t="s">
-        <v>105</v>
       </c>
       <c r="G181" t="s">
         <v>19</v>
@@ -6355,19 +6376,19 @@
         <v>0</v>
       </c>
       <c r="J181">
-        <v>5.21658741813096E-05</v>
+        <v>5.2165874181309602E-5</v>
       </c>
       <c r="K181" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L181" t="s">
         <v>61</v>
       </c>
       <c r="M181" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N181" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O181">
         <v>0</v>
@@ -6376,24 +6397,24 @@
         <v>61</v>
       </c>
       <c r="Q181" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="182" spans="1:17">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B182">
-        <v>-5.21658741813096E-05</v>
+        <v>-5.2165874181309602E-5</v>
       </c>
       <c r="C182" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D182" t="s">
         <v>21</v>
       </c>
       <c r="E182" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G182" t="s">
         <v>19</v>
@@ -6402,19 +6423,19 @@
         <v>0</v>
       </c>
       <c r="J182">
-        <v>-5.21658741813096E-05</v>
+        <v>-5.2165874181309602E-5</v>
       </c>
       <c r="K182" t="s">
+        <v>326</v>
+      </c>
+      <c r="L182" t="s">
+        <v>61</v>
+      </c>
+      <c r="M182" t="s">
+        <v>177</v>
+      </c>
+      <c r="N182" t="s">
         <v>327</v>
-      </c>
-      <c r="L182" t="s">
-        <v>61</v>
-      </c>
-      <c r="M182" t="s">
-        <v>178</v>
-      </c>
-      <c r="N182" t="s">
-        <v>328</v>
       </c>
       <c r="O182">
         <v>1</v>
@@ -6423,24 +6444,24 @@
         <v>61</v>
       </c>
       <c r="Q182" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="183" spans="1:17">
-      <c r="A183" t="s">
-        <v>330</v>
-      </c>
       <c r="B183">
-        <v>6.5207342726637E-05</v>
+        <v>6.5207342726637002E-5</v>
       </c>
       <c r="C183" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D183" t="s">
         <v>7</v>
       </c>
       <c r="E183" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G183" t="s">
         <v>19</v>
@@ -6449,45 +6470,45 @@
         <v>0</v>
       </c>
       <c r="J183">
-        <v>6.5207342726637E-05</v>
+        <v>6.5207342726637002E-5</v>
       </c>
       <c r="K183" t="s">
+        <v>330</v>
+      </c>
+      <c r="L183" t="s">
+        <v>61</v>
+      </c>
+      <c r="M183" t="s">
+        <v>177</v>
+      </c>
+      <c r="N183" t="s">
         <v>331</v>
       </c>
-      <c r="L183" t="s">
-        <v>61</v>
-      </c>
-      <c r="M183" t="s">
-        <v>178</v>
-      </c>
-      <c r="N183" t="s">
+      <c r="O183">
+        <v>0</v>
+      </c>
+      <c r="P183" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q183" t="s">
         <v>332</v>
       </c>
-      <c r="O183">
-        <v>0</v>
-      </c>
-      <c r="P183" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q183" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="184" spans="1:17">
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B184">
-        <v>-5.21658741813096E-05</v>
+        <v>-5.2165874181309602E-5</v>
       </c>
       <c r="C184" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D184" t="s">
         <v>21</v>
       </c>
       <c r="E184" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G184" t="s">
         <v>19</v>
@@ -6496,19 +6517,19 @@
         <v>0</v>
       </c>
       <c r="J184">
-        <v>-5.21658741813096E-05</v>
+        <v>-5.2165874181309602E-5</v>
       </c>
       <c r="K184" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L184" t="s">
         <v>61</v>
       </c>
       <c r="M184" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N184" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O184">
         <v>1</v>
@@ -6517,18 +6538,18 @@
         <v>61</v>
       </c>
       <c r="Q184" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="185" spans="1:17">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B185">
-        <v>-1.25166289575276E-05</v>
+        <v>-1.25166289575276E-5</v>
       </c>
       <c r="C185" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D185" t="s">
         <v>21</v>
@@ -6543,19 +6564,19 @@
         <v>0</v>
       </c>
       <c r="J185">
-        <v>-1.25166289575276E-05</v>
+        <v>-1.25166289575276E-5</v>
       </c>
       <c r="K185" t="s">
+        <v>334</v>
+      </c>
+      <c r="L185" t="s">
+        <v>61</v>
+      </c>
+      <c r="M185" t="s">
+        <v>177</v>
+      </c>
+      <c r="N185" t="s">
         <v>335</v>
-      </c>
-      <c r="L185" t="s">
-        <v>61</v>
-      </c>
-      <c r="M185" t="s">
-        <v>178</v>
-      </c>
-      <c r="N185" t="s">
-        <v>336</v>
       </c>
       <c r="O185">
         <v>1</v>
@@ -6564,24 +6585,24 @@
         <v>61</v>
       </c>
       <c r="Q185" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="186" spans="1:17">
-      <c r="A186" t="s">
-        <v>338</v>
-      </c>
       <c r="B186">
-        <v>0.0125166289575276</v>
+        <v>1.2516628957527601E-2</v>
       </c>
       <c r="C186" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D186" t="s">
         <v>21</v>
       </c>
       <c r="E186" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G186" t="s">
         <v>19</v>
@@ -6590,45 +6611,45 @@
         <v>0</v>
       </c>
       <c r="J186">
-        <v>0.0125166289575276</v>
+        <v>1.2516628957527601E-2</v>
       </c>
       <c r="K186" t="s">
+        <v>338</v>
+      </c>
+      <c r="L186" t="s">
+        <v>61</v>
+      </c>
+      <c r="M186" t="s">
+        <v>177</v>
+      </c>
+      <c r="N186" t="s">
         <v>339</v>
       </c>
-      <c r="L186" t="s">
-        <v>61</v>
-      </c>
-      <c r="M186" t="s">
-        <v>178</v>
-      </c>
-      <c r="N186" t="s">
+      <c r="O186">
+        <v>0</v>
+      </c>
+      <c r="P186" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q186" t="s">
         <v>340</v>
       </c>
-      <c r="O186">
-        <v>0</v>
-      </c>
-      <c r="P186" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q186" t="s">
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="187" spans="1:17">
-      <c r="A187" t="s">
-        <v>342</v>
-      </c>
       <c r="B187">
-        <v>-0.00841333763472951</v>
+        <v>-8.4133376347295102E-3</v>
       </c>
       <c r="C187" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D187" t="s">
         <v>21</v>
       </c>
       <c r="E187" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G187" t="s">
         <v>19</v>
@@ -6637,19 +6658,19 @@
         <v>0</v>
       </c>
       <c r="J187">
-        <v>-0.00841333763472951</v>
+        <v>-8.4133376347295102E-3</v>
       </c>
       <c r="K187" t="s">
+        <v>342</v>
+      </c>
+      <c r="L187" t="s">
+        <v>61</v>
+      </c>
+      <c r="M187" t="s">
+        <v>177</v>
+      </c>
+      <c r="N187" t="s">
         <v>343</v>
-      </c>
-      <c r="L187" t="s">
-        <v>61</v>
-      </c>
-      <c r="M187" t="s">
-        <v>178</v>
-      </c>
-      <c r="N187" t="s">
-        <v>344</v>
       </c>
       <c r="O187">
         <v>1</v>
@@ -6658,24 +6679,24 @@
         <v>61</v>
       </c>
       <c r="Q187" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="188" spans="1:17">
-      <c r="A188" t="s">
-        <v>346</v>
-      </c>
       <c r="B188">
-        <v>0.841493647265931</v>
+        <v>0.84149364726593101</v>
       </c>
       <c r="C188" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D188" t="s">
         <v>21</v>
       </c>
       <c r="E188" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G188" t="s">
         <v>19</v>
@@ -6684,31 +6705,31 @@
         <v>0</v>
       </c>
       <c r="J188">
-        <v>0.841493647265931</v>
+        <v>0.84149364726593101</v>
       </c>
       <c r="K188" t="s">
+        <v>346</v>
+      </c>
+      <c r="L188" t="s">
+        <v>61</v>
+      </c>
+      <c r="M188" t="s">
         <v>347</v>
       </c>
-      <c r="L188" t="s">
-        <v>61</v>
-      </c>
-      <c r="M188" t="s">
+      <c r="N188" t="s">
         <v>348</v>
       </c>
-      <c r="N188" t="s">
+      <c r="O188">
+        <v>0</v>
+      </c>
+      <c r="P188" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q188" t="s">
         <v>349</v>
       </c>
-      <c r="O188">
-        <v>0</v>
-      </c>
-      <c r="P188" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q188" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="190" spans="1:17">
+    </row>
+    <row r="190" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>2</v>
       </c>
@@ -6716,7 +6737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>36</v>
       </c>
@@ -6724,39 +6745,39 @@
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>4</v>
       </c>
       <c r="B192" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="193" spans="1:19">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>39</v>
       </c>
       <c r="B193" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="194" spans="1:19">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>41</v>
       </c>
       <c r="B194" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="195" spans="1:19">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>43</v>
       </c>
       <c r="B195" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="196" spans="1:19">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>6</v>
       </c>
@@ -6764,7 +6785,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:19">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>45</v>
       </c>
@@ -6772,7 +6793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:19">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -6780,7 +6801,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="199" spans="1:19">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>9</v>
       </c>
@@ -6788,7 +6809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:19">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>11</v>
       </c>
@@ -6796,12 +6817,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="201" spans="1:19">
+    <row r="201" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:19">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>14</v>
       </c>
@@ -6860,12 +6881,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="203" spans="1:19">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B203">
-        <v>1.124</v>
+        <v>1.1240000000000001</v>
       </c>
       <c r="C203" t="s">
         <v>58</v>
@@ -6874,7 +6895,7 @@
         <v>29</v>
       </c>
       <c r="F203" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G203" t="s">
         <v>60</v>
@@ -6886,20 +6907,20 @@
         <v>0.1168937514714994</v>
       </c>
       <c r="J203">
-        <v>0.2029509407210706</v>
+        <v>0.20295094072107059</v>
       </c>
       <c r="L203" t="s">
         <v>61</v>
       </c>
       <c r="M203" t="s">
+        <v>354</v>
+      </c>
+      <c r="N203" t="s">
+        <v>122</v>
+      </c>
+      <c r="O203" t="s">
         <v>355</v>
       </c>
-      <c r="N203" t="s">
-        <v>123</v>
-      </c>
-      <c r="O203" t="s">
-        <v>356</v>
-      </c>
       <c r="P203">
         <v>0</v>
       </c>
@@ -6907,10 +6928,10 @@
         <v>61</v>
       </c>
       <c r="S203">
-        <v>0.02427105971249467</v>
-      </c>
-    </row>
-    <row r="204" spans="1:19">
+        <v>2.4271059712494669E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>30</v>
       </c>
@@ -6936,16 +6957,16 @@
         <v>1</v>
       </c>
       <c r="K204" t="s">
+        <v>356</v>
+      </c>
+      <c r="L204" t="s">
+        <v>61</v>
+      </c>
+      <c r="M204" t="s">
         <v>357</v>
       </c>
-      <c r="L204" t="s">
-        <v>61</v>
-      </c>
-      <c r="M204" t="s">
-        <v>358</v>
-      </c>
       <c r="N204" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P204">
         <v>310098552</v>
@@ -6957,15 +6978,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="205" spans="1:19">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B205">
-        <v>0.016713</v>
+        <v>1.6712999999999999E-2</v>
       </c>
       <c r="C205" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D205" t="s">
         <v>21</v>
@@ -6980,25 +7001,25 @@
         <v>2</v>
       </c>
       <c r="I205">
-        <v>-4.091568419275349</v>
+        <v>-4.0915684192753492</v>
       </c>
       <c r="J205">
         <v>0.2218107301281883</v>
       </c>
       <c r="K205" t="s">
+        <v>359</v>
+      </c>
+      <c r="L205" t="s">
+        <v>61</v>
+      </c>
+      <c r="M205" t="s">
         <v>360</v>
       </c>
-      <c r="L205" t="s">
-        <v>61</v>
-      </c>
-      <c r="M205" t="s">
+      <c r="N205" t="s">
+        <v>118</v>
+      </c>
+      <c r="O205" t="s">
         <v>361</v>
-      </c>
-      <c r="N205" t="s">
-        <v>119</v>
-      </c>
-      <c r="O205" t="s">
-        <v>362</v>
       </c>
       <c r="P205">
         <v>0</v>
@@ -7010,18 +7031,18 @@
         <v>22</v>
       </c>
       <c r="S205">
-        <v>0.02449489742783178</v>
-      </c>
-    </row>
-    <row r="206" spans="1:19">
+        <v>2.4494897427831779E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B206">
-        <v>5.1502E-06</v>
+        <v>5.1502000000000003E-6</v>
       </c>
       <c r="C206" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D206" t="s">
         <v>21</v>
@@ -7036,40 +7057,40 @@
         <v>2</v>
       </c>
       <c r="I206">
-        <v>-12.17647500909123</v>
+        <v>-12.176475009091231</v>
       </c>
       <c r="J206">
-        <v>0.5904235767650204</v>
+        <v>0.59042357676502044</v>
       </c>
       <c r="K206" t="s">
+        <v>363</v>
+      </c>
+      <c r="L206" t="s">
+        <v>61</v>
+      </c>
+      <c r="M206" t="s">
+        <v>357</v>
+      </c>
+      <c r="N206" t="s">
         <v>364</v>
       </c>
-      <c r="L206" t="s">
-        <v>61</v>
-      </c>
-      <c r="M206" t="s">
-        <v>358</v>
-      </c>
-      <c r="N206" t="s">
+      <c r="O206" t="s">
+        <v>361</v>
+      </c>
+      <c r="P206">
+        <v>0</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>61</v>
+      </c>
+      <c r="R206" t="s">
         <v>365</v>
       </c>
-      <c r="O206" t="s">
-        <v>362</v>
-      </c>
-      <c r="P206">
-        <v>0</v>
-      </c>
-      <c r="Q206" t="s">
-        <v>61</v>
-      </c>
-      <c r="R206" t="s">
-        <v>366</v>
-      </c>
       <c r="S206">
-        <v>0.5477225575051661</v>
-      </c>
-    </row>
-    <row r="208" spans="1:19">
+        <v>0.54772255750516607</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>2</v>
       </c>
@@ -7077,15 +7098,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>4</v>
       </c>
       <c r="B209" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>6</v>
       </c>
@@ -7093,7 +7114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -7101,7 +7122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>9</v>
       </c>
@@ -7109,7 +7130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>11</v>
       </c>
@@ -7117,12 +7138,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>14</v>
       </c>
@@ -7145,7 +7166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>26</v>
       </c>
@@ -7168,12 +7189,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>24</v>
       </c>
       <c r="B217">
-        <v>0.487</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="C217" t="s">
         <v>1</v>
@@ -7191,12 +7212,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>20</v>
       </c>
       <c r="B218">
-        <v>0.6909999999999999</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="C218" t="s">
         <v>1</v>
@@ -7214,9 +7235,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B219">
         <v>0.03</v>
@@ -7237,9 +7258,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B220">
         <v>0.307</v>
@@ -7260,7 +7281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>2</v>
       </c>
@@ -7268,7 +7289,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>36</v>
       </c>
@@ -7276,39 +7297,39 @@
         <v>37</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>4</v>
       </c>
       <c r="B224" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="225" spans="1:20">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>39</v>
       </c>
       <c r="B225" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="226" spans="1:20">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>41</v>
       </c>
       <c r="B226" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="227" spans="1:20">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>43</v>
       </c>
       <c r="B227" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="228" spans="1:20">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>6</v>
       </c>
@@ -7316,7 +7337,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="1:20">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>45</v>
       </c>
@@ -7324,7 +7345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:20">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>8</v>
       </c>
@@ -7332,7 +7353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="231" spans="1:20">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>9</v>
       </c>
@@ -7340,7 +7361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:20">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>11</v>
       </c>
@@ -7348,12 +7369,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="233" spans="1:20">
+    <row r="233" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:20">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>14</v>
       </c>
@@ -7415,48 +7436,48 @@
         <v>56</v>
       </c>
     </row>
-    <row r="235" spans="1:20">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B235">
-        <v>2.62804957229276E-08</v>
+        <v>2.6280495722927599E-8</v>
       </c>
       <c r="C235" t="s">
         <v>58</v>
       </c>
       <c r="E235" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F235" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G235" t="s">
         <v>60</v>
       </c>
       <c r="H235" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I235">
         <v>2</v>
       </c>
       <c r="J235">
-        <v>-17.45443878038281</v>
+        <v>-17.454438780382809</v>
       </c>
       <c r="K235">
-        <v>0.4312771730569565</v>
+        <v>0.43127717305695651</v>
       </c>
       <c r="M235" t="s">
         <v>61</v>
       </c>
       <c r="N235" t="s">
+        <v>371</v>
+      </c>
+      <c r="O235" t="s">
+        <v>178</v>
+      </c>
+      <c r="P235" t="s">
         <v>372</v>
-      </c>
-      <c r="O235" t="s">
-        <v>179</v>
-      </c>
-      <c r="P235" t="s">
-        <v>373</v>
       </c>
       <c r="Q235">
         <v>0</v>
@@ -7468,48 +7489,48 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="236" spans="1:20">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B236">
-        <v>7.45332091814176E-07</v>
+        <v>7.4533209181417604E-7</v>
       </c>
       <c r="C236" t="s">
         <v>58</v>
       </c>
       <c r="E236" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F236" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G236" t="s">
         <v>60</v>
       </c>
       <c r="H236" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I236">
         <v>2</v>
       </c>
       <c r="J236">
-        <v>-14.1094359570643</v>
+        <v>-14.109435957064299</v>
       </c>
       <c r="K236">
-        <v>0.39496835316263</v>
+        <v>0.39496835316263001</v>
       </c>
       <c r="M236" t="s">
         <v>61</v>
       </c>
       <c r="N236" t="s">
+        <v>371</v>
+      </c>
+      <c r="O236" t="s">
+        <v>181</v>
+      </c>
+      <c r="P236" t="s">
         <v>372</v>
-      </c>
-      <c r="O236" t="s">
-        <v>182</v>
-      </c>
-      <c r="P236" t="s">
-        <v>373</v>
       </c>
       <c r="Q236">
         <v>0</v>
@@ -7521,80 +7542,80 @@
         <v>0.2449489742783178</v>
       </c>
     </row>
-    <row r="237" spans="1:20">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B237">
-        <v>4.30827798736518E-10</v>
+        <v>4.3082779873651798E-10</v>
       </c>
       <c r="C237" t="s">
         <v>58</v>
       </c>
       <c r="E237" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F237" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G237" t="s">
         <v>60</v>
       </c>
       <c r="H237" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I237">
         <v>2</v>
       </c>
       <c r="J237">
-        <v>-21.56531264455612</v>
+        <v>-21.565312644556119</v>
       </c>
       <c r="K237">
-        <v>0.8921883209278185</v>
+        <v>0.89218832092781852</v>
       </c>
       <c r="M237" t="s">
         <v>61</v>
       </c>
       <c r="N237" t="s">
+        <v>371</v>
+      </c>
+      <c r="O237" t="s">
+        <v>184</v>
+      </c>
+      <c r="P237" t="s">
         <v>372</v>
       </c>
-      <c r="O237" t="s">
+      <c r="Q237">
+        <v>0</v>
+      </c>
+      <c r="R237" t="s">
+        <v>61</v>
+      </c>
+      <c r="T237">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
         <v>185</v>
       </c>
-      <c r="P237" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q237">
-        <v>0</v>
-      </c>
-      <c r="R237" t="s">
-        <v>61</v>
-      </c>
-      <c r="T237">
-        <v>0.8366600265340756</v>
-      </c>
-    </row>
-    <row r="238" spans="1:20">
-      <c r="A238" t="s">
-        <v>186</v>
-      </c>
       <c r="B238">
-        <v>3.92053296850231E-07</v>
+        <v>3.9205329685023098E-7</v>
       </c>
       <c r="C238" t="s">
         <v>58</v>
       </c>
       <c r="E238" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F238" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G238" t="s">
         <v>60</v>
       </c>
       <c r="H238" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I238">
         <v>2</v>
@@ -7603,19 +7624,19 @@
         <v>-14.75186804504523</v>
       </c>
       <c r="K238">
-        <v>0.4312771730569565</v>
+        <v>0.43127717305695651</v>
       </c>
       <c r="M238" t="s">
         <v>61</v>
       </c>
       <c r="N238" t="s">
+        <v>371</v>
+      </c>
+      <c r="O238" t="s">
+        <v>187</v>
+      </c>
+      <c r="P238" t="s">
         <v>372</v>
-      </c>
-      <c r="O238" t="s">
-        <v>188</v>
-      </c>
-      <c r="P238" t="s">
-        <v>373</v>
       </c>
       <c r="Q238">
         <v>0</v>
@@ -7627,48 +7648,48 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="239" spans="1:20">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B239">
-        <v>1.29248339620955E-08</v>
+        <v>1.2924833962095501E-8</v>
       </c>
       <c r="C239" t="s">
         <v>58</v>
       </c>
       <c r="E239" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F239" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G239" t="s">
         <v>60</v>
       </c>
       <c r="H239" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I239">
         <v>2</v>
       </c>
       <c r="J239">
-        <v>-18.16411526289397</v>
+        <v>-18.164115262893969</v>
       </c>
       <c r="K239">
-        <v>0.4312771730569565</v>
+        <v>0.43127717305695651</v>
       </c>
       <c r="M239" t="s">
         <v>61</v>
       </c>
       <c r="N239" t="s">
+        <v>371</v>
+      </c>
+      <c r="O239" t="s">
+        <v>190</v>
+      </c>
+      <c r="P239" t="s">
         <v>372</v>
-      </c>
-      <c r="O239" t="s">
-        <v>191</v>
-      </c>
-      <c r="P239" t="s">
-        <v>373</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -7680,80 +7701,80 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="240" spans="1:20">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B240">
-        <v>3.10196015090293E-15</v>
+        <v>3.1019601509029302E-15</v>
       </c>
       <c r="C240" t="s">
         <v>58</v>
       </c>
       <c r="E240" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F240" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G240" t="s">
         <v>60</v>
       </c>
       <c r="H240" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I240">
         <v>2</v>
       </c>
       <c r="J240">
-        <v>-33.40674217649838</v>
+        <v>-33.406742176498383</v>
       </c>
       <c r="K240">
-        <v>0.66783231428256</v>
+        <v>0.66783231428255996</v>
       </c>
       <c r="M240" t="s">
         <v>61</v>
       </c>
       <c r="N240" t="s">
+        <v>371</v>
+      </c>
+      <c r="O240" t="s">
+        <v>193</v>
+      </c>
+      <c r="P240" t="s">
         <v>372</v>
       </c>
-      <c r="O240" t="s">
+      <c r="Q240">
+        <v>0</v>
+      </c>
+      <c r="R240" t="s">
+        <v>61</v>
+      </c>
+      <c r="T240">
+        <v>0.59160797830996159</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
         <v>194</v>
       </c>
-      <c r="P240" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q240">
-        <v>0</v>
-      </c>
-      <c r="R240" t="s">
-        <v>61</v>
-      </c>
-      <c r="T240">
-        <v>0.5916079783099616</v>
-      </c>
-    </row>
-    <row r="241" spans="1:20">
-      <c r="A241" t="s">
-        <v>195</v>
-      </c>
       <c r="B241">
-        <v>2.15413899368259E-10</v>
+        <v>2.1541389936825899E-10</v>
       </c>
       <c r="C241" t="s">
         <v>58</v>
       </c>
       <c r="E241" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F241" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G241" t="s">
         <v>60</v>
       </c>
       <c r="H241" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I241">
         <v>2</v>
@@ -7762,157 +7783,157 @@
         <v>-22.25845982511607</v>
       </c>
       <c r="K241">
-        <v>0.66783231428256</v>
+        <v>0.66783231428255996</v>
       </c>
       <c r="M241" t="s">
         <v>61</v>
       </c>
       <c r="N241" t="s">
+        <v>371</v>
+      </c>
+      <c r="O241" t="s">
+        <v>196</v>
+      </c>
+      <c r="P241" t="s">
         <v>372</v>
       </c>
-      <c r="O241" t="s">
+      <c r="Q241">
+        <v>0</v>
+      </c>
+      <c r="R241" t="s">
+        <v>61</v>
+      </c>
+      <c r="T241">
+        <v>0.59160797830996159</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
         <v>197</v>
       </c>
-      <c r="P241" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q241">
-        <v>0</v>
-      </c>
-      <c r="R241" t="s">
-        <v>61</v>
-      </c>
-      <c r="T241">
-        <v>0.5916079783099616</v>
-      </c>
-    </row>
-    <row r="242" spans="1:20">
-      <c r="A242" t="s">
-        <v>198</v>
-      </c>
       <c r="B242">
-        <v>2.58496679241911E-08</v>
+        <v>2.58496679241911E-8</v>
       </c>
       <c r="C242" t="s">
         <v>58</v>
       </c>
       <c r="E242" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F242" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G242" t="s">
         <v>60</v>
       </c>
       <c r="H242" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I242">
         <v>2</v>
       </c>
       <c r="J242">
-        <v>-17.47096808233402</v>
+        <v>-17.470968082334021</v>
       </c>
       <c r="K242">
-        <v>0.8921883209278185</v>
+        <v>0.89218832092781852</v>
       </c>
       <c r="M242" t="s">
         <v>61</v>
       </c>
       <c r="N242" t="s">
+        <v>371</v>
+      </c>
+      <c r="O242" t="s">
+        <v>199</v>
+      </c>
+      <c r="P242" t="s">
         <v>372</v>
       </c>
-      <c r="O242" t="s">
+      <c r="Q242">
+        <v>0</v>
+      </c>
+      <c r="R242" t="s">
+        <v>61</v>
+      </c>
+      <c r="T242">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
         <v>200</v>
       </c>
-      <c r="P242" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q242">
-        <v>0</v>
-      </c>
-      <c r="R242" t="s">
-        <v>61</v>
-      </c>
-      <c r="T242">
-        <v>0.8366600265340756</v>
-      </c>
-    </row>
-    <row r="243" spans="1:20">
-      <c r="A243" t="s">
-        <v>201</v>
-      </c>
       <c r="B243">
-        <v>3.01579459115563E-10</v>
+        <v>3.0157945911556301E-10</v>
       </c>
       <c r="C243" t="s">
         <v>58</v>
       </c>
       <c r="E243" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F243" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G243" t="s">
         <v>60</v>
       </c>
       <c r="H243" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I243">
         <v>2</v>
       </c>
       <c r="J243">
-        <v>-21.92198758849485</v>
+        <v>-21.921987588494851</v>
       </c>
       <c r="K243">
-        <v>0.8921883209278185</v>
+        <v>0.89218832092781852</v>
       </c>
       <c r="M243" t="s">
         <v>61</v>
       </c>
       <c r="N243" t="s">
+        <v>371</v>
+      </c>
+      <c r="O243" t="s">
+        <v>202</v>
+      </c>
+      <c r="P243" t="s">
         <v>372</v>
       </c>
-      <c r="O243" t="s">
+      <c r="Q243">
+        <v>0</v>
+      </c>
+      <c r="R243" t="s">
+        <v>61</v>
+      </c>
+      <c r="T243">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
         <v>203</v>
       </c>
-      <c r="P243" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q243">
-        <v>0</v>
-      </c>
-      <c r="R243" t="s">
-        <v>61</v>
-      </c>
-      <c r="T243">
-        <v>0.8366600265340756</v>
-      </c>
-    </row>
-    <row r="244" spans="1:20">
-      <c r="A244" t="s">
-        <v>204</v>
-      </c>
       <c r="B244">
-        <v>2.52034262260863E-06</v>
+        <v>2.5203426226086301E-6</v>
       </c>
       <c r="C244" t="s">
         <v>58</v>
       </c>
       <c r="E244" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F244" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G244" t="s">
         <v>60</v>
       </c>
       <c r="H244" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I244">
         <v>2</v>
@@ -7921,178 +7942,178 @@
         <v>-12.89111570433022</v>
       </c>
       <c r="K244">
-        <v>0.8921883209278185</v>
+        <v>0.89218832092781852</v>
       </c>
       <c r="M244" t="s">
         <v>61</v>
       </c>
       <c r="N244" t="s">
+        <v>371</v>
+      </c>
+      <c r="O244" t="s">
+        <v>205</v>
+      </c>
+      <c r="P244" t="s">
         <v>372</v>
       </c>
-      <c r="O244" t="s">
+      <c r="Q244">
+        <v>0</v>
+      </c>
+      <c r="R244" t="s">
+        <v>61</v>
+      </c>
+      <c r="T244">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
         <v>206</v>
       </c>
-      <c r="P244" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q244">
-        <v>0</v>
-      </c>
-      <c r="R244" t="s">
-        <v>61</v>
-      </c>
-      <c r="T244">
-        <v>0.8366600265340756</v>
-      </c>
-    </row>
-    <row r="245" spans="1:20">
-      <c r="A245" t="s">
-        <v>207</v>
-      </c>
       <c r="B245">
-        <v>0.0416192578413438</v>
+        <v>4.16192578413438E-2</v>
       </c>
       <c r="C245" t="s">
         <v>58</v>
       </c>
       <c r="E245" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F245" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G245" t="s">
         <v>60</v>
       </c>
       <c r="H245" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I245">
         <v>2</v>
       </c>
       <c r="J245">
-        <v>-3.179192289954978</v>
+        <v>-3.1791922899549778</v>
       </c>
       <c r="K245">
-        <v>0.2262741699796952</v>
+        <v>0.22627416997969521</v>
       </c>
       <c r="M245" t="s">
         <v>61</v>
       </c>
       <c r="N245" t="s">
+        <v>373</v>
+      </c>
+      <c r="O245" t="s">
+        <v>208</v>
+      </c>
+      <c r="P245" t="s">
         <v>374</v>
       </c>
-      <c r="O245" t="s">
+      <c r="Q245">
+        <v>0</v>
+      </c>
+      <c r="R245" t="s">
+        <v>61</v>
+      </c>
+      <c r="T245">
+        <v>2.4494897427831779E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
         <v>209</v>
       </c>
-      <c r="P245" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q245">
-        <v>0</v>
-      </c>
-      <c r="R245" t="s">
-        <v>61</v>
-      </c>
-      <c r="T245">
-        <v>0.02449489742783178</v>
-      </c>
-    </row>
-    <row r="246" spans="1:20">
-      <c r="A246" t="s">
-        <v>210</v>
-      </c>
       <c r="B246">
-        <v>1.37864895595686E-05</v>
+        <v>1.37864895595686E-5</v>
       </c>
       <c r="C246" t="s">
         <v>58</v>
       </c>
       <c r="E246" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F246" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G246" t="s">
         <v>60</v>
       </c>
       <c r="H246" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I246">
         <v>2</v>
       </c>
       <c r="J246">
-        <v>-11.19182146277426</v>
+        <v>-11.191821462774261</v>
       </c>
       <c r="K246">
-        <v>0.8732697177848319</v>
+        <v>0.87326971778483187</v>
       </c>
       <c r="M246" t="s">
         <v>61</v>
       </c>
       <c r="N246" t="s">
+        <v>375</v>
+      </c>
+      <c r="O246" t="s">
+        <v>212</v>
+      </c>
+      <c r="P246" t="s">
         <v>376</v>
       </c>
-      <c r="O246" t="s">
+      <c r="Q246">
+        <v>0</v>
+      </c>
+      <c r="R246" t="s">
+        <v>61</v>
+      </c>
+      <c r="T246">
+        <v>0.82462112512353214</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
         <v>213</v>
       </c>
-      <c r="P246" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q246">
-        <v>0</v>
-      </c>
-      <c r="R246" t="s">
-        <v>61</v>
-      </c>
-      <c r="T246">
-        <v>0.8246211251235321</v>
-      </c>
-    </row>
-    <row r="247" spans="1:20">
-      <c r="A247" t="s">
-        <v>214</v>
-      </c>
       <c r="B247">
-        <v>7.754900377257321E-08</v>
+        <v>7.7549003772573205E-8</v>
       </c>
       <c r="C247" t="s">
         <v>58</v>
       </c>
       <c r="E247" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F247" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G247" t="s">
         <v>60</v>
       </c>
       <c r="H247" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I247">
         <v>2</v>
       </c>
       <c r="J247">
-        <v>-16.37235579366591</v>
+        <v>-16.372355793665911</v>
       </c>
       <c r="K247">
-        <v>0.4312771730569565</v>
+        <v>0.43127717305695651</v>
       </c>
       <c r="M247" t="s">
         <v>61</v>
       </c>
       <c r="N247" t="s">
+        <v>371</v>
+      </c>
+      <c r="O247" t="s">
+        <v>215</v>
+      </c>
+      <c r="P247" t="s">
         <v>372</v>
-      </c>
-      <c r="O247" t="s">
-        <v>216</v>
-      </c>
-      <c r="P247" t="s">
-        <v>373</v>
       </c>
       <c r="Q247">
         <v>0</v>
@@ -8104,133 +8125,133 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="248" spans="1:20">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B248">
-        <v>1.70607808299661E-09</v>
+        <v>1.7060780829966099E-9</v>
       </c>
       <c r="C248" t="s">
         <v>58</v>
       </c>
       <c r="E248" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F248" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G248" t="s">
         <v>60</v>
       </c>
       <c r="H248" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I248">
         <v>2</v>
       </c>
       <c r="J248">
-        <v>-20.18906861928973</v>
+        <v>-20.189068619289731</v>
       </c>
       <c r="K248">
-        <v>0.8921883209278185</v>
+        <v>0.89218832092781852</v>
       </c>
       <c r="M248" t="s">
         <v>61</v>
       </c>
       <c r="N248" t="s">
+        <v>371</v>
+      </c>
+      <c r="O248" t="s">
+        <v>218</v>
+      </c>
+      <c r="P248" t="s">
         <v>372</v>
       </c>
-      <c r="O248" t="s">
+      <c r="Q248">
+        <v>0</v>
+      </c>
+      <c r="R248" t="s">
+        <v>61</v>
+      </c>
+      <c r="T248">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
         <v>219</v>
       </c>
-      <c r="P248" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q248">
-        <v>0</v>
-      </c>
-      <c r="R248" t="s">
-        <v>61</v>
-      </c>
-      <c r="T248">
-        <v>0.8366600265340756</v>
-      </c>
-    </row>
-    <row r="249" spans="1:20">
-      <c r="A249" t="s">
-        <v>220</v>
-      </c>
       <c r="B249">
-        <v>1.72331119494607E-11</v>
+        <v>1.7233111949460701E-11</v>
       </c>
       <c r="C249" t="s">
         <v>58</v>
       </c>
       <c r="E249" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F249" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G249" t="s">
         <v>60</v>
       </c>
       <c r="H249" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I249">
         <v>2</v>
       </c>
       <c r="J249">
-        <v>-24.78418846942432</v>
+        <v>-24.784188469424318</v>
       </c>
       <c r="K249">
-        <v>0.8921883209278185</v>
+        <v>0.89218832092781852</v>
       </c>
       <c r="M249" t="s">
         <v>61</v>
       </c>
       <c r="N249" t="s">
+        <v>371</v>
+      </c>
+      <c r="O249" t="s">
+        <v>221</v>
+      </c>
+      <c r="P249" t="s">
         <v>372</v>
       </c>
-      <c r="O249" t="s">
+      <c r="Q249">
+        <v>0</v>
+      </c>
+      <c r="R249" t="s">
+        <v>61</v>
+      </c>
+      <c r="T249">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
         <v>222</v>
       </c>
-      <c r="P249" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q249">
-        <v>0</v>
-      </c>
-      <c r="R249" t="s">
-        <v>61</v>
-      </c>
-      <c r="T249">
-        <v>0.8366600265340756</v>
-      </c>
-    </row>
-    <row r="250" spans="1:20">
-      <c r="A250" t="s">
-        <v>223</v>
-      </c>
       <c r="B250">
-        <v>9.4782115722034E-09</v>
+        <v>9.4782115722033997E-9</v>
       </c>
       <c r="C250" t="s">
         <v>58</v>
       </c>
       <c r="E250" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F250" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G250" t="s">
         <v>60</v>
       </c>
       <c r="H250" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I250">
         <v>2</v>
@@ -8239,51 +8260,51 @@
         <v>-18.4742701911978</v>
       </c>
       <c r="K250">
-        <v>0.8921883209278185</v>
+        <v>0.89218832092781852</v>
       </c>
       <c r="M250" t="s">
         <v>61</v>
       </c>
       <c r="N250" t="s">
+        <v>371</v>
+      </c>
+      <c r="O250" t="s">
+        <v>224</v>
+      </c>
+      <c r="P250" t="s">
         <v>372</v>
       </c>
-      <c r="O250" t="s">
+      <c r="Q250">
+        <v>0</v>
+      </c>
+      <c r="R250" t="s">
+        <v>61</v>
+      </c>
+      <c r="T250">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
         <v>225</v>
       </c>
-      <c r="P250" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q250">
-        <v>0</v>
-      </c>
-      <c r="R250" t="s">
-        <v>61</v>
-      </c>
-      <c r="T250">
-        <v>0.8366600265340756</v>
-      </c>
-    </row>
-    <row r="251" spans="1:20">
-      <c r="A251" t="s">
-        <v>226</v>
-      </c>
       <c r="B251">
-        <v>1.29248339620955E-06</v>
+        <v>1.29248339620955E-6</v>
       </c>
       <c r="C251" t="s">
         <v>58</v>
       </c>
       <c r="E251" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F251" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G251" t="s">
         <v>60</v>
       </c>
       <c r="H251" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I251">
         <v>2</v>
@@ -8292,19 +8313,19 @@
         <v>-13.55894507690588</v>
       </c>
       <c r="K251">
-        <v>0.4312771730569565</v>
+        <v>0.43127717305695651</v>
       </c>
       <c r="M251" t="s">
         <v>61</v>
       </c>
       <c r="N251" t="s">
+        <v>371</v>
+      </c>
+      <c r="O251" t="s">
+        <v>227</v>
+      </c>
+      <c r="P251" t="s">
         <v>372</v>
-      </c>
-      <c r="O251" t="s">
-        <v>228</v>
-      </c>
-      <c r="P251" t="s">
-        <v>373</v>
       </c>
       <c r="Q251">
         <v>0</v>
@@ -8316,27 +8337,27 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="252" spans="1:20">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B252">
-        <v>1.33556617608321E-14</v>
+        <v>1.3355661760832099E-14</v>
       </c>
       <c r="C252" t="s">
         <v>58</v>
       </c>
       <c r="E252" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F252" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G252" t="s">
         <v>60</v>
       </c>
       <c r="H252" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I252">
         <v>2</v>
@@ -8345,72 +8366,72 @@
         <v>-31.94683599803524</v>
       </c>
       <c r="K252">
-        <v>0.66783231428256</v>
+        <v>0.66783231428255996</v>
       </c>
       <c r="M252" t="s">
         <v>61</v>
       </c>
       <c r="N252" t="s">
+        <v>371</v>
+      </c>
+      <c r="O252" t="s">
+        <v>230</v>
+      </c>
+      <c r="P252" t="s">
         <v>372</v>
       </c>
-      <c r="O252" t="s">
+      <c r="Q252">
+        <v>0</v>
+      </c>
+      <c r="R252" t="s">
+        <v>61</v>
+      </c>
+      <c r="T252">
+        <v>0.59160797830996159</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
         <v>231</v>
       </c>
-      <c r="P252" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q252">
-        <v>0</v>
-      </c>
-      <c r="R252" t="s">
-        <v>61</v>
-      </c>
-      <c r="T252">
-        <v>0.5916079783099616</v>
-      </c>
-    </row>
-    <row r="253" spans="1:20">
-      <c r="A253" t="s">
-        <v>232</v>
-      </c>
       <c r="B253">
-        <v>2.15413899368259E-08</v>
+        <v>2.15413899368259E-8</v>
       </c>
       <c r="C253" t="s">
         <v>58</v>
       </c>
       <c r="E253" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F253" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G253" t="s">
         <v>60</v>
       </c>
       <c r="H253" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I253">
         <v>2</v>
       </c>
       <c r="J253">
-        <v>-17.65328963912797</v>
+        <v>-17.653289639127969</v>
       </c>
       <c r="K253">
-        <v>0.4312771730569565</v>
+        <v>0.43127717305695651</v>
       </c>
       <c r="M253" t="s">
         <v>61</v>
       </c>
       <c r="N253" t="s">
+        <v>371</v>
+      </c>
+      <c r="O253" t="s">
+        <v>233</v>
+      </c>
+      <c r="P253" t="s">
         <v>372</v>
-      </c>
-      <c r="O253" t="s">
-        <v>234</v>
-      </c>
-      <c r="P253" t="s">
-        <v>373</v>
       </c>
       <c r="Q253">
         <v>0</v>
@@ -8422,27 +8443,27 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="254" spans="1:20">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B254">
-        <v>5.60076138357473E-08</v>
+        <v>5.6007613835747299E-8</v>
       </c>
       <c r="C254" t="s">
         <v>58</v>
       </c>
       <c r="E254" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F254" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G254" t="s">
         <v>60</v>
       </c>
       <c r="H254" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I254">
         <v>2</v>
@@ -8451,19 +8472,19 @@
         <v>-16.69777819410054</v>
       </c>
       <c r="K254">
-        <v>0.4312771730569565</v>
+        <v>0.43127717305695651</v>
       </c>
       <c r="M254" t="s">
         <v>61</v>
       </c>
       <c r="N254" t="s">
+        <v>371</v>
+      </c>
+      <c r="O254" t="s">
+        <v>236</v>
+      </c>
+      <c r="P254" t="s">
         <v>372</v>
-      </c>
-      <c r="O254" t="s">
-        <v>237</v>
-      </c>
-      <c r="P254" t="s">
-        <v>373</v>
       </c>
       <c r="Q254">
         <v>0</v>
@@ -8475,21 +8496,21 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="255" spans="1:20">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B255">
-        <v>3.92053296850231E-07</v>
+        <v>3.9205329685023098E-7</v>
       </c>
       <c r="C255" t="s">
         <v>58</v>
       </c>
       <c r="E255" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F255" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G255" t="s">
         <v>60</v>
@@ -8501,19 +8522,19 @@
         <v>-14.75186804504523</v>
       </c>
       <c r="K255">
-        <v>0.4312771730569565</v>
+        <v>0.43127717305695651</v>
       </c>
       <c r="M255" t="s">
         <v>61</v>
       </c>
       <c r="N255" t="s">
+        <v>371</v>
+      </c>
+      <c r="O255" t="s">
+        <v>238</v>
+      </c>
+      <c r="P255" t="s">
         <v>372</v>
-      </c>
-      <c r="O255" t="s">
-        <v>239</v>
-      </c>
-      <c r="P255" t="s">
-        <v>373</v>
       </c>
       <c r="Q255">
         <v>0</v>
@@ -8525,21 +8546,21 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="256" spans="1:20">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B256">
-        <v>1.33556617608321E-06</v>
+        <v>1.3355661760832101E-6</v>
       </c>
       <c r="C256" t="s">
         <v>58</v>
       </c>
       <c r="E256" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F256" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G256" t="s">
         <v>60</v>
@@ -8551,19 +8572,19 @@
         <v>-13.52615525408288</v>
       </c>
       <c r="K256">
-        <v>0.4312771730569565</v>
+        <v>0.43127717305695651</v>
       </c>
       <c r="M256" t="s">
         <v>61</v>
       </c>
       <c r="N256" t="s">
+        <v>371</v>
+      </c>
+      <c r="O256" t="s">
+        <v>240</v>
+      </c>
+      <c r="P256" t="s">
         <v>372</v>
-      </c>
-      <c r="O256" t="s">
-        <v>241</v>
-      </c>
-      <c r="P256" t="s">
-        <v>373</v>
       </c>
       <c r="Q256">
         <v>0</v>
@@ -8575,27 +8596,27 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="257" spans="1:20">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B257">
-        <v>1.0770694968413E-08</v>
+        <v>1.0770694968413E-8</v>
       </c>
       <c r="C257" t="s">
         <v>58</v>
       </c>
       <c r="E257" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F257" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G257" t="s">
         <v>60</v>
       </c>
       <c r="H257" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I257">
         <v>2</v>
@@ -8604,51 +8625,51 @@
         <v>-18.34643681968792</v>
       </c>
       <c r="K257">
-        <v>0.8921883209278185</v>
+        <v>0.89218832092781852</v>
       </c>
       <c r="M257" t="s">
         <v>61</v>
       </c>
       <c r="N257" t="s">
+        <v>371</v>
+      </c>
+      <c r="O257" t="s">
+        <v>243</v>
+      </c>
+      <c r="P257" t="s">
         <v>372</v>
       </c>
-      <c r="O257" t="s">
+      <c r="Q257">
+        <v>0</v>
+      </c>
+      <c r="R257" t="s">
+        <v>61</v>
+      </c>
+      <c r="T257">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
         <v>244</v>
       </c>
-      <c r="P257" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q257">
-        <v>0</v>
-      </c>
-      <c r="R257" t="s">
-        <v>61</v>
-      </c>
-      <c r="T257">
-        <v>0.8366600265340756</v>
-      </c>
-    </row>
-    <row r="258" spans="1:20">
-      <c r="A258" t="s">
-        <v>245</v>
-      </c>
       <c r="B258">
-        <v>1.55098007545146E-07</v>
+        <v>1.5509800754514599E-7</v>
       </c>
       <c r="C258" t="s">
         <v>58</v>
       </c>
       <c r="E258" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F258" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G258" t="s">
         <v>60</v>
       </c>
       <c r="H258" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I258">
         <v>2</v>
@@ -8657,86 +8678,86 @@
         <v>-15.67920861310597</v>
       </c>
       <c r="K258">
-        <v>0.8921883209278185</v>
+        <v>0.89218832092781852</v>
       </c>
       <c r="M258" t="s">
         <v>61</v>
       </c>
       <c r="N258" t="s">
+        <v>371</v>
+      </c>
+      <c r="O258" t="s">
+        <v>246</v>
+      </c>
+      <c r="P258" t="s">
         <v>372</v>
       </c>
-      <c r="O258" t="s">
+      <c r="Q258">
+        <v>0</v>
+      </c>
+      <c r="R258" t="s">
+        <v>61</v>
+      </c>
+      <c r="T258">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
         <v>247</v>
       </c>
-      <c r="P258" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q258">
-        <v>0</v>
-      </c>
-      <c r="R258" t="s">
-        <v>61</v>
-      </c>
-      <c r="T258">
-        <v>0.8366600265340756</v>
-      </c>
-    </row>
-    <row r="259" spans="1:20">
-      <c r="A259" t="s">
-        <v>248</v>
-      </c>
       <c r="B259">
-        <v>7.32407257852081E-08</v>
+        <v>7.3240725785208101E-8</v>
       </c>
       <c r="C259" t="s">
         <v>58</v>
       </c>
       <c r="E259" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F259" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G259" t="s">
         <v>60</v>
       </c>
       <c r="H259" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I259">
         <v>2</v>
       </c>
       <c r="J259">
-        <v>-16.42951420750586</v>
+        <v>-16.429514207505861</v>
       </c>
       <c r="K259">
-        <v>0.8921883209278185</v>
+        <v>0.89218832092781852</v>
       </c>
       <c r="M259" t="s">
         <v>61</v>
       </c>
       <c r="N259" t="s">
+        <v>371</v>
+      </c>
+      <c r="O259" t="s">
+        <v>249</v>
+      </c>
+      <c r="P259" t="s">
         <v>372</v>
       </c>
-      <c r="O259" t="s">
+      <c r="Q259">
+        <v>0</v>
+      </c>
+      <c r="R259" t="s">
+        <v>61</v>
+      </c>
+      <c r="T259">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
         <v>250</v>
-      </c>
-      <c r="P259" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q259">
-        <v>0</v>
-      </c>
-      <c r="R259" t="s">
-        <v>61</v>
-      </c>
-      <c r="T259">
-        <v>0.8366600265340756</v>
-      </c>
-    </row>
-    <row r="260" spans="1:20">
-      <c r="A260" t="s">
-        <v>251</v>
       </c>
       <c r="B260">
         <v>1.29248339620955E-10</v>
@@ -8745,69 +8766,69 @@
         <v>58</v>
       </c>
       <c r="E260" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F260" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G260" t="s">
         <v>60</v>
       </c>
       <c r="H260" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I260">
         <v>2</v>
       </c>
       <c r="J260">
-        <v>-22.76928544888206</v>
+        <v>-22.769285448882059</v>
       </c>
       <c r="K260">
-        <v>0.8921883209278185</v>
+        <v>0.89218832092781852</v>
       </c>
       <c r="M260" t="s">
         <v>61</v>
       </c>
       <c r="N260" t="s">
+        <v>371</v>
+      </c>
+      <c r="O260" t="s">
+        <v>252</v>
+      </c>
+      <c r="P260" t="s">
         <v>372</v>
       </c>
-      <c r="O260" t="s">
+      <c r="Q260">
+        <v>0</v>
+      </c>
+      <c r="R260" t="s">
+        <v>61</v>
+      </c>
+      <c r="T260">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
         <v>253</v>
       </c>
-      <c r="P260" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q260">
-        <v>0</v>
-      </c>
-      <c r="R260" t="s">
-        <v>61</v>
-      </c>
-      <c r="T260">
-        <v>0.8366600265340756</v>
-      </c>
-    </row>
-    <row r="261" spans="1:20">
-      <c r="A261" t="s">
-        <v>254</v>
-      </c>
       <c r="B261">
-        <v>1.72331119494607E-07</v>
+        <v>1.7233111949460699E-7</v>
       </c>
       <c r="C261" t="s">
         <v>58</v>
       </c>
       <c r="E261" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F261" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G261" t="s">
         <v>60</v>
       </c>
       <c r="H261" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I261">
         <v>2</v>
@@ -8816,19 +8837,19 @@
         <v>-15.57384809744814</v>
       </c>
       <c r="K261">
-        <v>0.4312771730569565</v>
+        <v>0.43127717305695651</v>
       </c>
       <c r="M261" t="s">
         <v>61</v>
       </c>
       <c r="N261" t="s">
+        <v>371</v>
+      </c>
+      <c r="O261" t="s">
+        <v>255</v>
+      </c>
+      <c r="P261" t="s">
         <v>372</v>
-      </c>
-      <c r="O261" t="s">
-        <v>256</v>
-      </c>
-      <c r="P261" t="s">
-        <v>373</v>
       </c>
       <c r="Q261">
         <v>0</v>
@@ -8840,21 +8861,21 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="262" spans="1:20">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B262">
-        <v>9.90903937093992E-07</v>
+        <v>9.9090393709399196E-7</v>
       </c>
       <c r="C262" t="s">
         <v>58</v>
       </c>
       <c r="E262" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F262" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G262" t="s">
         <v>60</v>
@@ -8863,22 +8884,22 @@
         <v>2</v>
       </c>
       <c r="J262">
-        <v>-13.82464824263888</v>
+        <v>-13.824648242638879</v>
       </c>
       <c r="K262">
-        <v>0.4312771730569565</v>
+        <v>0.43127717305695651</v>
       </c>
       <c r="M262" t="s">
         <v>61</v>
       </c>
       <c r="N262" t="s">
+        <v>371</v>
+      </c>
+      <c r="O262" t="s">
+        <v>257</v>
+      </c>
+      <c r="P262" t="s">
         <v>372</v>
-      </c>
-      <c r="O262" t="s">
-        <v>258</v>
-      </c>
-      <c r="P262" t="s">
-        <v>373</v>
       </c>
       <c r="Q262">
         <v>0</v>
@@ -8890,80 +8911,80 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="263" spans="1:20">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B263">
-        <v>2.58496679241911E-09</v>
+        <v>2.58496679241911E-9</v>
       </c>
       <c r="C263" t="s">
         <v>58</v>
       </c>
       <c r="E263" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F263" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G263" t="s">
         <v>60</v>
       </c>
       <c r="H263" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I263">
         <v>2</v>
       </c>
       <c r="J263">
-        <v>-19.77355317532806</v>
+        <v>-19.773553175328061</v>
       </c>
       <c r="K263">
-        <v>0.8921883209278185</v>
+        <v>0.89218832092781852</v>
       </c>
       <c r="M263" t="s">
         <v>61</v>
       </c>
       <c r="N263" t="s">
+        <v>371</v>
+      </c>
+      <c r="O263" t="s">
+        <v>260</v>
+      </c>
+      <c r="P263" t="s">
         <v>372</v>
       </c>
-      <c r="O263" t="s">
+      <c r="Q263">
+        <v>0</v>
+      </c>
+      <c r="R263" t="s">
+        <v>61</v>
+      </c>
+      <c r="T263">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
         <v>261</v>
       </c>
-      <c r="P263" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q263">
-        <v>0</v>
-      </c>
-      <c r="R263" t="s">
-        <v>61</v>
-      </c>
-      <c r="T263">
-        <v>0.8366600265340756</v>
-      </c>
-    </row>
-    <row r="264" spans="1:20">
-      <c r="A264" t="s">
-        <v>262</v>
-      </c>
       <c r="B264">
-        <v>3.01579459115563E-05</v>
+        <v>3.01579459115563E-5</v>
       </c>
       <c r="C264" t="s">
         <v>58</v>
       </c>
       <c r="E264" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F264" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G264" t="s">
         <v>60</v>
       </c>
       <c r="H264" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I264">
         <v>2</v>
@@ -8972,45 +8993,45 @@
         <v>-10.40906212352462</v>
       </c>
       <c r="K264">
-        <v>0.403236903073119</v>
+        <v>0.40323690307311899</v>
       </c>
       <c r="M264" t="s">
         <v>61</v>
       </c>
       <c r="N264" t="s">
+        <v>375</v>
+      </c>
+      <c r="O264" t="s">
+        <v>263</v>
+      </c>
+      <c r="P264" t="s">
         <v>376</v>
       </c>
-      <c r="O264" t="s">
+      <c r="Q264">
+        <v>0</v>
+      </c>
+      <c r="R264" t="s">
+        <v>61</v>
+      </c>
+      <c r="T264">
+        <v>0.28284271247461901</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
         <v>264</v>
       </c>
-      <c r="P264" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q264">
-        <v>0</v>
-      </c>
-      <c r="R264" t="s">
-        <v>61</v>
-      </c>
-      <c r="T264">
-        <v>0.282842712474619</v>
-      </c>
-    </row>
-    <row r="265" spans="1:20">
-      <c r="A265" t="s">
-        <v>265</v>
-      </c>
       <c r="B265">
-        <v>4.78218856597535E-09</v>
+        <v>4.7821885659753499E-9</v>
       </c>
       <c r="C265" t="s">
         <v>58</v>
       </c>
       <c r="E265" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F265" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G265" t="s">
         <v>60</v>
@@ -9019,48 +9040,48 @@
         <v>2</v>
       </c>
       <c r="J265">
-        <v>-19.15836753623783</v>
+        <v>-19.158367536237829</v>
       </c>
       <c r="K265">
-        <v>0.66783231428256</v>
+        <v>0.66783231428255996</v>
       </c>
       <c r="M265" t="s">
         <v>61</v>
       </c>
       <c r="N265" t="s">
+        <v>371</v>
+      </c>
+      <c r="O265" t="s">
+        <v>265</v>
+      </c>
+      <c r="P265" t="s">
         <v>372</v>
       </c>
-      <c r="O265" t="s">
+      <c r="Q265">
+        <v>0</v>
+      </c>
+      <c r="R265" t="s">
+        <v>61</v>
+      </c>
+      <c r="T265">
+        <v>0.59160797830996159</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
         <v>266</v>
       </c>
-      <c r="P265" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q265">
-        <v>0</v>
-      </c>
-      <c r="R265" t="s">
-        <v>61</v>
-      </c>
-      <c r="T265">
-        <v>0.5916079783099616</v>
-      </c>
-    </row>
-    <row r="266" spans="1:20">
-      <c r="A266" t="s">
-        <v>267</v>
-      </c>
       <c r="B266">
-        <v>4.30827798736518E-06</v>
+        <v>4.3082779873651802E-6</v>
       </c>
       <c r="C266" t="s">
         <v>58</v>
       </c>
       <c r="E266" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F266" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G266" t="s">
         <v>60</v>
@@ -9069,75 +9090,75 @@
         <v>2</v>
       </c>
       <c r="J266">
-        <v>-12.35497227257994</v>
+        <v>-12.354972272579939</v>
       </c>
       <c r="K266">
-        <v>0.6633249580710799</v>
+        <v>0.66332495807107994</v>
       </c>
       <c r="M266" t="s">
         <v>61</v>
       </c>
       <c r="N266" t="s">
+        <v>377</v>
+      </c>
+      <c r="O266" t="s">
+        <v>267</v>
+      </c>
+      <c r="P266" t="s">
         <v>378</v>
       </c>
-      <c r="O266" t="s">
+      <c r="Q266">
+        <v>0</v>
+      </c>
+      <c r="R266" t="s">
+        <v>61</v>
+      </c>
+      <c r="T266">
+        <v>0.59160797830996159</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
         <v>268</v>
       </c>
-      <c r="P266" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q266">
-        <v>0</v>
-      </c>
-      <c r="R266" t="s">
-        <v>61</v>
-      </c>
-      <c r="T266">
-        <v>0.5916079783099616</v>
-      </c>
-    </row>
-    <row r="267" spans="1:20">
-      <c r="A267" t="s">
-        <v>269</v>
-      </c>
       <c r="B267">
-        <v>3.4897051697658E-12</v>
+        <v>3.4897051697657999E-12</v>
       </c>
       <c r="C267" t="s">
         <v>58</v>
       </c>
       <c r="E267" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F267" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G267" t="s">
         <v>60</v>
       </c>
       <c r="H267" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I267">
         <v>2</v>
       </c>
       <c r="J267">
-        <v>-26.38120386185986</v>
+        <v>-26.381203861859859</v>
       </c>
       <c r="K267">
-        <v>0.4312771730569565</v>
+        <v>0.43127717305695651</v>
       </c>
       <c r="M267" t="s">
         <v>61</v>
       </c>
       <c r="N267" t="s">
+        <v>371</v>
+      </c>
+      <c r="O267" t="s">
+        <v>270</v>
+      </c>
+      <c r="P267" t="s">
         <v>372</v>
-      </c>
-      <c r="O267" t="s">
-        <v>271</v>
-      </c>
-      <c r="P267" t="s">
-        <v>373</v>
       </c>
       <c r="Q267">
         <v>0</v>
@@ -9149,27 +9170,27 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="268" spans="1:20">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B268">
-        <v>1.29248339620955E-07</v>
+        <v>1.2924833962095499E-7</v>
       </c>
       <c r="C268" t="s">
         <v>58</v>
       </c>
       <c r="E268" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F268" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G268" t="s">
         <v>60</v>
       </c>
       <c r="H268" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I268">
         <v>2</v>
@@ -9178,19 +9199,19 @@
         <v>-15.86153016989992</v>
       </c>
       <c r="K268">
-        <v>0.4312771730569565</v>
+        <v>0.43127717305695651</v>
       </c>
       <c r="M268" t="s">
         <v>61</v>
       </c>
       <c r="N268" t="s">
+        <v>371</v>
+      </c>
+      <c r="O268" t="s">
+        <v>273</v>
+      </c>
+      <c r="P268" t="s">
         <v>372</v>
-      </c>
-      <c r="O268" t="s">
-        <v>274</v>
-      </c>
-      <c r="P268" t="s">
-        <v>373</v>
       </c>
       <c r="Q268">
         <v>0</v>
@@ -9202,139 +9223,139 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="269" spans="1:20">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B269">
-        <v>1.00813704904345E-05</v>
+        <v>1.00813704904345E-5</v>
       </c>
       <c r="C269" t="s">
         <v>58</v>
       </c>
       <c r="E269" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F269" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G269" t="s">
         <v>60</v>
       </c>
       <c r="H269" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I269">
         <v>2</v>
       </c>
       <c r="J269">
-        <v>-11.50482134321033</v>
+        <v>-11.504821343210329</v>
       </c>
       <c r="K269">
-        <v>0.8921883209278185</v>
+        <v>0.89218832092781852</v>
       </c>
       <c r="M269" t="s">
         <v>61</v>
       </c>
       <c r="N269" t="s">
+        <v>371</v>
+      </c>
+      <c r="O269" t="s">
+        <v>276</v>
+      </c>
+      <c r="P269" t="s">
         <v>372</v>
       </c>
-      <c r="O269" t="s">
+      <c r="Q269">
+        <v>0</v>
+      </c>
+      <c r="R269" t="s">
+        <v>61</v>
+      </c>
+      <c r="T269">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
         <v>277</v>
       </c>
-      <c r="P269" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q269">
-        <v>0</v>
-      </c>
-      <c r="R269" t="s">
-        <v>61</v>
-      </c>
-      <c r="T269">
-        <v>0.8366600265340756</v>
-      </c>
-    </row>
-    <row r="270" spans="1:20">
-      <c r="A270" t="s">
-        <v>278</v>
-      </c>
       <c r="B270">
-        <v>5.60076138357474E-07</v>
+        <v>5.6007613835747405E-7</v>
       </c>
       <c r="C270" t="s">
         <v>58</v>
       </c>
       <c r="E270" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F270" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G270" t="s">
         <v>60</v>
       </c>
       <c r="H270" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I270">
         <v>2</v>
       </c>
       <c r="J270">
-        <v>-14.39519310110649</v>
+        <v>-14.395193101106489</v>
       </c>
       <c r="K270">
-        <v>0.8921883209278185</v>
+        <v>0.89218832092781852</v>
       </c>
       <c r="M270" t="s">
         <v>61</v>
       </c>
       <c r="N270" t="s">
+        <v>371</v>
+      </c>
+      <c r="O270" t="s">
+        <v>279</v>
+      </c>
+      <c r="P270" t="s">
         <v>372</v>
       </c>
-      <c r="O270" t="s">
+      <c r="Q270">
+        <v>0</v>
+      </c>
+      <c r="R270" t="s">
+        <v>61</v>
+      </c>
+      <c r="T270">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
         <v>280</v>
       </c>
-      <c r="P270" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q270">
-        <v>0</v>
-      </c>
-      <c r="R270" t="s">
-        <v>61</v>
-      </c>
-      <c r="T270">
-        <v>0.8366600265340756</v>
-      </c>
-    </row>
-    <row r="271" spans="1:20">
-      <c r="A271" t="s">
-        <v>281</v>
-      </c>
       <c r="B271">
-        <v>1.0770694968413E-06</v>
+        <v>1.0770694968412999E-6</v>
       </c>
       <c r="C271" t="s">
         <v>58</v>
       </c>
       <c r="E271" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F271" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G271" t="s">
         <v>60</v>
       </c>
       <c r="H271" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I271">
         <v>2</v>
       </c>
       <c r="J271">
-        <v>-13.74126663369982</v>
+        <v>-13.741266633699819</v>
       </c>
       <c r="K271">
         <v>0.382099463490856</v>
@@ -9343,45 +9364,45 @@
         <v>61</v>
       </c>
       <c r="N271" t="s">
+        <v>371</v>
+      </c>
+      <c r="O271" t="s">
+        <v>282</v>
+      </c>
+      <c r="P271" t="s">
         <v>372</v>
       </c>
-      <c r="O271" t="s">
+      <c r="Q271">
+        <v>0</v>
+      </c>
+      <c r="R271" t="s">
+        <v>61</v>
+      </c>
+      <c r="T271">
+        <v>0.22360679774997899</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
         <v>283</v>
       </c>
-      <c r="P271" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q271">
-        <v>0</v>
-      </c>
-      <c r="R271" t="s">
-        <v>61</v>
-      </c>
-      <c r="T271">
-        <v>0.223606797749979</v>
-      </c>
-    </row>
-    <row r="272" spans="1:20">
-      <c r="A272" t="s">
-        <v>284</v>
-      </c>
       <c r="B272">
-        <v>1.29248339620955E-07</v>
+        <v>1.2924833962095499E-7</v>
       </c>
       <c r="C272" t="s">
         <v>58</v>
       </c>
       <c r="E272" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F272" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G272" t="s">
         <v>60</v>
       </c>
       <c r="H272" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I272">
         <v>2</v>
@@ -9390,19 +9411,19 @@
         <v>-15.86153016989992</v>
       </c>
       <c r="K272">
-        <v>0.4312771730569565</v>
+        <v>0.43127717305695651</v>
       </c>
       <c r="M272" t="s">
         <v>61</v>
       </c>
       <c r="N272" t="s">
+        <v>371</v>
+      </c>
+      <c r="O272" t="s">
+        <v>285</v>
+      </c>
+      <c r="P272" t="s">
         <v>372</v>
-      </c>
-      <c r="O272" t="s">
-        <v>286</v>
-      </c>
-      <c r="P272" t="s">
-        <v>373</v>
       </c>
       <c r="Q272">
         <v>0</v>
@@ -9414,27 +9435,27 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="273" spans="1:20">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B273">
-        <v>1.29248339620955E-07</v>
+        <v>1.2924833962095499E-7</v>
       </c>
       <c r="C273" t="s">
         <v>58</v>
       </c>
       <c r="E273" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F273" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G273" t="s">
         <v>60</v>
       </c>
       <c r="H273" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I273">
         <v>2</v>
@@ -9443,72 +9464,72 @@
         <v>-15.86153016989992</v>
       </c>
       <c r="K273">
-        <v>0.8921883209278185</v>
+        <v>0.89218832092781852</v>
       </c>
       <c r="M273" t="s">
         <v>61</v>
       </c>
       <c r="N273" t="s">
+        <v>371</v>
+      </c>
+      <c r="O273" t="s">
+        <v>291</v>
+      </c>
+      <c r="P273" t="s">
         <v>372</v>
       </c>
-      <c r="O273" t="s">
+      <c r="Q273">
+        <v>0</v>
+      </c>
+      <c r="R273" t="s">
+        <v>61</v>
+      </c>
+      <c r="T273">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
         <v>292</v>
       </c>
-      <c r="P273" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q273">
-        <v>0</v>
-      </c>
-      <c r="R273" t="s">
-        <v>61</v>
-      </c>
-      <c r="T273">
-        <v>0.8366600265340756</v>
-      </c>
-    </row>
-    <row r="274" spans="1:20">
-      <c r="A274" t="s">
-        <v>293</v>
-      </c>
       <c r="B274">
-        <v>5.16993358483822E-08</v>
+        <v>5.1699335848382201E-8</v>
       </c>
       <c r="C274" t="s">
         <v>58</v>
       </c>
       <c r="E274" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F274" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G274" t="s">
         <v>60</v>
       </c>
       <c r="H274" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I274">
         <v>2</v>
       </c>
       <c r="J274">
-        <v>-16.77782090177407</v>
+        <v>-16.777820901774071</v>
       </c>
       <c r="K274">
-        <v>0.4312771730569565</v>
+        <v>0.43127717305695651</v>
       </c>
       <c r="M274" t="s">
         <v>61</v>
       </c>
       <c r="N274" t="s">
+        <v>371</v>
+      </c>
+      <c r="O274" t="s">
+        <v>293</v>
+      </c>
+      <c r="P274" t="s">
         <v>372</v>
-      </c>
-      <c r="O274" t="s">
-        <v>294</v>
-      </c>
-      <c r="P274" t="s">
-        <v>373</v>
       </c>
       <c r="Q274">
         <v>0</v>
@@ -9520,7 +9541,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="275" spans="1:20">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>32</v>
       </c>
@@ -9546,13 +9567,13 @@
         <v>1</v>
       </c>
       <c r="L275" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M275" t="s">
         <v>61</v>
       </c>
       <c r="O275" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q275">
         <v>0</v>
@@ -9564,15 +9585,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="276" spans="1:20">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B276">
-        <v>2.39540256097504E-06</v>
+        <v>2.3954025609750399E-6</v>
       </c>
       <c r="C276" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D276" t="s">
         <v>21</v>
@@ -9590,23 +9611,23 @@
         <v>-12.94195925731149</v>
       </c>
       <c r="K276">
-        <v>0.5949789912257406</v>
+        <v>0.59497899122574061</v>
       </c>
       <c r="L276" t="s">
+        <v>381</v>
+      </c>
+      <c r="M276" t="s">
+        <v>61</v>
+      </c>
+      <c r="N276" t="s">
         <v>382</v>
       </c>
-      <c r="M276" t="s">
-        <v>61</v>
-      </c>
-      <c r="N276" t="s">
+      <c r="O276" t="s">
         <v>383</v>
       </c>
-      <c r="O276" t="s">
+      <c r="P276" t="s">
         <v>384</v>
       </c>
-      <c r="P276" t="s">
-        <v>385</v>
-      </c>
       <c r="Q276">
         <v>0</v>
       </c>
@@ -9614,21 +9635,21 @@
         <v>61</v>
       </c>
       <c r="S276" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T276">
-        <v>0.5567764362830022</v>
-      </c>
-    </row>
-    <row r="277" spans="1:20">
+        <v>0.55677643628300222</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B277">
-        <v>0.000577309250306934</v>
+        <v>5.7730925030693395E-4</v>
       </c>
       <c r="C277" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D277" t="s">
         <v>21</v>
@@ -9643,25 +9664,25 @@
         <v>2</v>
       </c>
       <c r="J277">
-        <v>-7.457132472629026</v>
+        <v>-7.4571324726290262</v>
       </c>
       <c r="K277">
         <v>0.232379000772445</v>
       </c>
       <c r="L277" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M277" t="s">
         <v>61</v>
       </c>
       <c r="N277" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O277" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P277" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q277">
         <v>0</v>
@@ -9676,21 +9697,21 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="278" spans="1:20">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B278">
-        <v>-0.000114600194463914</v>
+        <v>-1.14600194463914E-4</v>
       </c>
       <c r="C278" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D278" t="s">
         <v>21</v>
       </c>
       <c r="E278" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G278" t="s">
         <v>19</v>
@@ -9699,54 +9720,54 @@
         <v>2</v>
       </c>
       <c r="J278">
-        <v>-9.074061056792281</v>
+        <v>-9.0740610567922815</v>
       </c>
       <c r="K278">
-        <v>0.3325657829663178</v>
+        <v>0.33256578296631778</v>
       </c>
       <c r="L278" t="s">
+        <v>342</v>
+      </c>
+      <c r="M278" t="s">
+        <v>61</v>
+      </c>
+      <c r="N278" t="s">
+        <v>386</v>
+      </c>
+      <c r="O278" t="s">
         <v>343</v>
       </c>
-      <c r="M278" t="s">
-        <v>61</v>
-      </c>
-      <c r="N278" t="s">
+      <c r="P278" t="s">
         <v>387</v>
       </c>
-      <c r="O278" t="s">
+      <c r="Q278">
+        <v>0</v>
+      </c>
+      <c r="R278" t="s">
+        <v>61</v>
+      </c>
+      <c r="S278" t="s">
         <v>344</v>
-      </c>
-      <c r="P278" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q278">
-        <v>0</v>
-      </c>
-      <c r="R278" t="s">
-        <v>61</v>
-      </c>
-      <c r="S278" t="s">
-        <v>345</v>
       </c>
       <c r="T278">
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="279" spans="1:20">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B279">
-        <v>0.0229911254795743</v>
+        <v>2.2991125479574302E-2</v>
       </c>
       <c r="C279" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D279" t="s">
+        <v>103</v>
+      </c>
+      <c r="E279" t="s">
         <v>104</v>
-      </c>
-      <c r="E279" t="s">
-        <v>105</v>
       </c>
       <c r="G279" t="s">
         <v>19</v>
@@ -9755,48 +9776,48 @@
         <v>2</v>
       </c>
       <c r="J279">
-        <v>-3.772646986225917</v>
+        <v>-3.7726469862259169</v>
       </c>
       <c r="K279">
-        <v>0.2017424100183201</v>
+        <v>0.20174241001832011</v>
       </c>
       <c r="L279" t="s">
+        <v>389</v>
+      </c>
+      <c r="M279" t="s">
+        <v>61</v>
+      </c>
+      <c r="N279" t="s">
         <v>390</v>
       </c>
-      <c r="M279" t="s">
-        <v>61</v>
-      </c>
-      <c r="N279" t="s">
+      <c r="O279" t="s">
         <v>391</v>
       </c>
-      <c r="O279" t="s">
+      <c r="P279" t="s">
         <v>392</v>
       </c>
-      <c r="P279" t="s">
+      <c r="Q279">
+        <v>0</v>
+      </c>
+      <c r="R279" t="s">
+        <v>61</v>
+      </c>
+      <c r="S279" t="s">
         <v>393</v>
       </c>
-      <c r="Q279">
-        <v>0</v>
-      </c>
-      <c r="R279" t="s">
-        <v>61</v>
-      </c>
-      <c r="S279" t="s">
+      <c r="T279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
         <v>394</v>
       </c>
-      <c r="T279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:20">
-      <c r="A280" t="s">
-        <v>395</v>
-      </c>
       <c r="B280">
-        <v>1.71038636098398E-07</v>
+        <v>1.7103863609839799E-7</v>
       </c>
       <c r="C280" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D280" t="s">
         <v>21</v>
@@ -9814,45 +9835,45 @@
         <v>-15.58137636386893</v>
       </c>
       <c r="K280">
-        <v>0.5949789912257406</v>
+        <v>0.59497899122574061</v>
       </c>
       <c r="L280" t="s">
+        <v>395</v>
+      </c>
+      <c r="M280" t="s">
+        <v>61</v>
+      </c>
+      <c r="N280" t="s">
         <v>396</v>
       </c>
-      <c r="M280" t="s">
-        <v>61</v>
-      </c>
-      <c r="N280" t="s">
+      <c r="O280" t="s">
         <v>397</v>
       </c>
-      <c r="O280" t="s">
+      <c r="P280" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q280">
+        <v>0</v>
+      </c>
+      <c r="R280" t="s">
+        <v>61</v>
+      </c>
+      <c r="S280" t="s">
         <v>398</v>
       </c>
-      <c r="P280" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q280">
-        <v>0</v>
-      </c>
-      <c r="R280" t="s">
-        <v>61</v>
-      </c>
-      <c r="S280" t="s">
+      <c r="T280">
+        <v>0.55677643628300222</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
         <v>399</v>
       </c>
-      <c r="T280">
-        <v>0.5567764362830022</v>
-      </c>
-    </row>
-    <row r="281" spans="1:20">
-      <c r="A281" t="s">
-        <v>400</v>
-      </c>
       <c r="B281">
-        <v>1.69746152702188E-07</v>
+        <v>1.69746152702188E-7</v>
       </c>
       <c r="C281" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="D281" t="s">
         <v>21</v>
@@ -9870,34 +9891,34 @@
         <v>-15.58896173525819</v>
       </c>
       <c r="K281">
-        <v>0.5926212956011622</v>
+        <v>0.59262129560116217</v>
       </c>
       <c r="L281" t="s">
+        <v>400</v>
+      </c>
+      <c r="M281" t="s">
+        <v>61</v>
+      </c>
+      <c r="N281" t="s">
         <v>401</v>
       </c>
-      <c r="M281" t="s">
-        <v>61</v>
-      </c>
-      <c r="N281" t="s">
+      <c r="O281" t="s">
         <v>402</v>
       </c>
-      <c r="O281" t="s">
+      <c r="P281" t="s">
         <v>403</v>
       </c>
-      <c r="P281" t="s">
+      <c r="Q281">
+        <v>0</v>
+      </c>
+      <c r="R281" t="s">
+        <v>61</v>
+      </c>
+      <c r="S281" t="s">
         <v>404</v>
       </c>
-      <c r="Q281">
-        <v>0</v>
-      </c>
-      <c r="R281" t="s">
-        <v>61</v>
-      </c>
-      <c r="S281" t="s">
-        <v>405</v>
-      </c>
       <c r="T281">
-        <v>0.5567764362830022</v>
+        <v>0.55677643628300222</v>
       </c>
     </row>
   </sheetData>

--- a/data/inputs/foreground.xlsx
+++ b/data/inputs/foreground.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="405">
   <si>
     <t>Database</t>
   </si>
@@ -198,9 +198,6 @@
   </si>
   <si>
     <t>activity</t>
-  </si>
-  <si>
-    <t>classifications</t>
   </si>
   <si>
     <t>pedigree</t>
@@ -1659,16 +1656,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T281"/>
+  <dimension ref="A1:S281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L75" sqref="L75"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M111" sqref="M111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
+    <col min="13" max="13" width="24.44140625" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -2236,7 +2236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>43</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>45</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -2370,12 +2370,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -2413,13 +2413,13 @@
         <v>51</v>
       </c>
       <c r="M64" t="s">
+        <v>39</v>
+      </c>
+      <c r="N64" t="s">
+        <v>43</v>
+      </c>
+      <c r="O64" t="s">
         <v>52</v>
-      </c>
-      <c r="N64" t="s">
-        <v>39</v>
-      </c>
-      <c r="O64" t="s">
-        <v>43</v>
       </c>
       <c r="P64" t="s">
         <v>53</v>
@@ -2428,33 +2428,30 @@
         <v>54</v>
       </c>
       <c r="R64" t="s">
+        <v>8</v>
+      </c>
+      <c r="S64" t="s">
         <v>55</v>
       </c>
-      <c r="S64" t="s">
-        <v>8</v>
-      </c>
-      <c r="T64" t="s">
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>57</v>
       </c>
       <c r="B65">
         <v>3.79</v>
       </c>
       <c r="C65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E65" t="s">
         <v>29</v>
       </c>
       <c r="F65" t="s">
+        <v>58</v>
+      </c>
+      <c r="G65" t="s">
         <v>59</v>
-      </c>
-      <c r="G65" t="s">
-        <v>60</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -2471,34 +2468,31 @@
       <c r="O65" t="s">
         <v>63</v>
       </c>
-      <c r="P65" t="s">
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>64</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>65</v>
       </c>
       <c r="B66">
         <v>4.496E-3</v>
       </c>
       <c r="C66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E66" t="s">
+        <v>65</v>
+      </c>
+      <c r="F66" t="s">
         <v>66</v>
       </c>
-      <c r="F66" t="s">
-        <v>67</v>
-      </c>
       <c r="G66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I66">
         <v>2</v>
@@ -2510,48 +2504,45 @@
         <v>0.20493901531919201</v>
       </c>
       <c r="M66" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="N66" t="s">
         <v>68</v>
       </c>
       <c r="O66" t="s">
+        <v>63</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>60</v>
+      </c>
+      <c r="S66">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>69</v>
-      </c>
-      <c r="P66" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66" t="s">
-        <v>61</v>
-      </c>
-      <c r="T66">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>70</v>
       </c>
       <c r="B67">
         <v>2.8099999999999999E-5</v>
       </c>
       <c r="C67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E67" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" t="s">
+        <v>66</v>
+      </c>
+      <c r="G67" t="s">
+        <v>59</v>
+      </c>
+      <c r="H67" t="s">
         <v>71</v>
-      </c>
-      <c r="F67" t="s">
-        <v>67</v>
-      </c>
-      <c r="G67" t="s">
-        <v>60</v>
-      </c>
-      <c r="H67" t="s">
-        <v>72</v>
       </c>
       <c r="I67">
         <v>2</v>
@@ -2563,48 +2554,45 @@
         <v>0.34928498393145962</v>
       </c>
       <c r="M67" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="N67" t="s">
         <v>73</v>
       </c>
       <c r="O67" t="s">
+        <v>63</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>60</v>
+      </c>
+      <c r="S67">
+        <v>0.34641016151377552</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>74</v>
-      </c>
-      <c r="P67" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67" t="s">
-        <v>61</v>
-      </c>
-      <c r="T67">
-        <v>0.34641016151377552</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>75</v>
       </c>
       <c r="B68">
         <v>2.8099999999999999E-5</v>
       </c>
       <c r="C68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I68">
         <v>2</v>
@@ -2616,48 +2604,45 @@
         <v>0.34928498393145962</v>
       </c>
       <c r="M68" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="N68" t="s">
         <v>77</v>
       </c>
       <c r="O68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>60</v>
+      </c>
+      <c r="S68">
+        <v>0.34641016151377552</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>78</v>
-      </c>
-      <c r="P68" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68" t="s">
-        <v>61</v>
-      </c>
-      <c r="T68">
-        <v>0.34641016151377552</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>79</v>
       </c>
       <c r="B69">
         <v>5.6300000000000005E-7</v>
       </c>
       <c r="C69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -2669,48 +2654,45 @@
         <v>0.34928498393145962</v>
       </c>
       <c r="M69" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="N69" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="O69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>60</v>
+      </c>
+      <c r="S69">
+        <v>0.34641016151377552</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>81</v>
-      </c>
-      <c r="P69" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69" t="s">
-        <v>61</v>
-      </c>
-      <c r="T69">
-        <v>0.34641016151377552</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>82</v>
       </c>
       <c r="B70">
         <v>5.5699999999999999E-5</v>
       </c>
       <c r="C70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I70">
         <v>2</v>
@@ -2722,48 +2704,45 @@
         <v>0.34928498393145962</v>
       </c>
       <c r="M70" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="N70" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="O70" t="s">
+        <v>63</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>60</v>
+      </c>
+      <c r="S70">
+        <v>0.34641016151377552</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>84</v>
-      </c>
-      <c r="P70" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70" t="s">
-        <v>61</v>
-      </c>
-      <c r="T70">
-        <v>0.34641016151377552</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>85</v>
       </c>
       <c r="B71">
         <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E71" t="s">
+        <v>85</v>
+      </c>
+      <c r="F71" t="s">
         <v>86</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
+        <v>59</v>
+      </c>
+      <c r="H71" t="s">
         <v>87</v>
-      </c>
-      <c r="G71" t="s">
-        <v>60</v>
-      </c>
-      <c r="H71" t="s">
-        <v>88</v>
       </c>
       <c r="I71">
         <v>2</v>
@@ -2775,7 +2754,7 @@
         <v>0.36058979464205582</v>
       </c>
       <c r="M71" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="N71" t="s">
         <v>89</v>
@@ -2783,40 +2762,37 @@
       <c r="O71" t="s">
         <v>90</v>
       </c>
-      <c r="P71" t="s">
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>60</v>
+      </c>
+      <c r="S71">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>91</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71" t="s">
-        <v>61</v>
-      </c>
-      <c r="T71">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>92</v>
       </c>
       <c r="B72">
         <v>45</v>
       </c>
       <c r="C72" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72" t="s">
+        <v>85</v>
+      </c>
+      <c r="F72" t="s">
         <v>58</v>
       </c>
-      <c r="E72" t="s">
-        <v>86</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>59</v>
       </c>
-      <c r="G72" t="s">
-        <v>60</v>
-      </c>
       <c r="H72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I72">
         <v>2</v>
@@ -2828,7 +2804,7 @@
         <v>0.20639767440550291</v>
       </c>
       <c r="M72" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="N72" t="s">
         <v>93</v>
@@ -2836,20 +2812,17 @@
       <c r="O72" t="s">
         <v>94</v>
       </c>
-      <c r="P72" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72" t="s">
-        <v>61</v>
-      </c>
-      <c r="T72">
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>60</v>
+      </c>
+      <c r="S72">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -2875,33 +2848,30 @@
         <v>1</v>
       </c>
       <c r="L73" t="s">
+        <v>95</v>
+      </c>
+      <c r="N73" t="s">
+        <v>44</v>
+      </c>
+      <c r="P73">
+        <v>10347150000</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>60</v>
+      </c>
+      <c r="R73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>96</v>
-      </c>
-      <c r="M73" t="s">
-        <v>61</v>
-      </c>
-      <c r="O73" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q73">
-        <v>10347150000</v>
-      </c>
-      <c r="R73" t="s">
-        <v>61</v>
-      </c>
-      <c r="S73" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>97</v>
       </c>
       <c r="B74">
         <v>8.0728493929217302E-13</v>
       </c>
       <c r="C74" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D74" t="s">
         <v>21</v>
@@ -2922,48 +2892,45 @@
         <v>0.28635642126552707</v>
       </c>
       <c r="L74" t="s">
+        <v>97</v>
+      </c>
+      <c r="M74" t="s">
         <v>98</v>
-      </c>
-      <c r="M74" t="s">
-        <v>61</v>
       </c>
       <c r="N74" t="s">
         <v>99</v>
       </c>
       <c r="O74" t="s">
+        <v>94</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>60</v>
+      </c>
+      <c r="R74" t="s">
         <v>100</v>
       </c>
-      <c r="P74" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74" t="s">
-        <v>61</v>
-      </c>
-      <c r="S74" t="s">
+      <c r="S74">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>101</v>
-      </c>
-      <c r="T74">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>102</v>
       </c>
       <c r="B75">
         <v>7.5599999999999996E-6</v>
       </c>
       <c r="C75" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G75" t="s">
         <v>19</v>
@@ -2978,10 +2945,10 @@
         <v>0.5</v>
       </c>
       <c r="L75" t="s">
+        <v>104</v>
+      </c>
+      <c r="M75" t="s">
         <v>105</v>
-      </c>
-      <c r="M75" t="s">
-        <v>61</v>
       </c>
       <c r="N75" t="s">
         <v>106</v>
@@ -2989,37 +2956,34 @@
       <c r="O75" t="s">
         <v>107</v>
       </c>
-      <c r="P75" t="s">
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>60</v>
+      </c>
+      <c r="R75" t="s">
         <v>108</v>
       </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75" t="s">
-        <v>61</v>
-      </c>
-      <c r="S75" t="s">
+      <c r="S75">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>109</v>
-      </c>
-      <c r="T75">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>110</v>
       </c>
       <c r="B76">
         <v>-7.5599999999999996E-6</v>
       </c>
       <c r="C76" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D76" t="s">
         <v>21</v>
       </c>
       <c r="E76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G76" t="s">
         <v>19</v>
@@ -3034,34 +2998,31 @@
         <v>0.30331501776206199</v>
       </c>
       <c r="L76" t="s">
+        <v>110</v>
+      </c>
+      <c r="M76" t="s">
         <v>111</v>
-      </c>
-      <c r="M76" t="s">
-        <v>61</v>
       </c>
       <c r="N76" t="s">
         <v>112</v>
       </c>
       <c r="O76" t="s">
+        <v>63</v>
+      </c>
+      <c r="P76">
+        <v>78224.453999999998</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>60</v>
+      </c>
+      <c r="R76" t="s">
         <v>113</v>
       </c>
-      <c r="P76" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q76">
-        <v>78224.453999999998</v>
-      </c>
-      <c r="R76" t="s">
-        <v>61</v>
-      </c>
-      <c r="S76" t="s">
-        <v>114</v>
-      </c>
-      <c r="T76">
+      <c r="S76">
         <v>0.3</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>2</v>
       </c>
@@ -3069,7 +3030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>36</v>
       </c>
@@ -3077,39 +3038,39 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>41</v>
       </c>
       <c r="B82" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>43</v>
       </c>
       <c r="B83" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -3117,7 +3078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>45</v>
       </c>
@@ -3125,7 +3086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -3133,7 +3094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -3141,7 +3102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -3149,12 +3110,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -3192,13 +3153,13 @@
         <v>51</v>
       </c>
       <c r="M90" t="s">
+        <v>39</v>
+      </c>
+      <c r="N90" t="s">
+        <v>43</v>
+      </c>
+      <c r="O90" t="s">
         <v>52</v>
-      </c>
-      <c r="N90" t="s">
-        <v>39</v>
-      </c>
-      <c r="O90" t="s">
-        <v>43</v>
       </c>
       <c r="P90" t="s">
         <v>53</v>
@@ -3207,33 +3168,30 @@
         <v>54</v>
       </c>
       <c r="R90" t="s">
+        <v>8</v>
+      </c>
+      <c r="S90" t="s">
         <v>55</v>
       </c>
-      <c r="S90" t="s">
-        <v>8</v>
-      </c>
-      <c r="T90" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B91">
         <v>3.8502999999999998</v>
       </c>
       <c r="C91" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E91" t="s">
         <v>29</v>
       </c>
       <c r="F91" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I91">
         <v>2</v>
@@ -3245,7 +3203,7 @@
         <v>4.5655391003472968E-2</v>
       </c>
       <c r="M91" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="N91" t="s">
         <v>121</v>
@@ -3253,40 +3211,37 @@
       <c r="O91" t="s">
         <v>122</v>
       </c>
-      <c r="P91" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91" t="s">
-        <v>61</v>
-      </c>
-      <c r="T91">
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>60</v>
+      </c>
+      <c r="S91">
         <v>3.4415326929727111E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B92">
         <v>7.6771297956007602E-7</v>
       </c>
       <c r="C92" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H92" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I92">
         <v>2</v>
@@ -3298,7 +3253,7 @@
         <v>0.31308944408906542</v>
       </c>
       <c r="M92" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="N92" t="s">
         <v>125</v>
@@ -3306,20 +3261,17 @@
       <c r="O92" t="s">
         <v>126</v>
       </c>
-      <c r="P92" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92" t="s">
-        <v>61</v>
-      </c>
-      <c r="T92">
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>60</v>
+      </c>
+      <c r="S92">
         <v>0.2</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -3345,39 +3297,36 @@
         <v>1</v>
       </c>
       <c r="L93" t="s">
+        <v>127</v>
+      </c>
+      <c r="N93" t="s">
+        <v>117</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>60</v>
+      </c>
+      <c r="R93" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>128</v>
-      </c>
-      <c r="M93" t="s">
-        <v>61</v>
-      </c>
-      <c r="O93" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q93">
-        <v>0</v>
-      </c>
-      <c r="R93" t="s">
-        <v>61</v>
-      </c>
-      <c r="S93" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>129</v>
       </c>
       <c r="B94">
         <v>5.11808653040051E-3</v>
       </c>
       <c r="C94" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D94" t="s">
         <v>21</v>
       </c>
       <c r="E94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G94" t="s">
         <v>19</v>
@@ -3392,10 +3341,10 @@
         <v>5.3851648071345043E-2</v>
       </c>
       <c r="L94" t="s">
+        <v>129</v>
+      </c>
+      <c r="M94" t="s">
         <v>130</v>
-      </c>
-      <c r="M94" t="s">
-        <v>61</v>
       </c>
       <c r="N94" t="s">
         <v>131</v>
@@ -3403,37 +3352,34 @@
       <c r="O94" t="s">
         <v>132</v>
       </c>
-      <c r="P94" t="s">
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>60</v>
+      </c>
+      <c r="R94" t="s">
         <v>133</v>
       </c>
-      <c r="Q94">
-        <v>0</v>
-      </c>
-      <c r="R94" t="s">
-        <v>61</v>
-      </c>
-      <c r="S94" t="s">
+      <c r="S94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>134</v>
-      </c>
-      <c r="T94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>135</v>
       </c>
       <c r="B95">
         <v>-5.1180865304005096E-6</v>
       </c>
       <c r="C95" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D95" t="s">
         <v>21</v>
       </c>
       <c r="E95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G95" t="s">
         <v>19</v>
@@ -3448,42 +3394,39 @@
         <v>5.3851648071345043E-2</v>
       </c>
       <c r="L95" t="s">
+        <v>135</v>
+      </c>
+      <c r="M95" t="s">
         <v>136</v>
-      </c>
-      <c r="M95" t="s">
-        <v>61</v>
       </c>
       <c r="N95" t="s">
         <v>137</v>
       </c>
       <c r="O95" t="s">
+        <v>132</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>60</v>
+      </c>
+      <c r="R95" t="s">
         <v>138</v>
       </c>
-      <c r="P95" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q95">
-        <v>0</v>
-      </c>
-      <c r="R95" t="s">
-        <v>61</v>
-      </c>
-      <c r="S95" t="s">
+      <c r="S95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>139</v>
-      </c>
-      <c r="T95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>140</v>
       </c>
       <c r="B96">
         <v>1.15793812904989E-5</v>
       </c>
       <c r="C96" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D96" t="s">
         <v>21</v>
@@ -3504,10 +3447,10 @@
         <v>0.119582607431014</v>
       </c>
       <c r="L96" t="s">
+        <v>140</v>
+      </c>
+      <c r="M96" t="s">
         <v>141</v>
-      </c>
-      <c r="M96" t="s">
-        <v>61</v>
       </c>
       <c r="N96" t="s">
         <v>142</v>
@@ -3515,31 +3458,28 @@
       <c r="O96" t="s">
         <v>143</v>
       </c>
-      <c r="P96" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q96">
-        <v>0</v>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>60</v>
       </c>
       <c r="R96" t="s">
-        <v>61</v>
-      </c>
-      <c r="S96" t="s">
-        <v>140</v>
-      </c>
-      <c r="T96">
+        <v>139</v>
+      </c>
+      <c r="S96">
         <v>0.1</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>36</v>
       </c>
@@ -3547,31 +3487,31 @@
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>39</v>
       </c>
       <c r="B101" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>41</v>
       </c>
       <c r="B102" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>43</v>
       </c>
@@ -3579,7 +3519,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -3587,7 +3527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>45</v>
       </c>
@@ -3595,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -3603,7 +3543,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -3611,7 +3551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -3619,12 +3559,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -3659,13 +3599,13 @@
         <v>51</v>
       </c>
       <c r="L110" t="s">
+        <v>39</v>
+      </c>
+      <c r="M110" t="s">
+        <v>43</v>
+      </c>
+      <c r="N110" t="s">
         <v>52</v>
-      </c>
-      <c r="M110" t="s">
-        <v>39</v>
-      </c>
-      <c r="N110" t="s">
-        <v>43</v>
       </c>
       <c r="O110" t="s">
         <v>53</v>
@@ -3674,33 +3614,30 @@
         <v>54</v>
       </c>
       <c r="Q110" t="s">
+        <v>8</v>
+      </c>
+      <c r="R110" t="s">
         <v>55</v>
       </c>
-      <c r="R110" t="s">
-        <v>8</v>
-      </c>
-      <c r="S110" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B111">
         <v>3.87</v>
       </c>
       <c r="C111" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E111" t="s">
         <v>29</v>
       </c>
       <c r="F111" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G111" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -3708,25 +3645,22 @@
       <c r="I111">
         <v>3.87</v>
       </c>
-      <c r="L111" t="s">
-        <v>61</v>
+      <c r="M111" t="s">
+        <v>149</v>
       </c>
       <c r="N111" t="s">
-        <v>150</v>
-      </c>
-      <c r="O111" t="s">
-        <v>64</v>
-      </c>
-      <c r="P111">
-        <v>0</v>
-      </c>
-      <c r="Q111" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -3750,39 +3684,36 @@
         <v>1</v>
       </c>
       <c r="K112" t="s">
-        <v>151</v>
-      </c>
-      <c r="L112" t="s">
-        <v>61</v>
-      </c>
-      <c r="N112" t="s">
+        <v>150</v>
+      </c>
+      <c r="M112" t="s">
         <v>44</v>
       </c>
-      <c r="P112">
+      <c r="O112">
         <v>686107.42200000002</v>
       </c>
+      <c r="P112" t="s">
+        <v>60</v>
+      </c>
       <c r="Q112" t="s">
-        <v>61</v>
-      </c>
-      <c r="R112" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B113">
         <v>4.6694214876033101E-5</v>
       </c>
       <c r="C113" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D113" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E113" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G113" t="s">
         <v>19</v>
@@ -3797,48 +3728,45 @@
         <v>4.4721359549995787E-2</v>
       </c>
       <c r="K113" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L113" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="M113" t="s">
+        <v>106</v>
+      </c>
+      <c r="N113" t="s">
+        <v>63</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>108</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>152</v>
-      </c>
-      <c r="N113" t="s">
-        <v>107</v>
-      </c>
-      <c r="O113" t="s">
-        <v>64</v>
-      </c>
-      <c r="P113">
-        <v>0</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>61</v>
-      </c>
-      <c r="R113" t="s">
-        <v>109</v>
-      </c>
-      <c r="S113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>153</v>
       </c>
       <c r="B114">
         <v>2.7686980354147901E-12</v>
       </c>
       <c r="C114" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D114" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E114" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G114" t="s">
         <v>19</v>
@@ -3850,45 +3778,42 @@
         <v>2.7686980354147901E-12</v>
       </c>
       <c r="K114" t="s">
+        <v>154</v>
+      </c>
+      <c r="L114" t="s">
         <v>155</v>
-      </c>
-      <c r="L114" t="s">
-        <v>61</v>
       </c>
       <c r="M114" t="s">
         <v>156</v>
       </c>
       <c r="N114" t="s">
+        <v>63</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q114" t="s">
         <v>157</v>
       </c>
-      <c r="O114" t="s">
-        <v>64</v>
-      </c>
-      <c r="P114">
-        <v>0</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>61</v>
-      </c>
-      <c r="R114" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B115">
         <v>-4.6694214876033101E-5</v>
       </c>
       <c r="C115" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D115" t="s">
         <v>21</v>
       </c>
       <c r="E115" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G115" t="s">
         <v>19</v>
@@ -3903,42 +3828,39 @@
         <v>4.4721359549995787E-2</v>
       </c>
       <c r="K115" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L115" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="M115" t="s">
+        <v>112</v>
+      </c>
+      <c r="N115" t="s">
+        <v>63</v>
+      </c>
+      <c r="O115">
+        <v>32.037247390909101</v>
+      </c>
+      <c r="P115" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>113</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>159</v>
-      </c>
-      <c r="N115" t="s">
-        <v>113</v>
-      </c>
-      <c r="O115" t="s">
-        <v>64</v>
-      </c>
-      <c r="P115">
-        <v>32.037247390909101</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>61</v>
-      </c>
-      <c r="R115" t="s">
-        <v>114</v>
-      </c>
-      <c r="S115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>160</v>
       </c>
       <c r="B116">
         <v>1.48235602781057E-8</v>
       </c>
       <c r="C116" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
@@ -3959,10 +3881,10 @@
         <v>0.47644516998286379</v>
       </c>
       <c r="K116" t="s">
+        <v>160</v>
+      </c>
+      <c r="L116" t="s">
         <v>161</v>
-      </c>
-      <c r="L116" t="s">
-        <v>61</v>
       </c>
       <c r="M116" t="s">
         <v>162</v>
@@ -3970,31 +3892,28 @@
       <c r="N116" t="s">
         <v>163</v>
       </c>
-      <c r="O116" t="s">
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q116" t="s">
         <v>164</v>
       </c>
-      <c r="P116">
-        <v>0</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>61</v>
-      </c>
-      <c r="R116" t="s">
+      <c r="R116">
+        <v>0.13038404810405299</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>165</v>
-      </c>
-      <c r="S116">
-        <v>0.13038404810405299</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>166</v>
       </c>
       <c r="B117">
         <v>1.48235602781057E-8</v>
       </c>
       <c r="C117" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
@@ -4015,42 +3934,39 @@
         <v>0.47644516998286379</v>
       </c>
       <c r="K117" t="s">
+        <v>166</v>
+      </c>
+      <c r="L117" t="s">
+        <v>161</v>
+      </c>
+      <c r="M117" t="s">
         <v>167</v>
       </c>
-      <c r="L117" t="s">
-        <v>61</v>
-      </c>
-      <c r="M117" t="s">
-        <v>162</v>
-      </c>
       <c r="N117" t="s">
+        <v>163</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q117" t="s">
         <v>168</v>
       </c>
-      <c r="O117" t="s">
-        <v>164</v>
-      </c>
-      <c r="P117">
-        <v>0</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>61</v>
-      </c>
-      <c r="R117" t="s">
-        <v>169</v>
-      </c>
-      <c r="S117">
+      <c r="R117">
         <v>0.13038404810405299</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>36</v>
       </c>
@@ -4058,31 +3974,31 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>4</v>
       </c>
       <c r="B121" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>39</v>
       </c>
       <c r="B122" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>41</v>
       </c>
       <c r="B123" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>43</v>
       </c>
@@ -4090,7 +4006,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -4098,7 +4014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>45</v>
       </c>
@@ -4106,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -4114,7 +4030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -4122,7 +4038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -4130,12 +4046,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>14</v>
       </c>
@@ -4170,45 +4086,42 @@
         <v>51</v>
       </c>
       <c r="L131" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="M131" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N131" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="O131" t="s">
         <v>54</v>
       </c>
       <c r="P131" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q131" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B132">
         <v>9.7015802593289195E-7</v>
       </c>
       <c r="C132" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E132" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F132" t="s">
+        <v>174</v>
+      </c>
+      <c r="G132" t="s">
+        <v>59</v>
+      </c>
+      <c r="H132" t="s">
         <v>175</v>
-      </c>
-      <c r="G132" t="s">
-        <v>60</v>
-      </c>
-      <c r="H132" t="s">
-        <v>176</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -4217,42 +4130,39 @@
         <v>9.7015802593289195E-7</v>
       </c>
       <c r="L132" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M132" t="s">
         <v>177</v>
       </c>
-      <c r="N132" t="s">
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>178</v>
-      </c>
-      <c r="O132">
-        <v>0</v>
-      </c>
-      <c r="P132" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>179</v>
       </c>
       <c r="B133">
         <v>2.7037190886654403E-4</v>
       </c>
       <c r="C133" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E133" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F133" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G133" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H133" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -4261,42 +4171,39 @@
         <v>2.7037190886654403E-4</v>
       </c>
       <c r="L133" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M133" t="s">
-        <v>177</v>
-      </c>
-      <c r="N133" t="s">
+        <v>180</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>181</v>
-      </c>
-      <c r="O133">
-        <v>0</v>
-      </c>
-      <c r="P133" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>182</v>
       </c>
       <c r="B134">
         <v>1.5904229933326101E-8</v>
       </c>
       <c r="C134" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E134" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F134" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G134" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H134" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -4305,42 +4212,39 @@
         <v>1.5904229933326101E-8</v>
       </c>
       <c r="L134" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M134" t="s">
-        <v>177</v>
-      </c>
-      <c r="N134" t="s">
+        <v>183</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>184</v>
-      </c>
-      <c r="O134">
-        <v>0</v>
-      </c>
-      <c r="P134" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>185</v>
       </c>
       <c r="B135">
         <v>1.44728492393268E-5</v>
       </c>
       <c r="C135" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E135" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F135" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G135" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H135" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -4349,42 +4253,39 @@
         <v>1.44728492393268E-5</v>
       </c>
       <c r="L135" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M135" t="s">
-        <v>177</v>
-      </c>
-      <c r="N135" t="s">
+        <v>186</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>187</v>
-      </c>
-      <c r="O135">
-        <v>0</v>
-      </c>
-      <c r="P135" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>188</v>
       </c>
       <c r="B136">
         <v>4.7712689799978296E-7</v>
       </c>
       <c r="C136" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E136" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F136" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G136" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -4393,42 +4294,39 @@
         <v>4.7712689799978296E-7</v>
       </c>
       <c r="L136" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M136" t="s">
-        <v>177</v>
-      </c>
-      <c r="N136" t="s">
+        <v>189</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>190</v>
-      </c>
-      <c r="O136">
-        <v>0</v>
-      </c>
-      <c r="P136" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>191</v>
       </c>
       <c r="B137">
         <v>1.14510455519948E-13</v>
       </c>
       <c r="C137" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E137" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F137" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G137" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -4437,42 +4335,39 @@
         <v>1.14510455519948E-13</v>
       </c>
       <c r="L137" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M137" t="s">
-        <v>177</v>
-      </c>
-      <c r="N137" t="s">
+        <v>192</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>193</v>
-      </c>
-      <c r="O137">
-        <v>0</v>
-      </c>
-      <c r="P137" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>194</v>
       </c>
       <c r="B138">
         <v>7.9521149666630506E-9</v>
       </c>
       <c r="C138" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E138" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F138" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G138" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H138" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -4481,42 +4376,39 @@
         <v>7.9521149666630506E-9</v>
       </c>
       <c r="L138" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M138" t="s">
-        <v>177</v>
-      </c>
-      <c r="N138" t="s">
+        <v>195</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>196</v>
-      </c>
-      <c r="O138">
-        <v>0</v>
-      </c>
-      <c r="P138" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>197</v>
       </c>
       <c r="B139">
         <v>9.5425379599956591E-7</v>
       </c>
       <c r="C139" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E139" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F139" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G139" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H139" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -4525,42 +4417,39 @@
         <v>9.5425379599956591E-7</v>
       </c>
       <c r="L139" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M139" t="s">
-        <v>177</v>
-      </c>
-      <c r="N139" t="s">
+        <v>198</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>199</v>
-      </c>
-      <c r="O139">
-        <v>0</v>
-      </c>
-      <c r="P139" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>200</v>
       </c>
       <c r="B140">
         <v>1.11329609533283E-8</v>
       </c>
       <c r="C140" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E140" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G140" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H140" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -4569,42 +4458,39 @@
         <v>1.11329609533283E-8</v>
       </c>
       <c r="L140" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M140" t="s">
-        <v>177</v>
-      </c>
-      <c r="N140" t="s">
+        <v>201</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>202</v>
-      </c>
-      <c r="O140">
-        <v>0</v>
-      </c>
-      <c r="P140" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>203</v>
       </c>
       <c r="B141">
         <v>9.3039745109957703E-5</v>
       </c>
       <c r="C141" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E141" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F141" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G141" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H141" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -4613,42 +4499,39 @@
         <v>9.3039745109957703E-5</v>
       </c>
       <c r="L141" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M141" t="s">
-        <v>177</v>
-      </c>
-      <c r="N141" t="s">
+        <v>204</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>205</v>
-      </c>
-      <c r="O141">
-        <v>0</v>
-      </c>
-      <c r="P141" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>206</v>
       </c>
       <c r="B142">
         <v>1.5268060735993101</v>
       </c>
       <c r="C142" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E142" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F142" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G142" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H142" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -4657,42 +4540,39 @@
         <v>1.5268060735993101</v>
       </c>
       <c r="L142" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M142" t="s">
-        <v>177</v>
-      </c>
-      <c r="N142" t="s">
+        <v>207</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>208</v>
-      </c>
-      <c r="O142">
-        <v>0</v>
-      </c>
-      <c r="P142" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>209</v>
       </c>
       <c r="B143">
         <v>1.5904229933326099E-3</v>
       </c>
       <c r="C143" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E143" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F143" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G143" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H143" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -4701,42 +4581,39 @@
         <v>1.5904229933326099E-3</v>
       </c>
       <c r="L143" t="s">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="M143" t="s">
         <v>211</v>
       </c>
-      <c r="N143" t="s">
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>212</v>
-      </c>
-      <c r="O143">
-        <v>0</v>
-      </c>
-      <c r="P143" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>213</v>
       </c>
       <c r="B144">
         <v>2.8627613879986999E-6</v>
       </c>
       <c r="C144" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E144" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F144" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G144" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H144" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -4745,42 +4622,39 @@
         <v>2.8627613879986999E-6</v>
       </c>
       <c r="L144" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M144" t="s">
-        <v>177</v>
-      </c>
-      <c r="N144" t="s">
+        <v>214</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>215</v>
-      </c>
-      <c r="O144">
-        <v>0</v>
-      </c>
-      <c r="P144" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>216</v>
       </c>
       <c r="B145">
         <v>6.2980750535971406E-8</v>
       </c>
       <c r="C145" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E145" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F145" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G145" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H145" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -4789,42 +4663,39 @@
         <v>6.2980750535971406E-8</v>
       </c>
       <c r="L145" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M145" t="s">
-        <v>177</v>
-      </c>
-      <c r="N145" t="s">
+        <v>217</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>218</v>
-      </c>
-      <c r="O145">
-        <v>0</v>
-      </c>
-      <c r="P145" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>219</v>
       </c>
       <c r="B146">
         <v>6.3616919733304401E-10</v>
       </c>
       <c r="C146" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E146" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F146" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G146" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H146" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -4833,42 +4704,39 @@
         <v>6.3616919733304401E-10</v>
       </c>
       <c r="L146" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M146" t="s">
-        <v>177</v>
-      </c>
-      <c r="N146" t="s">
+        <v>220</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>221</v>
-      </c>
-      <c r="O146">
-        <v>0</v>
-      </c>
-      <c r="P146" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>222</v>
       </c>
       <c r="B147">
         <v>3.4989305853317399E-7</v>
       </c>
       <c r="C147" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E147" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F147" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G147" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H147" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -4877,42 +4745,39 @@
         <v>3.4989305853317399E-7</v>
       </c>
       <c r="L147" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M147" t="s">
-        <v>177</v>
-      </c>
-      <c r="N147" t="s">
+        <v>223</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>224</v>
-      </c>
-      <c r="O147">
-        <v>0</v>
-      </c>
-      <c r="P147" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>225</v>
       </c>
       <c r="B148">
         <v>3.6579728846650002E-5</v>
       </c>
       <c r="C148" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F148" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G148" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H148" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -4921,42 +4786,39 @@
         <v>3.6579728846650002E-5</v>
       </c>
       <c r="L148" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M148" t="s">
-        <v>177</v>
-      </c>
-      <c r="N148" t="s">
+        <v>226</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>227</v>
-      </c>
-      <c r="O148">
-        <v>0</v>
-      </c>
-      <c r="P148" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>228</v>
       </c>
       <c r="B149">
         <v>4.9303112793310896E-13</v>
       </c>
       <c r="C149" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E149" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F149" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G149" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H149" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -4965,42 +4827,39 @@
         <v>4.9303112793310896E-13</v>
       </c>
       <c r="L149" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M149" t="s">
-        <v>177</v>
-      </c>
-      <c r="N149" t="s">
+        <v>229</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>230</v>
-      </c>
-      <c r="O149">
-        <v>0</v>
-      </c>
-      <c r="P149" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>231</v>
       </c>
       <c r="B150">
         <v>7.9521149666630503E-7</v>
       </c>
       <c r="C150" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E150" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F150" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G150" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H150" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -5009,42 +4868,39 @@
         <v>7.9521149666630503E-7</v>
       </c>
       <c r="L150" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M150" t="s">
-        <v>177</v>
-      </c>
-      <c r="N150" t="s">
+        <v>232</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>233</v>
-      </c>
-      <c r="O150">
-        <v>0</v>
-      </c>
-      <c r="P150" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>234</v>
       </c>
       <c r="B151">
         <v>2.0675498913323901E-6</v>
       </c>
       <c r="C151" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E151" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F151" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G151" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H151" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -5053,39 +4909,36 @@
         <v>2.0675498913323901E-6</v>
       </c>
       <c r="L151" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M151" t="s">
-        <v>177</v>
-      </c>
-      <c r="N151" t="s">
+        <v>235</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>236</v>
-      </c>
-      <c r="O151">
-        <v>0</v>
-      </c>
-      <c r="P151" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>237</v>
       </c>
       <c r="B152">
         <v>1.44728492393268E-5</v>
       </c>
       <c r="C152" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E152" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F152" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G152" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -5094,39 +4947,36 @@
         <v>1.44728492393268E-5</v>
       </c>
       <c r="L152" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M152" t="s">
-        <v>177</v>
-      </c>
-      <c r="N152" t="s">
+        <v>237</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>238</v>
-      </c>
-      <c r="O152">
-        <v>0</v>
-      </c>
-      <c r="P152" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>239</v>
       </c>
       <c r="B153">
         <v>4.9303112793310897E-5</v>
       </c>
       <c r="C153" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E153" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F153" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G153" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -5135,42 +4985,39 @@
         <v>4.9303112793310897E-5</v>
       </c>
       <c r="L153" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M153" t="s">
-        <v>177</v>
-      </c>
-      <c r="N153" t="s">
+        <v>239</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>240</v>
-      </c>
-      <c r="O153">
-        <v>0</v>
-      </c>
-      <c r="P153" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>241</v>
       </c>
       <c r="B154">
         <v>3.9760574833315299E-7</v>
       </c>
       <c r="C154" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E154" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F154" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G154" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H154" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -5179,42 +5026,39 @@
         <v>3.9760574833315299E-7</v>
       </c>
       <c r="L154" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M154" t="s">
-        <v>177</v>
-      </c>
-      <c r="N154" t="s">
+        <v>242</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>243</v>
-      </c>
-      <c r="O154">
-        <v>0</v>
-      </c>
-      <c r="P154" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>244</v>
       </c>
       <c r="B155">
         <v>5.7255227759973997E-6</v>
       </c>
       <c r="C155" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E155" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F155" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G155" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H155" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -5223,42 +5067,39 @@
         <v>5.7255227759973997E-6</v>
       </c>
       <c r="L155" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M155" t="s">
-        <v>177</v>
-      </c>
-      <c r="N155" t="s">
+        <v>245</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>246</v>
-      </c>
-      <c r="O155">
-        <v>0</v>
-      </c>
-      <c r="P155" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>247</v>
       </c>
       <c r="B156">
         <v>2.7037190886654399E-6</v>
       </c>
       <c r="C156" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E156" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F156" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G156" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H156" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -5267,42 +5108,39 @@
         <v>2.7037190886654399E-6</v>
       </c>
       <c r="L156" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M156" t="s">
-        <v>177</v>
-      </c>
-      <c r="N156" t="s">
+        <v>248</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>249</v>
-      </c>
-      <c r="O156">
-        <v>0</v>
-      </c>
-      <c r="P156" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>250</v>
       </c>
       <c r="B157">
         <v>4.7712689799978297E-9</v>
       </c>
       <c r="C157" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E157" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F157" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G157" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H157" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -5311,42 +5149,39 @@
         <v>4.7712689799978297E-9</v>
       </c>
       <c r="L157" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M157" t="s">
-        <v>177</v>
-      </c>
-      <c r="N157" t="s">
+        <v>251</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>252</v>
-      </c>
-      <c r="O157">
-        <v>0</v>
-      </c>
-      <c r="P157" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>253</v>
       </c>
       <c r="B158">
         <v>1.90850759199913E-5</v>
       </c>
       <c r="C158" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E158" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F158" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G158" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H158" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -5355,39 +5190,36 @@
         <v>1.90850759199913E-5</v>
       </c>
       <c r="L158" t="s">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="M158" t="s">
-        <v>211</v>
-      </c>
-      <c r="N158" t="s">
+        <v>254</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>255</v>
-      </c>
-      <c r="O158">
-        <v>0</v>
-      </c>
-      <c r="P158" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>256</v>
       </c>
       <c r="B159">
         <v>4.4531843813313098E-5</v>
       </c>
       <c r="C159" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E159" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F159" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G159" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -5396,42 +5228,39 @@
         <v>4.4531843813313098E-5</v>
       </c>
       <c r="L159" t="s">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="M159" t="s">
-        <v>211</v>
-      </c>
-      <c r="N159" t="s">
+        <v>256</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>257</v>
-      </c>
-      <c r="O159">
-        <v>0</v>
-      </c>
-      <c r="P159" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>258</v>
       </c>
       <c r="B160">
         <v>9.5425379599956594E-8</v>
       </c>
       <c r="C160" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E160" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F160" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G160" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H160" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -5440,42 +5269,39 @@
         <v>9.5425379599956594E-8</v>
       </c>
       <c r="L160" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M160" t="s">
-        <v>177</v>
-      </c>
-      <c r="N160" t="s">
+        <v>259</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>260</v>
-      </c>
-      <c r="O160">
-        <v>0</v>
-      </c>
-      <c r="P160" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>261</v>
       </c>
       <c r="B161">
         <v>1.27233839466609E-3</v>
       </c>
       <c r="C161" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E161" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F161" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G161" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H161" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -5484,39 +5310,36 @@
         <v>1.27233839466609E-3</v>
       </c>
       <c r="L161" t="s">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="M161" t="s">
-        <v>211</v>
-      </c>
-      <c r="N161" t="s">
+        <v>262</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>263</v>
-      </c>
-      <c r="O161">
-        <v>0</v>
-      </c>
-      <c r="P161" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>264</v>
       </c>
       <c r="B162">
         <v>1.7653695225992E-7</v>
       </c>
       <c r="C162" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E162" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F162" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G162" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -5525,39 +5348,36 @@
         <v>1.7653695225992E-7</v>
       </c>
       <c r="L162" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M162" t="s">
-        <v>177</v>
-      </c>
-      <c r="N162" t="s">
+        <v>264</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>265</v>
-      </c>
-      <c r="O162">
-        <v>0</v>
-      </c>
-      <c r="P162" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>266</v>
       </c>
       <c r="B163">
         <v>7.9521149666630502E-5</v>
       </c>
       <c r="C163" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E163" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F163" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G163" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -5566,42 +5386,39 @@
         <v>7.9521149666630502E-5</v>
       </c>
       <c r="L163" t="s">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="M163" t="s">
-        <v>211</v>
-      </c>
-      <c r="N163" t="s">
+        <v>266</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>267</v>
-      </c>
-      <c r="O163">
-        <v>0</v>
-      </c>
-      <c r="P163" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>268</v>
       </c>
       <c r="B164">
         <v>1.28824262459941E-10</v>
       </c>
       <c r="C164" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E164" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F164" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G164" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H164" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -5610,42 +5427,39 @@
         <v>1.28824262459941E-10</v>
       </c>
       <c r="L164" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M164" t="s">
-        <v>177</v>
-      </c>
-      <c r="N164" t="s">
+        <v>269</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>270</v>
-      </c>
-      <c r="O164">
-        <v>0</v>
-      </c>
-      <c r="P164" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>271</v>
       </c>
       <c r="B165">
         <v>4.77126897999783E-6</v>
       </c>
       <c r="C165" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E165" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F165" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G165" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H165" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -5654,42 +5468,39 @@
         <v>4.77126897999783E-6</v>
       </c>
       <c r="L165" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M165" t="s">
-        <v>177</v>
-      </c>
-      <c r="N165" t="s">
+        <v>272</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>273</v>
-      </c>
-      <c r="O165">
-        <v>0</v>
-      </c>
-      <c r="P165" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>274</v>
       </c>
       <c r="B166">
         <v>3.7215898043983098E-4</v>
       </c>
       <c r="C166" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E166" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F166" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G166" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H166" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -5698,42 +5509,39 @@
         <v>3.7215898043983098E-4</v>
       </c>
       <c r="L166" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M166" t="s">
-        <v>177</v>
-      </c>
-      <c r="N166" t="s">
+        <v>275</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>276</v>
-      </c>
-      <c r="O166">
-        <v>0</v>
-      </c>
-      <c r="P166" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>277</v>
       </c>
       <c r="B167">
         <v>2.0675498913323901E-5</v>
       </c>
       <c r="C167" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E167" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F167" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G167" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H167" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -5742,42 +5550,39 @@
         <v>2.0675498913323901E-5</v>
       </c>
       <c r="L167" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M167" t="s">
-        <v>177</v>
-      </c>
-      <c r="N167" t="s">
+        <v>278</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>279</v>
-      </c>
-      <c r="O167">
-        <v>0</v>
-      </c>
-      <c r="P167" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>280</v>
       </c>
       <c r="B168">
         <v>3.9760574833315298E-5</v>
       </c>
       <c r="C168" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E168" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F168" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G168" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H168" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -5786,42 +5591,39 @@
         <v>3.9760574833315298E-5</v>
       </c>
       <c r="L168" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M168" t="s">
-        <v>177</v>
-      </c>
-      <c r="N168" t="s">
+        <v>281</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>282</v>
-      </c>
-      <c r="O168">
-        <v>0</v>
-      </c>
-      <c r="P168" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>283</v>
       </c>
       <c r="B169">
         <v>4.77126897999783E-6</v>
       </c>
       <c r="C169" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E169" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F169" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G169" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H169" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -5830,42 +5632,39 @@
         <v>4.77126897999783E-6</v>
       </c>
       <c r="L169" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M169" t="s">
-        <v>177</v>
-      </c>
-      <c r="N169" t="s">
-        <v>285</v>
-      </c>
-      <c r="O169">
-        <v>0</v>
-      </c>
-      <c r="P169" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B170">
         <v>9.25626182119579E-4</v>
       </c>
       <c r="C170" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E170" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F170" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G170" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H170" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -5874,42 +5673,39 @@
         <v>9.25626182119579E-4</v>
       </c>
       <c r="L170" t="s">
-        <v>61</v>
+        <v>286</v>
       </c>
       <c r="M170" t="s">
         <v>287</v>
       </c>
-      <c r="N170" t="s">
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>288</v>
-      </c>
-      <c r="O170">
-        <v>0</v>
-      </c>
-      <c r="P170" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>289</v>
       </c>
       <c r="B171">
         <v>4.77126897999783E-6</v>
       </c>
       <c r="C171" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E171" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F171" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G171" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H171" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -5918,42 +5714,39 @@
         <v>4.77126897999783E-6</v>
       </c>
       <c r="L171" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M171" t="s">
-        <v>177</v>
-      </c>
-      <c r="N171" t="s">
+        <v>290</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>291</v>
-      </c>
-      <c r="O171">
-        <v>0</v>
-      </c>
-      <c r="P171" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>292</v>
       </c>
       <c r="B172">
         <v>1.9085075919991301E-6</v>
       </c>
       <c r="C172" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E172" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F172" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G172" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H172" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -5962,24 +5755,21 @@
         <v>1.9085075919991301E-6</v>
       </c>
       <c r="L172" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M172" t="s">
-        <v>177</v>
-      </c>
-      <c r="N172" t="s">
-        <v>293</v>
-      </c>
-      <c r="O172">
-        <v>0</v>
-      </c>
-      <c r="P172" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -6003,36 +5793,33 @@
         <v>1</v>
       </c>
       <c r="K173" t="s">
+        <v>293</v>
+      </c>
+      <c r="L173" t="s">
         <v>294</v>
       </c>
-      <c r="L173" t="s">
-        <v>61</v>
-      </c>
       <c r="M173" t="s">
+        <v>44</v>
+      </c>
+      <c r="N173">
+        <v>1</v>
+      </c>
+      <c r="O173" t="s">
+        <v>60</v>
+      </c>
+      <c r="P173" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>295</v>
-      </c>
-      <c r="N173" t="s">
-        <v>44</v>
-      </c>
-      <c r="O173">
-        <v>1</v>
-      </c>
-      <c r="P173" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q173" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>296</v>
       </c>
       <c r="B174">
         <v>8.2830389383271006E-9</v>
       </c>
       <c r="C174" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D174" t="s">
         <v>21</v>
@@ -6050,42 +5837,39 @@
         <v>8.2830389383271006E-9</v>
       </c>
       <c r="K174" t="s">
+        <v>296</v>
+      </c>
+      <c r="L174" t="s">
         <v>297</v>
-      </c>
-      <c r="L174" t="s">
-        <v>61</v>
       </c>
       <c r="M174" t="s">
         <v>298</v>
       </c>
-      <c r="N174" t="s">
+      <c r="N174">
+        <v>0</v>
+      </c>
+      <c r="O174" t="s">
+        <v>60</v>
+      </c>
+      <c r="P174" t="s">
         <v>299</v>
       </c>
-      <c r="O174">
-        <v>0</v>
-      </c>
-      <c r="P174" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q174" t="s">
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>300</v>
-      </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>301</v>
       </c>
       <c r="B175">
         <v>1.27233839466609E-3</v>
       </c>
       <c r="C175" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D175" t="s">
         <v>7</v>
       </c>
       <c r="E175" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G175" t="s">
         <v>19</v>
@@ -6097,42 +5881,39 @@
         <v>1.27233839466609E-3</v>
       </c>
       <c r="K175" t="s">
+        <v>301</v>
+      </c>
+      <c r="L175" t="s">
+        <v>210</v>
+      </c>
+      <c r="M175" t="s">
         <v>302</v>
       </c>
-      <c r="L175" t="s">
-        <v>61</v>
-      </c>
-      <c r="M175" t="s">
-        <v>211</v>
-      </c>
-      <c r="N175" t="s">
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175" t="s">
+        <v>60</v>
+      </c>
+      <c r="P175" t="s">
         <v>303</v>
       </c>
-      <c r="O175">
-        <v>0</v>
-      </c>
-      <c r="P175" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q175" t="s">
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>304</v>
-      </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>305</v>
       </c>
       <c r="B176">
         <v>1.30414685453274E-7</v>
       </c>
       <c r="C176" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D176" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E176" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G176" t="s">
         <v>19</v>
@@ -6144,42 +5925,39 @@
         <v>1.30414685453274E-7</v>
       </c>
       <c r="K176" t="s">
+        <v>305</v>
+      </c>
+      <c r="L176" t="s">
+        <v>176</v>
+      </c>
+      <c r="M176" t="s">
         <v>306</v>
       </c>
-      <c r="L176" t="s">
-        <v>61</v>
-      </c>
-      <c r="M176" t="s">
-        <v>177</v>
-      </c>
-      <c r="N176" t="s">
+      <c r="N176">
+        <v>0</v>
+      </c>
+      <c r="O176" t="s">
+        <v>60</v>
+      </c>
+      <c r="P176" t="s">
         <v>307</v>
       </c>
-      <c r="O176">
-        <v>0</v>
-      </c>
-      <c r="P176" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q176" t="s">
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>309</v>
       </c>
       <c r="B177">
         <v>9.3039745109957703E-5</v>
       </c>
       <c r="C177" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D177" t="s">
         <v>7</v>
       </c>
       <c r="E177" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G177" t="s">
         <v>19</v>
@@ -6191,42 +5969,39 @@
         <v>9.3039745109957703E-5</v>
       </c>
       <c r="K177" t="s">
+        <v>309</v>
+      </c>
+      <c r="L177" t="s">
+        <v>176</v>
+      </c>
+      <c r="M177" t="s">
         <v>310</v>
       </c>
-      <c r="L177" t="s">
-        <v>61</v>
-      </c>
-      <c r="M177" t="s">
-        <v>177</v>
-      </c>
-      <c r="N177" t="s">
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177" t="s">
+        <v>60</v>
+      </c>
+      <c r="P177" t="s">
         <v>311</v>
       </c>
-      <c r="O177">
-        <v>0</v>
-      </c>
-      <c r="P177" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q177" t="s">
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>312</v>
-      </c>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>313</v>
       </c>
       <c r="B178">
         <v>5.2165874181309598E-6</v>
       </c>
       <c r="C178" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D178" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E178" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G178" t="s">
         <v>19</v>
@@ -6238,36 +6013,33 @@
         <v>5.2165874181309598E-6</v>
       </c>
       <c r="K178" t="s">
+        <v>313</v>
+      </c>
+      <c r="L178" t="s">
+        <v>176</v>
+      </c>
+      <c r="M178" t="s">
         <v>314</v>
       </c>
-      <c r="L178" t="s">
-        <v>61</v>
-      </c>
-      <c r="M178" t="s">
-        <v>177</v>
-      </c>
-      <c r="N178" t="s">
+      <c r="N178">
+        <v>0</v>
+      </c>
+      <c r="O178" t="s">
+        <v>60</v>
+      </c>
+      <c r="P178" t="s">
         <v>315</v>
       </c>
-      <c r="O178">
-        <v>0</v>
-      </c>
-      <c r="P178" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q178" t="s">
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>317</v>
       </c>
       <c r="B179">
         <v>8.2830389383271006E-9</v>
       </c>
       <c r="C179" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D179" t="s">
         <v>7</v>
@@ -6285,36 +6057,33 @@
         <v>8.2830389383271006E-9</v>
       </c>
       <c r="K179" t="s">
+        <v>317</v>
+      </c>
+      <c r="L179" t="s">
+        <v>297</v>
+      </c>
+      <c r="M179" t="s">
         <v>318</v>
       </c>
-      <c r="L179" t="s">
-        <v>61</v>
-      </c>
-      <c r="M179" t="s">
-        <v>298</v>
-      </c>
-      <c r="N179" t="s">
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179" t="s">
+        <v>60</v>
+      </c>
+      <c r="P179" t="s">
         <v>319</v>
       </c>
-      <c r="O179">
-        <v>0</v>
-      </c>
-      <c r="P179" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q179" t="s">
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>321</v>
       </c>
       <c r="B180">
         <v>8.2830389383271006E-9</v>
       </c>
       <c r="C180" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D180" t="s">
         <v>7</v>
@@ -6332,42 +6101,39 @@
         <v>8.2830389383271006E-9</v>
       </c>
       <c r="K180" t="s">
+        <v>321</v>
+      </c>
+      <c r="L180" t="s">
+        <v>297</v>
+      </c>
+      <c r="M180" t="s">
         <v>322</v>
       </c>
-      <c r="L180" t="s">
-        <v>61</v>
-      </c>
-      <c r="M180" t="s">
-        <v>298</v>
-      </c>
-      <c r="N180" t="s">
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180" t="s">
+        <v>60</v>
+      </c>
+      <c r="P180" t="s">
         <v>323</v>
       </c>
-      <c r="O180">
-        <v>0</v>
-      </c>
-      <c r="P180" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q180" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B181">
         <v>5.2165874181309602E-5</v>
       </c>
       <c r="C181" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D181" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E181" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G181" t="s">
         <v>19</v>
@@ -6379,42 +6145,39 @@
         <v>5.2165874181309602E-5</v>
       </c>
       <c r="K181" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L181" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M181" t="s">
-        <v>177</v>
-      </c>
-      <c r="N181" t="s">
-        <v>107</v>
-      </c>
-      <c r="O181">
-        <v>0</v>
+        <v>106</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+      <c r="O181" t="s">
+        <v>60</v>
       </c>
       <c r="P181" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q181" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B182">
         <v>-5.2165874181309602E-5</v>
       </c>
       <c r="C182" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D182" t="s">
         <v>21</v>
       </c>
       <c r="E182" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G182" t="s">
         <v>19</v>
@@ -6426,42 +6189,39 @@
         <v>-5.2165874181309602E-5</v>
       </c>
       <c r="K182" t="s">
+        <v>325</v>
+      </c>
+      <c r="L182" t="s">
+        <v>176</v>
+      </c>
+      <c r="M182" t="s">
         <v>326</v>
       </c>
-      <c r="L182" t="s">
-        <v>61</v>
-      </c>
-      <c r="M182" t="s">
-        <v>177</v>
-      </c>
-      <c r="N182" t="s">
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182" t="s">
+        <v>60</v>
+      </c>
+      <c r="P182" t="s">
         <v>327</v>
       </c>
-      <c r="O182">
-        <v>1</v>
-      </c>
-      <c r="P182" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q182" t="s">
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>328</v>
-      </c>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>329</v>
       </c>
       <c r="B183">
         <v>6.5207342726637002E-5</v>
       </c>
       <c r="C183" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D183" t="s">
         <v>7</v>
       </c>
       <c r="E183" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G183" t="s">
         <v>19</v>
@@ -6473,42 +6233,39 @@
         <v>6.5207342726637002E-5</v>
       </c>
       <c r="K183" t="s">
+        <v>329</v>
+      </c>
+      <c r="L183" t="s">
+        <v>176</v>
+      </c>
+      <c r="M183" t="s">
         <v>330</v>
       </c>
-      <c r="L183" t="s">
-        <v>61</v>
-      </c>
-      <c r="M183" t="s">
-        <v>177</v>
-      </c>
-      <c r="N183" t="s">
+      <c r="N183">
+        <v>0</v>
+      </c>
+      <c r="O183" t="s">
+        <v>60</v>
+      </c>
+      <c r="P183" t="s">
         <v>331</v>
       </c>
-      <c r="O183">
-        <v>0</v>
-      </c>
-      <c r="P183" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q183" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B184">
         <v>-5.2165874181309602E-5</v>
       </c>
       <c r="C184" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D184" t="s">
         <v>21</v>
       </c>
       <c r="E184" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G184" t="s">
         <v>19</v>
@@ -6520,42 +6277,39 @@
         <v>-5.2165874181309602E-5</v>
       </c>
       <c r="K184" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L184" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M184" t="s">
-        <v>177</v>
-      </c>
-      <c r="N184" t="s">
+        <v>112</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184" t="s">
+        <v>60</v>
+      </c>
+      <c r="P184" t="s">
         <v>113</v>
       </c>
-      <c r="O184">
-        <v>1</v>
-      </c>
-      <c r="P184" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q184" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B185">
         <v>-1.25166289575276E-5</v>
       </c>
       <c r="C185" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D185" t="s">
         <v>21</v>
       </c>
       <c r="E185" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G185" t="s">
         <v>19</v>
@@ -6567,42 +6321,39 @@
         <v>-1.25166289575276E-5</v>
       </c>
       <c r="K185" t="s">
+        <v>333</v>
+      </c>
+      <c r="L185" t="s">
+        <v>176</v>
+      </c>
+      <c r="M185" t="s">
         <v>334</v>
       </c>
-      <c r="L185" t="s">
-        <v>61</v>
-      </c>
-      <c r="M185" t="s">
-        <v>177</v>
-      </c>
-      <c r="N185" t="s">
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185" t="s">
+        <v>60</v>
+      </c>
+      <c r="P185" t="s">
         <v>335</v>
       </c>
-      <c r="O185">
-        <v>1</v>
-      </c>
-      <c r="P185" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q185" t="s">
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>337</v>
       </c>
       <c r="B186">
         <v>1.2516628957527601E-2</v>
       </c>
       <c r="C186" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D186" t="s">
         <v>21</v>
       </c>
       <c r="E186" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G186" t="s">
         <v>19</v>
@@ -6614,42 +6365,39 @@
         <v>1.2516628957527601E-2</v>
       </c>
       <c r="K186" t="s">
+        <v>337</v>
+      </c>
+      <c r="L186" t="s">
+        <v>176</v>
+      </c>
+      <c r="M186" t="s">
         <v>338</v>
       </c>
-      <c r="L186" t="s">
-        <v>61</v>
-      </c>
-      <c r="M186" t="s">
-        <v>177</v>
-      </c>
-      <c r="N186" t="s">
+      <c r="N186">
+        <v>0</v>
+      </c>
+      <c r="O186" t="s">
+        <v>60</v>
+      </c>
+      <c r="P186" t="s">
         <v>339</v>
       </c>
-      <c r="O186">
-        <v>0</v>
-      </c>
-      <c r="P186" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q186" t="s">
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>341</v>
       </c>
       <c r="B187">
         <v>-8.4133376347295102E-3</v>
       </c>
       <c r="C187" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D187" t="s">
         <v>21</v>
       </c>
       <c r="E187" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G187" t="s">
         <v>19</v>
@@ -6661,42 +6409,39 @@
         <v>-8.4133376347295102E-3</v>
       </c>
       <c r="K187" t="s">
+        <v>341</v>
+      </c>
+      <c r="L187" t="s">
+        <v>176</v>
+      </c>
+      <c r="M187" t="s">
         <v>342</v>
       </c>
-      <c r="L187" t="s">
-        <v>61</v>
-      </c>
-      <c r="M187" t="s">
-        <v>177</v>
-      </c>
-      <c r="N187" t="s">
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187" t="s">
+        <v>60</v>
+      </c>
+      <c r="P187" t="s">
         <v>343</v>
       </c>
-      <c r="O187">
-        <v>1</v>
-      </c>
-      <c r="P187" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q187" t="s">
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>344</v>
-      </c>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>345</v>
       </c>
       <c r="B188">
         <v>0.84149364726593101</v>
       </c>
       <c r="C188" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D188" t="s">
         <v>21</v>
       </c>
       <c r="E188" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G188" t="s">
         <v>19</v>
@@ -6708,28 +6453,25 @@
         <v>0.84149364726593101</v>
       </c>
       <c r="K188" t="s">
+        <v>345</v>
+      </c>
+      <c r="L188" t="s">
         <v>346</v>
-      </c>
-      <c r="L188" t="s">
-        <v>61</v>
       </c>
       <c r="M188" t="s">
         <v>347</v>
       </c>
-      <c r="N188" t="s">
+      <c r="N188">
+        <v>0</v>
+      </c>
+      <c r="O188" t="s">
+        <v>60</v>
+      </c>
+      <c r="P188" t="s">
         <v>348</v>
       </c>
-      <c r="O188">
-        <v>0</v>
-      </c>
-      <c r="P188" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q188" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="190" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>2</v>
       </c>
@@ -6737,7 +6479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>36</v>
       </c>
@@ -6745,39 +6487,39 @@
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>4</v>
       </c>
       <c r="B192" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>39</v>
       </c>
       <c r="B193" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>41</v>
       </c>
       <c r="B194" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>43</v>
       </c>
       <c r="B195" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>6</v>
       </c>
@@ -6785,7 +6527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>45</v>
       </c>
@@ -6793,7 +6535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -6801,7 +6543,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>9</v>
       </c>
@@ -6809,7 +6551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>11</v>
       </c>
@@ -6817,12 +6559,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>14</v>
       </c>
@@ -6857,13 +6599,13 @@
         <v>51</v>
       </c>
       <c r="L202" t="s">
+        <v>39</v>
+      </c>
+      <c r="M202" t="s">
+        <v>43</v>
+      </c>
+      <c r="N202" t="s">
         <v>52</v>
-      </c>
-      <c r="M202" t="s">
-        <v>39</v>
-      </c>
-      <c r="N202" t="s">
-        <v>43</v>
       </c>
       <c r="O202" t="s">
         <v>53</v>
@@ -6872,33 +6614,30 @@
         <v>54</v>
       </c>
       <c r="Q202" t="s">
+        <v>8</v>
+      </c>
+      <c r="R202" t="s">
         <v>55</v>
       </c>
-      <c r="R202" t="s">
-        <v>8</v>
-      </c>
-      <c r="S202" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B203">
         <v>1.1240000000000001</v>
       </c>
       <c r="C203" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E203" t="s">
         <v>29</v>
       </c>
       <c r="F203" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G203" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -6910,28 +6649,25 @@
         <v>0.20295094072107059</v>
       </c>
       <c r="L203" t="s">
-        <v>61</v>
+        <v>353</v>
       </c>
       <c r="M203" t="s">
+        <v>121</v>
+      </c>
+      <c r="N203" t="s">
         <v>354</v>
       </c>
-      <c r="N203" t="s">
-        <v>122</v>
-      </c>
-      <c r="O203" t="s">
-        <v>355</v>
-      </c>
-      <c r="P203">
-        <v>0</v>
-      </c>
-      <c r="Q203" t="s">
-        <v>61</v>
-      </c>
-      <c r="S203">
+      <c r="O203">
+        <v>0</v>
+      </c>
+      <c r="P203" t="s">
+        <v>60</v>
+      </c>
+      <c r="R203">
         <v>2.4271059712494669E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>30</v>
       </c>
@@ -6957,36 +6693,33 @@
         <v>1</v>
       </c>
       <c r="K204" t="s">
+        <v>355</v>
+      </c>
+      <c r="L204" t="s">
         <v>356</v>
       </c>
-      <c r="L204" t="s">
-        <v>61</v>
-      </c>
       <c r="M204" t="s">
+        <v>352</v>
+      </c>
+      <c r="O204">
+        <v>310098552</v>
+      </c>
+      <c r="P204" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
         <v>357</v>
-      </c>
-      <c r="N204" t="s">
-        <v>353</v>
-      </c>
-      <c r="P204">
-        <v>310098552</v>
-      </c>
-      <c r="Q204" t="s">
-        <v>61</v>
-      </c>
-      <c r="R204" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>358</v>
       </c>
       <c r="B205">
         <v>1.6712999999999999E-2</v>
       </c>
       <c r="C205" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D205" t="s">
         <v>21</v>
@@ -7007,42 +6740,39 @@
         <v>0.2218107301281883</v>
       </c>
       <c r="K205" t="s">
+        <v>358</v>
+      </c>
+      <c r="L205" t="s">
         <v>359</v>
       </c>
-      <c r="L205" t="s">
-        <v>61</v>
-      </c>
       <c r="M205" t="s">
+        <v>117</v>
+      </c>
+      <c r="N205" t="s">
         <v>360</v>
       </c>
-      <c r="N205" t="s">
-        <v>118</v>
-      </c>
-      <c r="O205" t="s">
+      <c r="O205">
+        <v>0</v>
+      </c>
+      <c r="P205" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>22</v>
+      </c>
+      <c r="R205">
+        <v>2.4494897427831779E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
         <v>361</v>
-      </c>
-      <c r="P205">
-        <v>0</v>
-      </c>
-      <c r="Q205" t="s">
-        <v>61</v>
-      </c>
-      <c r="R205" t="s">
-        <v>22</v>
-      </c>
-      <c r="S205">
-        <v>2.4494897427831779E-2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
-        <v>362</v>
       </c>
       <c r="B206">
         <v>5.1502000000000003E-6</v>
       </c>
       <c r="C206" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D206" t="s">
         <v>21</v>
@@ -7063,34 +6793,31 @@
         <v>0.59042357676502044</v>
       </c>
       <c r="K206" t="s">
+        <v>362</v>
+      </c>
+      <c r="L206" t="s">
+        <v>356</v>
+      </c>
+      <c r="M206" t="s">
         <v>363</v>
       </c>
-      <c r="L206" t="s">
-        <v>61</v>
-      </c>
-      <c r="M206" t="s">
-        <v>357</v>
-      </c>
       <c r="N206" t="s">
+        <v>360</v>
+      </c>
+      <c r="O206">
+        <v>0</v>
+      </c>
+      <c r="P206" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q206" t="s">
         <v>364</v>
       </c>
-      <c r="O206" t="s">
-        <v>361</v>
-      </c>
-      <c r="P206">
-        <v>0</v>
-      </c>
-      <c r="Q206" t="s">
-        <v>61</v>
-      </c>
-      <c r="R206" t="s">
-        <v>365</v>
-      </c>
-      <c r="S206">
+      <c r="R206">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>2</v>
       </c>
@@ -7103,7 +6830,7 @@
         <v>4</v>
       </c>
       <c r="B209" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -7237,7 +6964,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B219">
         <v>0.03</v>
@@ -7260,7 +6987,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B220">
         <v>0.307</v>
@@ -7302,34 +7029,34 @@
         <v>4</v>
       </c>
       <c r="B224" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>39</v>
       </c>
       <c r="B225" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>41</v>
       </c>
       <c r="B226" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>43</v>
       </c>
       <c r="B227" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>6</v>
       </c>
@@ -7337,7 +7064,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>45</v>
       </c>
@@ -7345,7 +7072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>8</v>
       </c>
@@ -7353,7 +7080,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>9</v>
       </c>
@@ -7361,7 +7088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>11</v>
       </c>
@@ -7369,12 +7096,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>14</v>
       </c>
@@ -7412,13 +7139,13 @@
         <v>51</v>
       </c>
       <c r="M234" t="s">
+        <v>39</v>
+      </c>
+      <c r="N234" t="s">
+        <v>43</v>
+      </c>
+      <c r="O234" t="s">
         <v>52</v>
-      </c>
-      <c r="N234" t="s">
-        <v>39</v>
-      </c>
-      <c r="O234" t="s">
-        <v>43</v>
       </c>
       <c r="P234" t="s">
         <v>53</v>
@@ -7427,36 +7154,33 @@
         <v>54</v>
       </c>
       <c r="R234" t="s">
+        <v>8</v>
+      </c>
+      <c r="S234" t="s">
         <v>55</v>
       </c>
-      <c r="S234" t="s">
-        <v>8</v>
-      </c>
-      <c r="T234" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B235">
         <v>2.6280495722927599E-8</v>
       </c>
       <c r="C235" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E235" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F235" t="s">
+        <v>174</v>
+      </c>
+      <c r="G235" t="s">
+        <v>59</v>
+      </c>
+      <c r="H235" t="s">
         <v>175</v>
-      </c>
-      <c r="G235" t="s">
-        <v>60</v>
-      </c>
-      <c r="H235" t="s">
-        <v>176</v>
       </c>
       <c r="I235">
         <v>2</v>
@@ -7468,48 +7192,45 @@
         <v>0.43127717305695651</v>
       </c>
       <c r="M235" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N235" t="s">
+        <v>177</v>
+      </c>
+      <c r="O235" t="s">
         <v>371</v>
       </c>
-      <c r="O235" t="s">
+      <c r="P235">
+        <v>0</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>60</v>
+      </c>
+      <c r="S235">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
         <v>178</v>
-      </c>
-      <c r="P235" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q235">
-        <v>0</v>
-      </c>
-      <c r="R235" t="s">
-        <v>61</v>
-      </c>
-      <c r="T235">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
-        <v>179</v>
       </c>
       <c r="B236">
         <v>7.4533209181417604E-7</v>
       </c>
       <c r="C236" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E236" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F236" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G236" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H236" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I236">
         <v>2</v>
@@ -7521,48 +7242,45 @@
         <v>0.39496835316263001</v>
       </c>
       <c r="M236" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N236" t="s">
+        <v>180</v>
+      </c>
+      <c r="O236" t="s">
         <v>371</v>
       </c>
-      <c r="O236" t="s">
+      <c r="P236">
+        <v>0</v>
+      </c>
+      <c r="Q236" t="s">
+        <v>60</v>
+      </c>
+      <c r="S236">
+        <v>0.2449489742783178</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
         <v>181</v>
-      </c>
-      <c r="P236" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q236">
-        <v>0</v>
-      </c>
-      <c r="R236" t="s">
-        <v>61</v>
-      </c>
-      <c r="T236">
-        <v>0.2449489742783178</v>
-      </c>
-    </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
-        <v>182</v>
       </c>
       <c r="B237">
         <v>4.3082779873651798E-10</v>
       </c>
       <c r="C237" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E237" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F237" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G237" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H237" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I237">
         <v>2</v>
@@ -7574,48 +7292,45 @@
         <v>0.89218832092781852</v>
       </c>
       <c r="M237" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N237" t="s">
+        <v>183</v>
+      </c>
+      <c r="O237" t="s">
         <v>371</v>
       </c>
-      <c r="O237" t="s">
+      <c r="P237">
+        <v>0</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>60</v>
+      </c>
+      <c r="S237">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
         <v>184</v>
-      </c>
-      <c r="P237" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q237">
-        <v>0</v>
-      </c>
-      <c r="R237" t="s">
-        <v>61</v>
-      </c>
-      <c r="T237">
-        <v>0.83666002653407556</v>
-      </c>
-    </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
-        <v>185</v>
       </c>
       <c r="B238">
         <v>3.9205329685023098E-7</v>
       </c>
       <c r="C238" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E238" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F238" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G238" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H238" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I238">
         <v>2</v>
@@ -7627,48 +7342,45 @@
         <v>0.43127717305695651</v>
       </c>
       <c r="M238" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N238" t="s">
+        <v>186</v>
+      </c>
+      <c r="O238" t="s">
         <v>371</v>
       </c>
-      <c r="O238" t="s">
+      <c r="P238">
+        <v>0</v>
+      </c>
+      <c r="Q238" t="s">
+        <v>60</v>
+      </c>
+      <c r="S238">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
         <v>187</v>
-      </c>
-      <c r="P238" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q238">
-        <v>0</v>
-      </c>
-      <c r="R238" t="s">
-        <v>61</v>
-      </c>
-      <c r="T238">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
-        <v>188</v>
       </c>
       <c r="B239">
         <v>1.2924833962095501E-8</v>
       </c>
       <c r="C239" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E239" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F239" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G239" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H239" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I239">
         <v>2</v>
@@ -7680,48 +7392,45 @@
         <v>0.43127717305695651</v>
       </c>
       <c r="M239" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N239" t="s">
+        <v>189</v>
+      </c>
+      <c r="O239" t="s">
         <v>371</v>
       </c>
-      <c r="O239" t="s">
+      <c r="P239">
+        <v>0</v>
+      </c>
+      <c r="Q239" t="s">
+        <v>60</v>
+      </c>
+      <c r="S239">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
         <v>190</v>
-      </c>
-      <c r="P239" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q239">
-        <v>0</v>
-      </c>
-      <c r="R239" t="s">
-        <v>61</v>
-      </c>
-      <c r="T239">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
-        <v>191</v>
       </c>
       <c r="B240">
         <v>3.1019601509029302E-15</v>
       </c>
       <c r="C240" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E240" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F240" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G240" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H240" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I240">
         <v>2</v>
@@ -7733,48 +7442,45 @@
         <v>0.66783231428255996</v>
       </c>
       <c r="M240" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N240" t="s">
+        <v>192</v>
+      </c>
+      <c r="O240" t="s">
         <v>371</v>
       </c>
-      <c r="O240" t="s">
+      <c r="P240">
+        <v>0</v>
+      </c>
+      <c r="Q240" t="s">
+        <v>60</v>
+      </c>
+      <c r="S240">
+        <v>0.59160797830996159</v>
+      </c>
+    </row>
+    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
         <v>193</v>
-      </c>
-      <c r="P240" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q240">
-        <v>0</v>
-      </c>
-      <c r="R240" t="s">
-        <v>61</v>
-      </c>
-      <c r="T240">
-        <v>0.59160797830996159</v>
-      </c>
-    </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>194</v>
       </c>
       <c r="B241">
         <v>2.1541389936825899E-10</v>
       </c>
       <c r="C241" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E241" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F241" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G241" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H241" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I241">
         <v>2</v>
@@ -7786,48 +7492,45 @@
         <v>0.66783231428255996</v>
       </c>
       <c r="M241" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N241" t="s">
+        <v>195</v>
+      </c>
+      <c r="O241" t="s">
         <v>371</v>
       </c>
-      <c r="O241" t="s">
+      <c r="P241">
+        <v>0</v>
+      </c>
+      <c r="Q241" t="s">
+        <v>60</v>
+      </c>
+      <c r="S241">
+        <v>0.59160797830996159</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
         <v>196</v>
-      </c>
-      <c r="P241" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q241">
-        <v>0</v>
-      </c>
-      <c r="R241" t="s">
-        <v>61</v>
-      </c>
-      <c r="T241">
-        <v>0.59160797830996159</v>
-      </c>
-    </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>197</v>
       </c>
       <c r="B242">
         <v>2.58496679241911E-8</v>
       </c>
       <c r="C242" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E242" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F242" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G242" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H242" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I242">
         <v>2</v>
@@ -7839,48 +7542,45 @@
         <v>0.89218832092781852</v>
       </c>
       <c r="M242" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N242" t="s">
+        <v>198</v>
+      </c>
+      <c r="O242" t="s">
         <v>371</v>
       </c>
-      <c r="O242" t="s">
+      <c r="P242">
+        <v>0</v>
+      </c>
+      <c r="Q242" t="s">
+        <v>60</v>
+      </c>
+      <c r="S242">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
         <v>199</v>
-      </c>
-      <c r="P242" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q242">
-        <v>0</v>
-      </c>
-      <c r="R242" t="s">
-        <v>61</v>
-      </c>
-      <c r="T242">
-        <v>0.83666002653407556</v>
-      </c>
-    </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>200</v>
       </c>
       <c r="B243">
         <v>3.0157945911556301E-10</v>
       </c>
       <c r="C243" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E243" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F243" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G243" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H243" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I243">
         <v>2</v>
@@ -7892,48 +7592,45 @@
         <v>0.89218832092781852</v>
       </c>
       <c r="M243" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N243" t="s">
+        <v>201</v>
+      </c>
+      <c r="O243" t="s">
         <v>371</v>
       </c>
-      <c r="O243" t="s">
+      <c r="P243">
+        <v>0</v>
+      </c>
+      <c r="Q243" t="s">
+        <v>60</v>
+      </c>
+      <c r="S243">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
         <v>202</v>
-      </c>
-      <c r="P243" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q243">
-        <v>0</v>
-      </c>
-      <c r="R243" t="s">
-        <v>61</v>
-      </c>
-      <c r="T243">
-        <v>0.83666002653407556</v>
-      </c>
-    </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>203</v>
       </c>
       <c r="B244">
         <v>2.5203426226086301E-6</v>
       </c>
       <c r="C244" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E244" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F244" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G244" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H244" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I244">
         <v>2</v>
@@ -7945,48 +7642,45 @@
         <v>0.89218832092781852</v>
       </c>
       <c r="M244" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N244" t="s">
+        <v>204</v>
+      </c>
+      <c r="O244" t="s">
         <v>371</v>
       </c>
-      <c r="O244" t="s">
+      <c r="P244">
+        <v>0</v>
+      </c>
+      <c r="Q244" t="s">
+        <v>60</v>
+      </c>
+      <c r="S244">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
         <v>205</v>
-      </c>
-      <c r="P244" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q244">
-        <v>0</v>
-      </c>
-      <c r="R244" t="s">
-        <v>61</v>
-      </c>
-      <c r="T244">
-        <v>0.83666002653407556</v>
-      </c>
-    </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>206</v>
       </c>
       <c r="B245">
         <v>4.16192578413438E-2</v>
       </c>
       <c r="C245" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E245" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F245" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G245" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H245" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I245">
         <v>2</v>
@@ -7998,48 +7692,45 @@
         <v>0.22627416997969521</v>
       </c>
       <c r="M245" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="N245" t="s">
+        <v>207</v>
+      </c>
+      <c r="O245" t="s">
         <v>373</v>
       </c>
-      <c r="O245" t="s">
+      <c r="P245">
+        <v>0</v>
+      </c>
+      <c r="Q245" t="s">
+        <v>60</v>
+      </c>
+      <c r="S245">
+        <v>2.4494897427831779E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
         <v>208</v>
-      </c>
-      <c r="P245" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q245">
-        <v>0</v>
-      </c>
-      <c r="R245" t="s">
-        <v>61</v>
-      </c>
-      <c r="T245">
-        <v>2.4494897427831779E-2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>209</v>
       </c>
       <c r="B246">
         <v>1.37864895595686E-5</v>
       </c>
       <c r="C246" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E246" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F246" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G246" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H246" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I246">
         <v>2</v>
@@ -8051,48 +7742,45 @@
         <v>0.87326971778483187</v>
       </c>
       <c r="M246" t="s">
-        <v>61</v>
+        <v>374</v>
       </c>
       <c r="N246" t="s">
+        <v>211</v>
+      </c>
+      <c r="O246" t="s">
         <v>375</v>
       </c>
-      <c r="O246" t="s">
+      <c r="P246">
+        <v>0</v>
+      </c>
+      <c r="Q246" t="s">
+        <v>60</v>
+      </c>
+      <c r="S246">
+        <v>0.82462112512353214</v>
+      </c>
+    </row>
+    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
         <v>212</v>
-      </c>
-      <c r="P246" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q246">
-        <v>0</v>
-      </c>
-      <c r="R246" t="s">
-        <v>61</v>
-      </c>
-      <c r="T246">
-        <v>0.82462112512353214</v>
-      </c>
-    </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>213</v>
       </c>
       <c r="B247">
         <v>7.7549003772573205E-8</v>
       </c>
       <c r="C247" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E247" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F247" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G247" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H247" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I247">
         <v>2</v>
@@ -8104,48 +7792,45 @@
         <v>0.43127717305695651</v>
       </c>
       <c r="M247" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N247" t="s">
+        <v>214</v>
+      </c>
+      <c r="O247" t="s">
         <v>371</v>
       </c>
-      <c r="O247" t="s">
+      <c r="P247">
+        <v>0</v>
+      </c>
+      <c r="Q247" t="s">
+        <v>60</v>
+      </c>
+      <c r="S247">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
         <v>215</v>
-      </c>
-      <c r="P247" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q247">
-        <v>0</v>
-      </c>
-      <c r="R247" t="s">
-        <v>61</v>
-      </c>
-      <c r="T247">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
-        <v>216</v>
       </c>
       <c r="B248">
         <v>1.7060780829966099E-9</v>
       </c>
       <c r="C248" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E248" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F248" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G248" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H248" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I248">
         <v>2</v>
@@ -8157,48 +7842,45 @@
         <v>0.89218832092781852</v>
       </c>
       <c r="M248" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N248" t="s">
+        <v>217</v>
+      </c>
+      <c r="O248" t="s">
         <v>371</v>
       </c>
-      <c r="O248" t="s">
+      <c r="P248">
+        <v>0</v>
+      </c>
+      <c r="Q248" t="s">
+        <v>60</v>
+      </c>
+      <c r="S248">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
         <v>218</v>
-      </c>
-      <c r="P248" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q248">
-        <v>0</v>
-      </c>
-      <c r="R248" t="s">
-        <v>61</v>
-      </c>
-      <c r="T248">
-        <v>0.83666002653407556</v>
-      </c>
-    </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>219</v>
       </c>
       <c r="B249">
         <v>1.7233111949460701E-11</v>
       </c>
       <c r="C249" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E249" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F249" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G249" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H249" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I249">
         <v>2</v>
@@ -8210,48 +7892,45 @@
         <v>0.89218832092781852</v>
       </c>
       <c r="M249" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N249" t="s">
+        <v>220</v>
+      </c>
+      <c r="O249" t="s">
         <v>371</v>
       </c>
-      <c r="O249" t="s">
+      <c r="P249">
+        <v>0</v>
+      </c>
+      <c r="Q249" t="s">
+        <v>60</v>
+      </c>
+      <c r="S249">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
         <v>221</v>
-      </c>
-      <c r="P249" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q249">
-        <v>0</v>
-      </c>
-      <c r="R249" t="s">
-        <v>61</v>
-      </c>
-      <c r="T249">
-        <v>0.83666002653407556</v>
-      </c>
-    </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>222</v>
       </c>
       <c r="B250">
         <v>9.4782115722033997E-9</v>
       </c>
       <c r="C250" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E250" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F250" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G250" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H250" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I250">
         <v>2</v>
@@ -8263,48 +7942,45 @@
         <v>0.89218832092781852</v>
       </c>
       <c r="M250" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N250" t="s">
+        <v>223</v>
+      </c>
+      <c r="O250" t="s">
         <v>371</v>
       </c>
-      <c r="O250" t="s">
+      <c r="P250">
+        <v>0</v>
+      </c>
+      <c r="Q250" t="s">
+        <v>60</v>
+      </c>
+      <c r="S250">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
         <v>224</v>
-      </c>
-      <c r="P250" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q250">
-        <v>0</v>
-      </c>
-      <c r="R250" t="s">
-        <v>61</v>
-      </c>
-      <c r="T250">
-        <v>0.83666002653407556</v>
-      </c>
-    </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>225</v>
       </c>
       <c r="B251">
         <v>1.29248339620955E-6</v>
       </c>
       <c r="C251" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E251" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F251" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G251" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H251" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I251">
         <v>2</v>
@@ -8316,48 +7992,45 @@
         <v>0.43127717305695651</v>
       </c>
       <c r="M251" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N251" t="s">
+        <v>226</v>
+      </c>
+      <c r="O251" t="s">
         <v>371</v>
       </c>
-      <c r="O251" t="s">
+      <c r="P251">
+        <v>0</v>
+      </c>
+      <c r="Q251" t="s">
+        <v>60</v>
+      </c>
+      <c r="S251">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
         <v>227</v>
-      </c>
-      <c r="P251" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q251">
-        <v>0</v>
-      </c>
-      <c r="R251" t="s">
-        <v>61</v>
-      </c>
-      <c r="T251">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
-        <v>228</v>
       </c>
       <c r="B252">
         <v>1.3355661760832099E-14</v>
       </c>
       <c r="C252" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E252" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F252" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G252" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H252" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I252">
         <v>2</v>
@@ -8369,48 +8042,45 @@
         <v>0.66783231428255996</v>
       </c>
       <c r="M252" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N252" t="s">
+        <v>229</v>
+      </c>
+      <c r="O252" t="s">
         <v>371</v>
       </c>
-      <c r="O252" t="s">
+      <c r="P252">
+        <v>0</v>
+      </c>
+      <c r="Q252" t="s">
+        <v>60</v>
+      </c>
+      <c r="S252">
+        <v>0.59160797830996159</v>
+      </c>
+    </row>
+    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
         <v>230</v>
-      </c>
-      <c r="P252" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q252">
-        <v>0</v>
-      </c>
-      <c r="R252" t="s">
-        <v>61</v>
-      </c>
-      <c r="T252">
-        <v>0.59160797830996159</v>
-      </c>
-    </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>231</v>
       </c>
       <c r="B253">
         <v>2.15413899368259E-8</v>
       </c>
       <c r="C253" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E253" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F253" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G253" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H253" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I253">
         <v>2</v>
@@ -8422,48 +8092,45 @@
         <v>0.43127717305695651</v>
       </c>
       <c r="M253" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N253" t="s">
+        <v>232</v>
+      </c>
+      <c r="O253" t="s">
         <v>371</v>
       </c>
-      <c r="O253" t="s">
+      <c r="P253">
+        <v>0</v>
+      </c>
+      <c r="Q253" t="s">
+        <v>60</v>
+      </c>
+      <c r="S253">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
         <v>233</v>
-      </c>
-      <c r="P253" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q253">
-        <v>0</v>
-      </c>
-      <c r="R253" t="s">
-        <v>61</v>
-      </c>
-      <c r="T253">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>234</v>
       </c>
       <c r="B254">
         <v>5.6007613835747299E-8</v>
       </c>
       <c r="C254" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E254" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F254" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G254" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H254" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I254">
         <v>2</v>
@@ -8475,45 +8142,42 @@
         <v>0.43127717305695651</v>
       </c>
       <c r="M254" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N254" t="s">
+        <v>235</v>
+      </c>
+      <c r="O254" t="s">
         <v>371</v>
       </c>
-      <c r="O254" t="s">
+      <c r="P254">
+        <v>0</v>
+      </c>
+      <c r="Q254" t="s">
+        <v>60</v>
+      </c>
+      <c r="S254">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
         <v>236</v>
-      </c>
-      <c r="P254" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q254">
-        <v>0</v>
-      </c>
-      <c r="R254" t="s">
-        <v>61</v>
-      </c>
-      <c r="T254">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>237</v>
       </c>
       <c r="B255">
         <v>3.9205329685023098E-7</v>
       </c>
       <c r="C255" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E255" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F255" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G255" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I255">
         <v>2</v>
@@ -8525,45 +8189,42 @@
         <v>0.43127717305695651</v>
       </c>
       <c r="M255" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N255" t="s">
+        <v>237</v>
+      </c>
+      <c r="O255" t="s">
         <v>371</v>
       </c>
-      <c r="O255" t="s">
+      <c r="P255">
+        <v>0</v>
+      </c>
+      <c r="Q255" t="s">
+        <v>60</v>
+      </c>
+      <c r="S255">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
         <v>238</v>
-      </c>
-      <c r="P255" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q255">
-        <v>0</v>
-      </c>
-      <c r="R255" t="s">
-        <v>61</v>
-      </c>
-      <c r="T255">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>239</v>
       </c>
       <c r="B256">
         <v>1.3355661760832101E-6</v>
       </c>
       <c r="C256" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E256" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F256" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G256" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I256">
         <v>2</v>
@@ -8575,48 +8236,45 @@
         <v>0.43127717305695651</v>
       </c>
       <c r="M256" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N256" t="s">
+        <v>239</v>
+      </c>
+      <c r="O256" t="s">
         <v>371</v>
       </c>
-      <c r="O256" t="s">
+      <c r="P256">
+        <v>0</v>
+      </c>
+      <c r="Q256" t="s">
+        <v>60</v>
+      </c>
+      <c r="S256">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
         <v>240</v>
-      </c>
-      <c r="P256" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q256">
-        <v>0</v>
-      </c>
-      <c r="R256" t="s">
-        <v>61</v>
-      </c>
-      <c r="T256">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>241</v>
       </c>
       <c r="B257">
         <v>1.0770694968413E-8</v>
       </c>
       <c r="C257" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E257" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F257" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G257" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H257" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I257">
         <v>2</v>
@@ -8628,48 +8286,45 @@
         <v>0.89218832092781852</v>
       </c>
       <c r="M257" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N257" t="s">
+        <v>242</v>
+      </c>
+      <c r="O257" t="s">
         <v>371</v>
       </c>
-      <c r="O257" t="s">
+      <c r="P257">
+        <v>0</v>
+      </c>
+      <c r="Q257" t="s">
+        <v>60</v>
+      </c>
+      <c r="S257">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
         <v>243</v>
-      </c>
-      <c r="P257" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q257">
-        <v>0</v>
-      </c>
-      <c r="R257" t="s">
-        <v>61</v>
-      </c>
-      <c r="T257">
-        <v>0.83666002653407556</v>
-      </c>
-    </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>244</v>
       </c>
       <c r="B258">
         <v>1.5509800754514599E-7</v>
       </c>
       <c r="C258" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E258" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F258" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G258" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H258" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I258">
         <v>2</v>
@@ -8681,48 +8336,45 @@
         <v>0.89218832092781852</v>
       </c>
       <c r="M258" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N258" t="s">
+        <v>245</v>
+      </c>
+      <c r="O258" t="s">
         <v>371</v>
       </c>
-      <c r="O258" t="s">
+      <c r="P258">
+        <v>0</v>
+      </c>
+      <c r="Q258" t="s">
+        <v>60</v>
+      </c>
+      <c r="S258">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="259" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
         <v>246</v>
-      </c>
-      <c r="P258" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q258">
-        <v>0</v>
-      </c>
-      <c r="R258" t="s">
-        <v>61</v>
-      </c>
-      <c r="T258">
-        <v>0.83666002653407556</v>
-      </c>
-    </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>247</v>
       </c>
       <c r="B259">
         <v>7.3240725785208101E-8</v>
       </c>
       <c r="C259" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E259" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F259" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G259" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H259" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I259">
         <v>2</v>
@@ -8734,48 +8386,45 @@
         <v>0.89218832092781852</v>
       </c>
       <c r="M259" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N259" t="s">
+        <v>248</v>
+      </c>
+      <c r="O259" t="s">
         <v>371</v>
       </c>
-      <c r="O259" t="s">
+      <c r="P259">
+        <v>0</v>
+      </c>
+      <c r="Q259" t="s">
+        <v>60</v>
+      </c>
+      <c r="S259">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
         <v>249</v>
-      </c>
-      <c r="P259" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q259">
-        <v>0</v>
-      </c>
-      <c r="R259" t="s">
-        <v>61</v>
-      </c>
-      <c r="T259">
-        <v>0.83666002653407556</v>
-      </c>
-    </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>250</v>
       </c>
       <c r="B260">
         <v>1.29248339620955E-10</v>
       </c>
       <c r="C260" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E260" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F260" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G260" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H260" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I260">
         <v>2</v>
@@ -8787,48 +8436,45 @@
         <v>0.89218832092781852</v>
       </c>
       <c r="M260" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N260" t="s">
+        <v>251</v>
+      </c>
+      <c r="O260" t="s">
         <v>371</v>
       </c>
-      <c r="O260" t="s">
+      <c r="P260">
+        <v>0</v>
+      </c>
+      <c r="Q260" t="s">
+        <v>60</v>
+      </c>
+      <c r="S260">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="261" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
         <v>252</v>
-      </c>
-      <c r="P260" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q260">
-        <v>0</v>
-      </c>
-      <c r="R260" t="s">
-        <v>61</v>
-      </c>
-      <c r="T260">
-        <v>0.83666002653407556</v>
-      </c>
-    </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>253</v>
       </c>
       <c r="B261">
         <v>1.7233111949460699E-7</v>
       </c>
       <c r="C261" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E261" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F261" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G261" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H261" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I261">
         <v>2</v>
@@ -8840,45 +8486,42 @@
         <v>0.43127717305695651</v>
       </c>
       <c r="M261" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N261" t="s">
+        <v>254</v>
+      </c>
+      <c r="O261" t="s">
         <v>371</v>
       </c>
-      <c r="O261" t="s">
+      <c r="P261">
+        <v>0</v>
+      </c>
+      <c r="Q261" t="s">
+        <v>60</v>
+      </c>
+      <c r="S261">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
         <v>255</v>
-      </c>
-      <c r="P261" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q261">
-        <v>0</v>
-      </c>
-      <c r="R261" t="s">
-        <v>61</v>
-      </c>
-      <c r="T261">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>256</v>
       </c>
       <c r="B262">
         <v>9.9090393709399196E-7</v>
       </c>
       <c r="C262" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E262" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F262" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G262" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I262">
         <v>2</v>
@@ -8890,48 +8533,45 @@
         <v>0.43127717305695651</v>
       </c>
       <c r="M262" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N262" t="s">
+        <v>256</v>
+      </c>
+      <c r="O262" t="s">
         <v>371</v>
       </c>
-      <c r="O262" t="s">
+      <c r="P262">
+        <v>0</v>
+      </c>
+      <c r="Q262" t="s">
+        <v>60</v>
+      </c>
+      <c r="S262">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
         <v>257</v>
-      </c>
-      <c r="P262" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q262">
-        <v>0</v>
-      </c>
-      <c r="R262" t="s">
-        <v>61</v>
-      </c>
-      <c r="T262">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>258</v>
       </c>
       <c r="B263">
         <v>2.58496679241911E-9</v>
       </c>
       <c r="C263" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E263" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F263" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G263" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H263" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I263">
         <v>2</v>
@@ -8943,48 +8583,45 @@
         <v>0.89218832092781852</v>
       </c>
       <c r="M263" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N263" t="s">
+        <v>259</v>
+      </c>
+      <c r="O263" t="s">
         <v>371</v>
       </c>
-      <c r="O263" t="s">
+      <c r="P263">
+        <v>0</v>
+      </c>
+      <c r="Q263" t="s">
+        <v>60</v>
+      </c>
+      <c r="S263">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="264" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
         <v>260</v>
-      </c>
-      <c r="P263" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q263">
-        <v>0</v>
-      </c>
-      <c r="R263" t="s">
-        <v>61</v>
-      </c>
-      <c r="T263">
-        <v>0.83666002653407556</v>
-      </c>
-    </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>261</v>
       </c>
       <c r="B264">
         <v>3.01579459115563E-5</v>
       </c>
       <c r="C264" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E264" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F264" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G264" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H264" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I264">
         <v>2</v>
@@ -8996,45 +8633,42 @@
         <v>0.40323690307311899</v>
       </c>
       <c r="M264" t="s">
-        <v>61</v>
+        <v>374</v>
       </c>
       <c r="N264" t="s">
+        <v>262</v>
+      </c>
+      <c r="O264" t="s">
         <v>375</v>
       </c>
-      <c r="O264" t="s">
+      <c r="P264">
+        <v>0</v>
+      </c>
+      <c r="Q264" t="s">
+        <v>60</v>
+      </c>
+      <c r="S264">
+        <v>0.28284271247461901</v>
+      </c>
+    </row>
+    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
         <v>263</v>
-      </c>
-      <c r="P264" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q264">
-        <v>0</v>
-      </c>
-      <c r="R264" t="s">
-        <v>61</v>
-      </c>
-      <c r="T264">
-        <v>0.28284271247461901</v>
-      </c>
-    </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>264</v>
       </c>
       <c r="B265">
         <v>4.7821885659753499E-9</v>
       </c>
       <c r="C265" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E265" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F265" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G265" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I265">
         <v>2</v>
@@ -9046,45 +8680,42 @@
         <v>0.66783231428255996</v>
       </c>
       <c r="M265" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N265" t="s">
+        <v>264</v>
+      </c>
+      <c r="O265" t="s">
         <v>371</v>
       </c>
-      <c r="O265" t="s">
+      <c r="P265">
+        <v>0</v>
+      </c>
+      <c r="Q265" t="s">
+        <v>60</v>
+      </c>
+      <c r="S265">
+        <v>0.59160797830996159</v>
+      </c>
+    </row>
+    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
         <v>265</v>
-      </c>
-      <c r="P265" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q265">
-        <v>0</v>
-      </c>
-      <c r="R265" t="s">
-        <v>61</v>
-      </c>
-      <c r="T265">
-        <v>0.59160797830996159</v>
-      </c>
-    </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>266</v>
       </c>
       <c r="B266">
         <v>4.3082779873651802E-6</v>
       </c>
       <c r="C266" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E266" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F266" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G266" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I266">
         <v>2</v>
@@ -9096,48 +8727,45 @@
         <v>0.66332495807107994</v>
       </c>
       <c r="M266" t="s">
-        <v>61</v>
+        <v>376</v>
       </c>
       <c r="N266" t="s">
+        <v>266</v>
+      </c>
+      <c r="O266" t="s">
         <v>377</v>
       </c>
-      <c r="O266" t="s">
+      <c r="P266">
+        <v>0</v>
+      </c>
+      <c r="Q266" t="s">
+        <v>60</v>
+      </c>
+      <c r="S266">
+        <v>0.59160797830996159</v>
+      </c>
+    </row>
+    <row r="267" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
         <v>267</v>
-      </c>
-      <c r="P266" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q266">
-        <v>0</v>
-      </c>
-      <c r="R266" t="s">
-        <v>61</v>
-      </c>
-      <c r="T266">
-        <v>0.59160797830996159</v>
-      </c>
-    </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>268</v>
       </c>
       <c r="B267">
         <v>3.4897051697657999E-12</v>
       </c>
       <c r="C267" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E267" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F267" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G267" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H267" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I267">
         <v>2</v>
@@ -9149,48 +8777,45 @@
         <v>0.43127717305695651</v>
       </c>
       <c r="M267" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N267" t="s">
+        <v>269</v>
+      </c>
+      <c r="O267" t="s">
         <v>371</v>
       </c>
-      <c r="O267" t="s">
+      <c r="P267">
+        <v>0</v>
+      </c>
+      <c r="Q267" t="s">
+        <v>60</v>
+      </c>
+      <c r="S267">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
         <v>270</v>
-      </c>
-      <c r="P267" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q267">
-        <v>0</v>
-      </c>
-      <c r="R267" t="s">
-        <v>61</v>
-      </c>
-      <c r="T267">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>271</v>
       </c>
       <c r="B268">
         <v>1.2924833962095499E-7</v>
       </c>
       <c r="C268" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E268" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F268" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G268" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H268" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I268">
         <v>2</v>
@@ -9202,48 +8827,45 @@
         <v>0.43127717305695651</v>
       </c>
       <c r="M268" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N268" t="s">
+        <v>272</v>
+      </c>
+      <c r="O268" t="s">
         <v>371</v>
       </c>
-      <c r="O268" t="s">
+      <c r="P268">
+        <v>0</v>
+      </c>
+      <c r="Q268" t="s">
+        <v>60</v>
+      </c>
+      <c r="S268">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
         <v>273</v>
-      </c>
-      <c r="P268" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q268">
-        <v>0</v>
-      </c>
-      <c r="R268" t="s">
-        <v>61</v>
-      </c>
-      <c r="T268">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
-        <v>274</v>
       </c>
       <c r="B269">
         <v>1.00813704904345E-5</v>
       </c>
       <c r="C269" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E269" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F269" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G269" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H269" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I269">
         <v>2</v>
@@ -9255,48 +8877,45 @@
         <v>0.89218832092781852</v>
       </c>
       <c r="M269" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N269" t="s">
+        <v>275</v>
+      </c>
+      <c r="O269" t="s">
         <v>371</v>
       </c>
-      <c r="O269" t="s">
+      <c r="P269">
+        <v>0</v>
+      </c>
+      <c r="Q269" t="s">
+        <v>60</v>
+      </c>
+      <c r="S269">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="270" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
         <v>276</v>
-      </c>
-      <c r="P269" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q269">
-        <v>0</v>
-      </c>
-      <c r="R269" t="s">
-        <v>61</v>
-      </c>
-      <c r="T269">
-        <v>0.83666002653407556</v>
-      </c>
-    </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
-        <v>277</v>
       </c>
       <c r="B270">
         <v>5.6007613835747405E-7</v>
       </c>
       <c r="C270" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E270" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F270" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G270" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H270" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I270">
         <v>2</v>
@@ -9308,48 +8927,45 @@
         <v>0.89218832092781852</v>
       </c>
       <c r="M270" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N270" t="s">
+        <v>278</v>
+      </c>
+      <c r="O270" t="s">
         <v>371</v>
       </c>
-      <c r="O270" t="s">
+      <c r="P270">
+        <v>0</v>
+      </c>
+      <c r="Q270" t="s">
+        <v>60</v>
+      </c>
+      <c r="S270">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
         <v>279</v>
-      </c>
-      <c r="P270" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q270">
-        <v>0</v>
-      </c>
-      <c r="R270" t="s">
-        <v>61</v>
-      </c>
-      <c r="T270">
-        <v>0.83666002653407556</v>
-      </c>
-    </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
-        <v>280</v>
       </c>
       <c r="B271">
         <v>1.0770694968412999E-6</v>
       </c>
       <c r="C271" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E271" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F271" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G271" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H271" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I271">
         <v>2</v>
@@ -9361,48 +8977,45 @@
         <v>0.382099463490856</v>
       </c>
       <c r="M271" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N271" t="s">
+        <v>281</v>
+      </c>
+      <c r="O271" t="s">
         <v>371</v>
       </c>
-      <c r="O271" t="s">
+      <c r="P271">
+        <v>0</v>
+      </c>
+      <c r="Q271" t="s">
+        <v>60</v>
+      </c>
+      <c r="S271">
+        <v>0.22360679774997899</v>
+      </c>
+    </row>
+    <row r="272" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
         <v>282</v>
-      </c>
-      <c r="P271" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q271">
-        <v>0</v>
-      </c>
-      <c r="R271" t="s">
-        <v>61</v>
-      </c>
-      <c r="T271">
-        <v>0.22360679774997899</v>
-      </c>
-    </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
-        <v>283</v>
       </c>
       <c r="B272">
         <v>1.2924833962095499E-7</v>
       </c>
       <c r="C272" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E272" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F272" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G272" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H272" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I272">
         <v>2</v>
@@ -9414,48 +9027,45 @@
         <v>0.43127717305695651</v>
       </c>
       <c r="M272" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N272" t="s">
+        <v>284</v>
+      </c>
+      <c r="O272" t="s">
         <v>371</v>
       </c>
-      <c r="O272" t="s">
-        <v>285</v>
-      </c>
-      <c r="P272" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q272">
-        <v>0</v>
-      </c>
-      <c r="R272" t="s">
-        <v>61</v>
-      </c>
-      <c r="T272">
+      <c r="P272">
+        <v>0</v>
+      </c>
+      <c r="Q272" t="s">
+        <v>60</v>
+      </c>
+      <c r="S272">
         <v>0.3</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B273">
         <v>1.2924833962095499E-7</v>
       </c>
       <c r="C273" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E273" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F273" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G273" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H273" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I273">
         <v>2</v>
@@ -9467,48 +9077,45 @@
         <v>0.89218832092781852</v>
       </c>
       <c r="M273" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N273" t="s">
+        <v>290</v>
+      </c>
+      <c r="O273" t="s">
         <v>371</v>
       </c>
-      <c r="O273" t="s">
+      <c r="P273">
+        <v>0</v>
+      </c>
+      <c r="Q273" t="s">
+        <v>60</v>
+      </c>
+      <c r="S273">
+        <v>0.83666002653407556</v>
+      </c>
+    </row>
+    <row r="274" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
         <v>291</v>
-      </c>
-      <c r="P273" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q273">
-        <v>0</v>
-      </c>
-      <c r="R273" t="s">
-        <v>61</v>
-      </c>
-      <c r="T273">
-        <v>0.83666002653407556</v>
-      </c>
-    </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
-        <v>292</v>
       </c>
       <c r="B274">
         <v>5.1699335848382201E-8</v>
       </c>
       <c r="C274" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E274" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F274" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G274" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H274" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I274">
         <v>2</v>
@@ -9520,28 +9127,25 @@
         <v>0.43127717305695651</v>
       </c>
       <c r="M274" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="N274" t="s">
+        <v>292</v>
+      </c>
+      <c r="O274" t="s">
         <v>371</v>
       </c>
-      <c r="O274" t="s">
-        <v>293</v>
-      </c>
-      <c r="P274" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q274">
-        <v>0</v>
-      </c>
-      <c r="R274" t="s">
-        <v>61</v>
-      </c>
-      <c r="T274">
+      <c r="P274">
+        <v>0</v>
+      </c>
+      <c r="Q274" t="s">
+        <v>60</v>
+      </c>
+      <c r="S274">
         <v>0.3</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>32</v>
       </c>
@@ -9567,33 +9171,30 @@
         <v>1</v>
       </c>
       <c r="L275" t="s">
+        <v>378</v>
+      </c>
+      <c r="N275" t="s">
+        <v>369</v>
+      </c>
+      <c r="P275">
+        <v>0</v>
+      </c>
+      <c r="Q275" t="s">
+        <v>60</v>
+      </c>
+      <c r="R275" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="276" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
         <v>379</v>
-      </c>
-      <c r="M275" t="s">
-        <v>61</v>
-      </c>
-      <c r="O275" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q275">
-        <v>0</v>
-      </c>
-      <c r="R275" t="s">
-        <v>61</v>
-      </c>
-      <c r="S275" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>380</v>
       </c>
       <c r="B276">
         <v>2.3954025609750399E-6</v>
       </c>
       <c r="C276" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D276" t="s">
         <v>21</v>
@@ -9614,10 +9215,10 @@
         <v>0.59497899122574061</v>
       </c>
       <c r="L276" t="s">
+        <v>380</v>
+      </c>
+      <c r="M276" t="s">
         <v>381</v>
-      </c>
-      <c r="M276" t="s">
-        <v>61</v>
       </c>
       <c r="N276" t="s">
         <v>382</v>
@@ -9625,31 +9226,28 @@
       <c r="O276" t="s">
         <v>383</v>
       </c>
-      <c r="P276" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q276">
-        <v>0</v>
+      <c r="P276">
+        <v>0</v>
+      </c>
+      <c r="Q276" t="s">
+        <v>60</v>
       </c>
       <c r="R276" t="s">
-        <v>61</v>
-      </c>
-      <c r="S276" t="s">
-        <v>380</v>
-      </c>
-      <c r="T276">
+        <v>379</v>
+      </c>
+      <c r="S276">
         <v>0.55677643628300222</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B277">
         <v>5.7730925030693395E-4</v>
       </c>
       <c r="C277" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D277" t="s">
         <v>21</v>
@@ -9670,48 +9268,45 @@
         <v>0.232379000772445</v>
       </c>
       <c r="L277" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M277" t="s">
-        <v>61</v>
+        <v>384</v>
       </c>
       <c r="N277" t="s">
-        <v>385</v>
+        <v>117</v>
       </c>
       <c r="O277" t="s">
-        <v>118</v>
-      </c>
-      <c r="P277" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q277">
-        <v>0</v>
+        <v>383</v>
+      </c>
+      <c r="P277">
+        <v>0</v>
+      </c>
+      <c r="Q277" t="s">
+        <v>60</v>
       </c>
       <c r="R277" t="s">
-        <v>61</v>
-      </c>
-      <c r="S277" t="s">
         <v>22</v>
       </c>
-      <c r="T277">
+      <c r="S277">
         <v>0.1</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B278">
         <v>-1.14600194463914E-4</v>
       </c>
       <c r="C278" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D278" t="s">
         <v>21</v>
       </c>
       <c r="E278" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G278" t="s">
         <v>19</v>
@@ -9726,48 +9321,45 @@
         <v>0.33256578296631778</v>
       </c>
       <c r="L278" t="s">
+        <v>341</v>
+      </c>
+      <c r="M278" t="s">
+        <v>385</v>
+      </c>
+      <c r="N278" t="s">
         <v>342</v>
       </c>
-      <c r="M278" t="s">
-        <v>61</v>
-      </c>
-      <c r="N278" t="s">
+      <c r="O278" t="s">
         <v>386</v>
       </c>
-      <c r="O278" t="s">
+      <c r="P278">
+        <v>0</v>
+      </c>
+      <c r="Q278" t="s">
+        <v>60</v>
+      </c>
+      <c r="R278" t="s">
         <v>343</v>
       </c>
-      <c r="P278" t="s">
+      <c r="S278">
+        <v>0.1414213562373095</v>
+      </c>
+    </row>
+    <row r="279" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
         <v>387</v>
-      </c>
-      <c r="Q278">
-        <v>0</v>
-      </c>
-      <c r="R278" t="s">
-        <v>61</v>
-      </c>
-      <c r="S278" t="s">
-        <v>344</v>
-      </c>
-      <c r="T278">
-        <v>0.1414213562373095</v>
-      </c>
-    </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>388</v>
       </c>
       <c r="B279">
         <v>2.2991125479574302E-2</v>
       </c>
       <c r="C279" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D279" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E279" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G279" t="s">
         <v>19</v>
@@ -9782,10 +9374,10 @@
         <v>0.20174241001832011</v>
       </c>
       <c r="L279" t="s">
+        <v>388</v>
+      </c>
+      <c r="M279" t="s">
         <v>389</v>
-      </c>
-      <c r="M279" t="s">
-        <v>61</v>
       </c>
       <c r="N279" t="s">
         <v>390</v>
@@ -9793,31 +9385,28 @@
       <c r="O279" t="s">
         <v>391</v>
       </c>
-      <c r="P279" t="s">
+      <c r="P279">
+        <v>0</v>
+      </c>
+      <c r="Q279" t="s">
+        <v>60</v>
+      </c>
+      <c r="R279" t="s">
         <v>392</v>
       </c>
-      <c r="Q279">
-        <v>0</v>
-      </c>
-      <c r="R279" t="s">
-        <v>61</v>
-      </c>
-      <c r="S279" t="s">
+      <c r="S279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
         <v>393</v>
-      </c>
-      <c r="T279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
-        <v>394</v>
       </c>
       <c r="B280">
         <v>1.7103863609839799E-7</v>
       </c>
       <c r="C280" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D280" t="s">
         <v>21</v>
@@ -9838,42 +9427,39 @@
         <v>0.59497899122574061</v>
       </c>
       <c r="L280" t="s">
+        <v>394</v>
+      </c>
+      <c r="M280" t="s">
         <v>395</v>
-      </c>
-      <c r="M280" t="s">
-        <v>61</v>
       </c>
       <c r="N280" t="s">
         <v>396</v>
       </c>
       <c r="O280" t="s">
+        <v>383</v>
+      </c>
+      <c r="P280">
+        <v>0</v>
+      </c>
+      <c r="Q280" t="s">
+        <v>60</v>
+      </c>
+      <c r="R280" t="s">
         <v>397</v>
       </c>
-      <c r="P280" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q280">
-        <v>0</v>
-      </c>
-      <c r="R280" t="s">
-        <v>61</v>
-      </c>
-      <c r="S280" t="s">
+      <c r="S280">
+        <v>0.55677643628300222</v>
+      </c>
+    </row>
+    <row r="281" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
         <v>398</v>
-      </c>
-      <c r="T280">
-        <v>0.55677643628300222</v>
-      </c>
-    </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
-        <v>399</v>
       </c>
       <c r="B281">
         <v>1.69746152702188E-7</v>
       </c>
       <c r="C281" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D281" t="s">
         <v>21</v>
@@ -9894,10 +9480,10 @@
         <v>0.59262129560116217</v>
       </c>
       <c r="L281" t="s">
+        <v>399</v>
+      </c>
+      <c r="M281" t="s">
         <v>400</v>
-      </c>
-      <c r="M281" t="s">
-        <v>61</v>
       </c>
       <c r="N281" t="s">
         <v>401</v>
@@ -9905,19 +9491,16 @@
       <c r="O281" t="s">
         <v>402</v>
       </c>
-      <c r="P281" t="s">
+      <c r="P281">
+        <v>0</v>
+      </c>
+      <c r="Q281" t="s">
+        <v>60</v>
+      </c>
+      <c r="R281" t="s">
         <v>403</v>
       </c>
-      <c r="Q281">
-        <v>0</v>
-      </c>
-      <c r="R281" t="s">
-        <v>61</v>
-      </c>
-      <c r="S281" t="s">
-        <v>404</v>
-      </c>
-      <c r="T281">
+      <c r="S281">
         <v>0.55677643628300222</v>
       </c>
     </row>

--- a/data/inputs/foreground.xlsx
+++ b/data/inputs/foreground.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="405">
   <si>
     <t>Database</t>
   </si>
@@ -1656,10 +1656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S281"/>
+  <dimension ref="A1:T281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M111" sqref="M111"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2236,7 +2236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>43</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>45</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -2370,12 +2370,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -2425,16 +2425,13 @@
         <v>53</v>
       </c>
       <c r="Q64" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="R64" t="s">
-        <v>8</v>
-      </c>
-      <c r="S64" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>56</v>
       </c>
@@ -2471,11 +2468,8 @@
       <c r="P65">
         <v>0</v>
       </c>
-      <c r="Q65" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2515,14 +2509,11 @@
       <c r="P66">
         <v>0</v>
       </c>
-      <c r="Q66" t="s">
-        <v>60</v>
-      </c>
-      <c r="S66">
+      <c r="R66">
         <v>0.2</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2565,14 +2556,11 @@
       <c r="P67">
         <v>0</v>
       </c>
-      <c r="Q67" t="s">
-        <v>60</v>
-      </c>
-      <c r="S67">
+      <c r="R67">
         <v>0.34641016151377552</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -2615,14 +2603,11 @@
       <c r="P68">
         <v>0</v>
       </c>
-      <c r="Q68" t="s">
-        <v>60</v>
-      </c>
-      <c r="S68">
+      <c r="R68">
         <v>0.34641016151377552</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -2665,14 +2650,11 @@
       <c r="P69">
         <v>0</v>
       </c>
-      <c r="Q69" t="s">
-        <v>60</v>
-      </c>
-      <c r="S69">
+      <c r="R69">
         <v>0.34641016151377552</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -2715,14 +2697,11 @@
       <c r="P70">
         <v>0</v>
       </c>
-      <c r="Q70" t="s">
-        <v>60</v>
-      </c>
-      <c r="S70">
+      <c r="R70">
         <v>0.34641016151377552</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -2765,14 +2744,11 @@
       <c r="P71">
         <v>0</v>
       </c>
-      <c r="Q71" t="s">
-        <v>60</v>
-      </c>
-      <c r="S71">
+      <c r="R71">
         <v>0.2</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -2815,14 +2791,11 @@
       <c r="P72">
         <v>0</v>
       </c>
-      <c r="Q72" t="s">
-        <v>60</v>
-      </c>
-      <c r="S72">
+      <c r="R72">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -2857,13 +2830,10 @@
         <v>10347150000</v>
       </c>
       <c r="Q73" t="s">
-        <v>60</v>
-      </c>
-      <c r="R73" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>96</v>
       </c>
@@ -2907,16 +2877,13 @@
         <v>0</v>
       </c>
       <c r="Q74" t="s">
-        <v>60</v>
-      </c>
-      <c r="R74" t="s">
         <v>100</v>
       </c>
-      <c r="S74">
+      <c r="R74">
         <v>0.2</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>101</v>
       </c>
@@ -2960,16 +2927,13 @@
         <v>0</v>
       </c>
       <c r="Q75" t="s">
-        <v>60</v>
-      </c>
-      <c r="R75" t="s">
         <v>108</v>
       </c>
-      <c r="S75">
+      <c r="R75">
         <v>0.3</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>109</v>
       </c>
@@ -3013,16 +2977,13 @@
         <v>78224.453999999998</v>
       </c>
       <c r="Q76" t="s">
-        <v>60</v>
-      </c>
-      <c r="R76" t="s">
         <v>113</v>
       </c>
-      <c r="S76">
+      <c r="R76">
         <v>0.3</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>2</v>
       </c>
@@ -3030,7 +2991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>36</v>
       </c>
@@ -3038,7 +2999,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -3046,7 +3007,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>39</v>
       </c>
@@ -3054,7 +3015,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -3062,7 +3023,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>43</v>
       </c>
@@ -3070,7 +3031,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -3078,7 +3039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>45</v>
       </c>
@@ -3086,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -3094,7 +3055,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -3102,7 +3063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -3110,12 +3071,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -3164,17 +3125,17 @@
       <c r="P90" t="s">
         <v>53</v>
       </c>
-      <c r="Q90" t="s">
+      <c r="R90" t="s">
         <v>54</v>
       </c>
-      <c r="R90" t="s">
+      <c r="S90" t="s">
         <v>8</v>
       </c>
-      <c r="S90" t="s">
+      <c r="T90" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>118</v>
       </c>
@@ -3214,14 +3175,14 @@
       <c r="P91">
         <v>0</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="R91" t="s">
         <v>60</v>
       </c>
-      <c r="S91">
+      <c r="T91">
         <v>3.4415326929727111E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>84</v>
       </c>
@@ -3264,14 +3225,14 @@
       <c r="P92">
         <v>0</v>
       </c>
-      <c r="Q92" t="s">
+      <c r="R92" t="s">
         <v>60</v>
       </c>
-      <c r="S92">
+      <c r="T92">
         <v>0.2</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -3305,14 +3266,14 @@
       <c r="P93">
         <v>0</v>
       </c>
-      <c r="Q93" t="s">
+      <c r="R93" t="s">
         <v>60</v>
       </c>
-      <c r="R93" t="s">
+      <c r="S93" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>128</v>
       </c>
@@ -3355,17 +3316,17 @@
       <c r="P94">
         <v>0</v>
       </c>
-      <c r="Q94" t="s">
+      <c r="R94" t="s">
         <v>60</v>
       </c>
-      <c r="R94" t="s">
+      <c r="S94" t="s">
         <v>133</v>
       </c>
-      <c r="S94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>134</v>
       </c>
@@ -3408,17 +3369,17 @@
       <c r="P95">
         <v>0</v>
       </c>
-      <c r="Q95" t="s">
+      <c r="R95" t="s">
         <v>60</v>
       </c>
-      <c r="R95" t="s">
+      <c r="S95" t="s">
         <v>138</v>
       </c>
-      <c r="S95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>139</v>
       </c>
@@ -3461,17 +3422,17 @@
       <c r="P96">
         <v>0</v>
       </c>
-      <c r="Q96" t="s">
+      <c r="R96" t="s">
         <v>60</v>
       </c>
-      <c r="R96" t="s">
+      <c r="S96" t="s">
         <v>139</v>
       </c>
-      <c r="S96">
+      <c r="T96">
         <v>0.1</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
@@ -3479,7 +3440,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>36</v>
       </c>
@@ -3487,7 +3448,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -3495,7 +3456,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>39</v>
       </c>
@@ -3503,7 +3464,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>41</v>
       </c>
@@ -3511,7 +3472,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>43</v>
       </c>
@@ -3519,7 +3480,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -3527,7 +3488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>45</v>
       </c>
@@ -3535,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -3543,7 +3504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -3551,7 +3512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -3559,12 +3520,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -3611,16 +3572,13 @@
         <v>53</v>
       </c>
       <c r="P110" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="Q110" t="s">
-        <v>8</v>
-      </c>
-      <c r="R110" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>148</v>
       </c>
@@ -3654,11 +3612,8 @@
       <c r="O111">
         <v>0</v>
       </c>
-      <c r="P111" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>144</v>
       </c>
@@ -3693,13 +3648,10 @@
         <v>686107.42200000002</v>
       </c>
       <c r="P112" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q112" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>101</v>
       </c>
@@ -3743,16 +3695,13 @@
         <v>0</v>
       </c>
       <c r="P113" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q113" t="s">
         <v>108</v>
       </c>
-      <c r="R113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>152</v>
       </c>
@@ -3793,13 +3742,10 @@
         <v>0</v>
       </c>
       <c r="P114" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q114" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>109</v>
       </c>
@@ -3843,16 +3789,13 @@
         <v>32.037247390909101</v>
       </c>
       <c r="P115" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q115" t="s">
         <v>113</v>
       </c>
-      <c r="R115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>159</v>
       </c>
@@ -3896,16 +3839,13 @@
         <v>0</v>
       </c>
       <c r="P116" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q116" t="s">
         <v>164</v>
       </c>
-      <c r="R116">
+      <c r="Q116">
         <v>0.13038404810405299</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>165</v>
       </c>
@@ -3949,16 +3889,13 @@
         <v>0</v>
       </c>
       <c r="P117" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q117" t="s">
         <v>168</v>
       </c>
-      <c r="R117">
+      <c r="Q117">
         <v>0.13038404810405299</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>2</v>
       </c>
@@ -3966,7 +3903,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>36</v>
       </c>
@@ -3974,7 +3911,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -3982,7 +3919,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>39</v>
       </c>
@@ -3990,7 +3927,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>41</v>
       </c>
@@ -3998,7 +3935,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>43</v>
       </c>
@@ -4006,7 +3943,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -4014,7 +3951,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>45</v>
       </c>
@@ -4022,7 +3959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -4030,7 +3967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -4038,7 +3975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -4046,12 +3983,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>14</v>
       </c>
@@ -4095,13 +4032,10 @@
         <v>53</v>
       </c>
       <c r="O131" t="s">
-        <v>54</v>
-      </c>
-      <c r="P131" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>173</v>
       </c>
@@ -4138,11 +4072,8 @@
       <c r="N132">
         <v>0</v>
       </c>
-      <c r="O132" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>178</v>
       </c>
@@ -4179,11 +4110,8 @@
       <c r="N133">
         <v>0</v>
       </c>
-      <c r="O133" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>181</v>
       </c>
@@ -4220,11 +4148,8 @@
       <c r="N134">
         <v>0</v>
       </c>
-      <c r="O134" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>184</v>
       </c>
@@ -4261,11 +4186,8 @@
       <c r="N135">
         <v>0</v>
       </c>
-      <c r="O135" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>187</v>
       </c>
@@ -4302,11 +4224,8 @@
       <c r="N136">
         <v>0</v>
       </c>
-      <c r="O136" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>190</v>
       </c>
@@ -4343,11 +4262,8 @@
       <c r="N137">
         <v>0</v>
       </c>
-      <c r="O137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>193</v>
       </c>
@@ -4384,11 +4300,8 @@
       <c r="N138">
         <v>0</v>
       </c>
-      <c r="O138" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>196</v>
       </c>
@@ -4425,11 +4338,8 @@
       <c r="N139">
         <v>0</v>
       </c>
-      <c r="O139" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>199</v>
       </c>
@@ -4466,11 +4376,8 @@
       <c r="N140">
         <v>0</v>
       </c>
-      <c r="O140" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>202</v>
       </c>
@@ -4507,11 +4414,8 @@
       <c r="N141">
         <v>0</v>
       </c>
-      <c r="O141" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>205</v>
       </c>
@@ -4548,11 +4452,8 @@
       <c r="N142">
         <v>0</v>
       </c>
-      <c r="O142" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>208</v>
       </c>
@@ -4589,11 +4490,8 @@
       <c r="N143">
         <v>0</v>
       </c>
-      <c r="O143" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>212</v>
       </c>
@@ -4630,11 +4528,8 @@
       <c r="N144">
         <v>0</v>
       </c>
-      <c r="O144" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>215</v>
       </c>
@@ -4671,11 +4566,8 @@
       <c r="N145">
         <v>0</v>
       </c>
-      <c r="O145" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>218</v>
       </c>
@@ -4712,11 +4604,8 @@
       <c r="N146">
         <v>0</v>
       </c>
-      <c r="O146" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>221</v>
       </c>
@@ -4753,11 +4642,8 @@
       <c r="N147">
         <v>0</v>
       </c>
-      <c r="O147" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>224</v>
       </c>
@@ -4794,11 +4680,8 @@
       <c r="N148">
         <v>0</v>
       </c>
-      <c r="O148" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>227</v>
       </c>
@@ -4835,11 +4718,8 @@
       <c r="N149">
         <v>0</v>
       </c>
-      <c r="O149" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>230</v>
       </c>
@@ -4876,11 +4756,8 @@
       <c r="N150">
         <v>0</v>
       </c>
-      <c r="O150" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>233</v>
       </c>
@@ -4917,11 +4794,8 @@
       <c r="N151">
         <v>0</v>
       </c>
-      <c r="O151" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>236</v>
       </c>
@@ -4955,11 +4829,8 @@
       <c r="N152">
         <v>0</v>
       </c>
-      <c r="O152" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>238</v>
       </c>
@@ -4993,11 +4864,8 @@
       <c r="N153">
         <v>0</v>
       </c>
-      <c r="O153" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>240</v>
       </c>
@@ -5034,11 +4902,8 @@
       <c r="N154">
         <v>0</v>
       </c>
-      <c r="O154" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>243</v>
       </c>
@@ -5075,11 +4940,8 @@
       <c r="N155">
         <v>0</v>
       </c>
-      <c r="O155" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>246</v>
       </c>
@@ -5116,11 +4978,8 @@
       <c r="N156">
         <v>0</v>
       </c>
-      <c r="O156" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>249</v>
       </c>
@@ -5157,11 +5016,8 @@
       <c r="N157">
         <v>0</v>
       </c>
-      <c r="O157" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>252</v>
       </c>
@@ -5198,11 +5054,8 @@
       <c r="N158">
         <v>0</v>
       </c>
-      <c r="O158" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>255</v>
       </c>
@@ -5236,11 +5089,8 @@
       <c r="N159">
         <v>0</v>
       </c>
-      <c r="O159" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>257</v>
       </c>
@@ -5277,11 +5127,8 @@
       <c r="N160">
         <v>0</v>
       </c>
-      <c r="O160" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>260</v>
       </c>
@@ -5318,11 +5165,8 @@
       <c r="N161">
         <v>0</v>
       </c>
-      <c r="O161" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>263</v>
       </c>
@@ -5356,11 +5200,8 @@
       <c r="N162">
         <v>0</v>
       </c>
-      <c r="O162" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>265</v>
       </c>
@@ -5394,11 +5235,8 @@
       <c r="N163">
         <v>0</v>
       </c>
-      <c r="O163" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>267</v>
       </c>
@@ -5435,11 +5273,8 @@
       <c r="N164">
         <v>0</v>
       </c>
-      <c r="O164" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>270</v>
       </c>
@@ -5476,11 +5311,8 @@
       <c r="N165">
         <v>0</v>
       </c>
-      <c r="O165" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>273</v>
       </c>
@@ -5517,11 +5349,8 @@
       <c r="N166">
         <v>0</v>
       </c>
-      <c r="O166" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>276</v>
       </c>
@@ -5558,11 +5387,8 @@
       <c r="N167">
         <v>0</v>
       </c>
-      <c r="O167" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>279</v>
       </c>
@@ -5599,11 +5425,8 @@
       <c r="N168">
         <v>0</v>
       </c>
-      <c r="O168" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>282</v>
       </c>
@@ -5640,11 +5463,8 @@
       <c r="N169">
         <v>0</v>
       </c>
-      <c r="O169" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>84</v>
       </c>
@@ -5681,11 +5501,8 @@
       <c r="N170">
         <v>0</v>
       </c>
-      <c r="O170" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>288</v>
       </c>
@@ -5722,11 +5539,8 @@
       <c r="N171">
         <v>0</v>
       </c>
-      <c r="O171" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>291</v>
       </c>
@@ -5763,11 +5577,8 @@
       <c r="N172">
         <v>0</v>
       </c>
-      <c r="O172" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>169</v>
       </c>
@@ -5805,13 +5616,10 @@
         <v>1</v>
       </c>
       <c r="O173" t="s">
-        <v>60</v>
-      </c>
-      <c r="P173" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>295</v>
       </c>
@@ -5849,13 +5657,10 @@
         <v>0</v>
       </c>
       <c r="O174" t="s">
-        <v>60</v>
-      </c>
-      <c r="P174" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>300</v>
       </c>
@@ -5893,13 +5698,10 @@
         <v>0</v>
       </c>
       <c r="O175" t="s">
-        <v>60</v>
-      </c>
-      <c r="P175" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>304</v>
       </c>
@@ -5937,13 +5739,10 @@
         <v>0</v>
       </c>
       <c r="O176" t="s">
-        <v>60</v>
-      </c>
-      <c r="P176" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>308</v>
       </c>
@@ -5981,13 +5780,10 @@
         <v>0</v>
       </c>
       <c r="O177" t="s">
-        <v>60</v>
-      </c>
-      <c r="P177" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>312</v>
       </c>
@@ -6025,13 +5821,10 @@
         <v>0</v>
       </c>
       <c r="O178" t="s">
-        <v>60</v>
-      </c>
-      <c r="P178" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>316</v>
       </c>
@@ -6069,13 +5862,10 @@
         <v>0</v>
       </c>
       <c r="O179" t="s">
-        <v>60</v>
-      </c>
-      <c r="P179" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>320</v>
       </c>
@@ -6113,13 +5903,10 @@
         <v>0</v>
       </c>
       <c r="O180" t="s">
-        <v>60</v>
-      </c>
-      <c r="P180" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>101</v>
       </c>
@@ -6157,13 +5944,10 @@
         <v>0</v>
       </c>
       <c r="O181" t="s">
-        <v>60</v>
-      </c>
-      <c r="P181" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>324</v>
       </c>
@@ -6201,13 +5985,10 @@
         <v>1</v>
       </c>
       <c r="O182" t="s">
-        <v>60</v>
-      </c>
-      <c r="P182" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>328</v>
       </c>
@@ -6245,13 +6026,10 @@
         <v>0</v>
       </c>
       <c r="O183" t="s">
-        <v>60</v>
-      </c>
-      <c r="P183" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>109</v>
       </c>
@@ -6289,13 +6067,10 @@
         <v>1</v>
       </c>
       <c r="O184" t="s">
-        <v>60</v>
-      </c>
-      <c r="P184" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>332</v>
       </c>
@@ -6333,13 +6108,10 @@
         <v>1</v>
       </c>
       <c r="O185" t="s">
-        <v>60</v>
-      </c>
-      <c r="P185" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>336</v>
       </c>
@@ -6377,13 +6149,10 @@
         <v>0</v>
       </c>
       <c r="O186" t="s">
-        <v>60</v>
-      </c>
-      <c r="P186" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>340</v>
       </c>
@@ -6421,13 +6190,10 @@
         <v>1</v>
       </c>
       <c r="O187" t="s">
-        <v>60</v>
-      </c>
-      <c r="P187" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>344</v>
       </c>
@@ -6465,13 +6231,10 @@
         <v>0</v>
       </c>
       <c r="O188" t="s">
-        <v>60</v>
-      </c>
-      <c r="P188" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>2</v>
       </c>
@@ -6479,7 +6242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>36</v>
       </c>
@@ -6487,7 +6250,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -6495,7 +6258,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>39</v>
       </c>
@@ -6503,7 +6266,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>41</v>
       </c>
@@ -6511,7 +6274,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>43</v>
       </c>
@@ -6519,7 +6282,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>6</v>
       </c>
@@ -6527,7 +6290,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>45</v>
       </c>
@@ -6535,7 +6298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -6543,7 +6306,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>9</v>
       </c>
@@ -6551,7 +6314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>11</v>
       </c>
@@ -6559,12 +6322,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="201" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>14</v>
       </c>
@@ -6611,16 +6374,13 @@
         <v>53</v>
       </c>
       <c r="P202" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="Q202" t="s">
-        <v>8</v>
-      </c>
-      <c r="R202" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>118</v>
       </c>
@@ -6660,14 +6420,11 @@
       <c r="O203">
         <v>0</v>
       </c>
-      <c r="P203" t="s">
-        <v>60</v>
-      </c>
-      <c r="R203">
+      <c r="Q203">
         <v>2.4271059712494669E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>30</v>
       </c>
@@ -6705,13 +6462,10 @@
         <v>310098552</v>
       </c>
       <c r="P204" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q204" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>357</v>
       </c>
@@ -6755,16 +6509,13 @@
         <v>0</v>
       </c>
       <c r="P205" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q205" t="s">
         <v>22</v>
       </c>
-      <c r="R205">
+      <c r="Q205">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>361</v>
       </c>
@@ -6808,16 +6559,13 @@
         <v>0</v>
       </c>
       <c r="P206" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q206" t="s">
         <v>364</v>
       </c>
-      <c r="R206">
+      <c r="Q206">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="208" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>2</v>
       </c>
@@ -7032,7 +6780,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>39</v>
       </c>
@@ -7040,7 +6788,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>41</v>
       </c>
@@ -7048,7 +6796,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>43</v>
       </c>
@@ -7056,7 +6804,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>6</v>
       </c>
@@ -7064,7 +6812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>45</v>
       </c>
@@ -7072,7 +6820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>8</v>
       </c>
@@ -7080,7 +6828,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>9</v>
       </c>
@@ -7088,7 +6836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>11</v>
       </c>
@@ -7096,12 +6844,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>14</v>
       </c>
@@ -7151,16 +6899,13 @@
         <v>53</v>
       </c>
       <c r="Q234" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="R234" t="s">
-        <v>8</v>
-      </c>
-      <c r="S234" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>173</v>
       </c>
@@ -7203,14 +6948,11 @@
       <c r="P235">
         <v>0</v>
       </c>
-      <c r="Q235" t="s">
-        <v>60</v>
-      </c>
-      <c r="S235">
+      <c r="R235">
         <v>0.3</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>178</v>
       </c>
@@ -7253,14 +6995,11 @@
       <c r="P236">
         <v>0</v>
       </c>
-      <c r="Q236" t="s">
-        <v>60</v>
-      </c>
-      <c r="S236">
+      <c r="R236">
         <v>0.2449489742783178</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>181</v>
       </c>
@@ -7303,14 +7042,11 @@
       <c r="P237">
         <v>0</v>
       </c>
-      <c r="Q237" t="s">
-        <v>60</v>
-      </c>
-      <c r="S237">
+      <c r="R237">
         <v>0.83666002653407556</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>184</v>
       </c>
@@ -7353,14 +7089,11 @@
       <c r="P238">
         <v>0</v>
       </c>
-      <c r="Q238" t="s">
-        <v>60</v>
-      </c>
-      <c r="S238">
+      <c r="R238">
         <v>0.3</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>187</v>
       </c>
@@ -7403,14 +7136,11 @@
       <c r="P239">
         <v>0</v>
       </c>
-      <c r="Q239" t="s">
-        <v>60</v>
-      </c>
-      <c r="S239">
+      <c r="R239">
         <v>0.3</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>190</v>
       </c>
@@ -7453,14 +7183,11 @@
       <c r="P240">
         <v>0</v>
       </c>
-      <c r="Q240" t="s">
-        <v>60</v>
-      </c>
-      <c r="S240">
+      <c r="R240">
         <v>0.59160797830996159</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>193</v>
       </c>
@@ -7503,14 +7230,11 @@
       <c r="P241">
         <v>0</v>
       </c>
-      <c r="Q241" t="s">
-        <v>60</v>
-      </c>
-      <c r="S241">
+      <c r="R241">
         <v>0.59160797830996159</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>196</v>
       </c>
@@ -7553,14 +7277,11 @@
       <c r="P242">
         <v>0</v>
       </c>
-      <c r="Q242" t="s">
-        <v>60</v>
-      </c>
-      <c r="S242">
+      <c r="R242">
         <v>0.83666002653407556</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>199</v>
       </c>
@@ -7603,14 +7324,11 @@
       <c r="P243">
         <v>0</v>
       </c>
-      <c r="Q243" t="s">
-        <v>60</v>
-      </c>
-      <c r="S243">
+      <c r="R243">
         <v>0.83666002653407556</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>202</v>
       </c>
@@ -7653,14 +7371,11 @@
       <c r="P244">
         <v>0</v>
       </c>
-      <c r="Q244" t="s">
-        <v>60</v>
-      </c>
-      <c r="S244">
+      <c r="R244">
         <v>0.83666002653407556</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>205</v>
       </c>
@@ -7703,14 +7418,11 @@
       <c r="P245">
         <v>0</v>
       </c>
-      <c r="Q245" t="s">
-        <v>60</v>
-      </c>
-      <c r="S245">
+      <c r="R245">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>208</v>
       </c>
@@ -7753,14 +7465,11 @@
       <c r="P246">
         <v>0</v>
       </c>
-      <c r="Q246" t="s">
-        <v>60</v>
-      </c>
-      <c r="S246">
+      <c r="R246">
         <v>0.82462112512353214</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>212</v>
       </c>
@@ -7803,14 +7512,11 @@
       <c r="P247">
         <v>0</v>
       </c>
-      <c r="Q247" t="s">
-        <v>60</v>
-      </c>
-      <c r="S247">
+      <c r="R247">
         <v>0.3</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>215</v>
       </c>
@@ -7853,14 +7559,11 @@
       <c r="P248">
         <v>0</v>
       </c>
-      <c r="Q248" t="s">
-        <v>60</v>
-      </c>
-      <c r="S248">
+      <c r="R248">
         <v>0.83666002653407556</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>218</v>
       </c>
@@ -7903,14 +7606,11 @@
       <c r="P249">
         <v>0</v>
       </c>
-      <c r="Q249" t="s">
-        <v>60</v>
-      </c>
-      <c r="S249">
+      <c r="R249">
         <v>0.83666002653407556</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>221</v>
       </c>
@@ -7953,14 +7653,11 @@
       <c r="P250">
         <v>0</v>
       </c>
-      <c r="Q250" t="s">
-        <v>60</v>
-      </c>
-      <c r="S250">
+      <c r="R250">
         <v>0.83666002653407556</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>224</v>
       </c>
@@ -8003,14 +7700,11 @@
       <c r="P251">
         <v>0</v>
       </c>
-      <c r="Q251" t="s">
-        <v>60</v>
-      </c>
-      <c r="S251">
+      <c r="R251">
         <v>0.3</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>227</v>
       </c>
@@ -8053,14 +7747,11 @@
       <c r="P252">
         <v>0</v>
       </c>
-      <c r="Q252" t="s">
-        <v>60</v>
-      </c>
-      <c r="S252">
+      <c r="R252">
         <v>0.59160797830996159</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>230</v>
       </c>
@@ -8103,14 +7794,11 @@
       <c r="P253">
         <v>0</v>
       </c>
-      <c r="Q253" t="s">
-        <v>60</v>
-      </c>
-      <c r="S253">
+      <c r="R253">
         <v>0.3</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>233</v>
       </c>
@@ -8153,14 +7841,11 @@
       <c r="P254">
         <v>0</v>
       </c>
-      <c r="Q254" t="s">
-        <v>60</v>
-      </c>
-      <c r="S254">
+      <c r="R254">
         <v>0.3</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>236</v>
       </c>
@@ -8200,14 +7885,11 @@
       <c r="P255">
         <v>0</v>
       </c>
-      <c r="Q255" t="s">
-        <v>60</v>
-      </c>
-      <c r="S255">
+      <c r="R255">
         <v>0.3</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>238</v>
       </c>
@@ -8247,14 +7929,11 @@
       <c r="P256">
         <v>0</v>
       </c>
-      <c r="Q256" t="s">
-        <v>60</v>
-      </c>
-      <c r="S256">
+      <c r="R256">
         <v>0.3</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>240</v>
       </c>
@@ -8297,14 +7976,11 @@
       <c r="P257">
         <v>0</v>
       </c>
-      <c r="Q257" t="s">
-        <v>60</v>
-      </c>
-      <c r="S257">
+      <c r="R257">
         <v>0.83666002653407556</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>243</v>
       </c>
@@ -8347,14 +8023,11 @@
       <c r="P258">
         <v>0</v>
       </c>
-      <c r="Q258" t="s">
-        <v>60</v>
-      </c>
-      <c r="S258">
+      <c r="R258">
         <v>0.83666002653407556</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>246</v>
       </c>
@@ -8397,14 +8070,11 @@
       <c r="P259">
         <v>0</v>
       </c>
-      <c r="Q259" t="s">
-        <v>60</v>
-      </c>
-      <c r="S259">
+      <c r="R259">
         <v>0.83666002653407556</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>249</v>
       </c>
@@ -8447,14 +8117,11 @@
       <c r="P260">
         <v>0</v>
       </c>
-      <c r="Q260" t="s">
-        <v>60</v>
-      </c>
-      <c r="S260">
+      <c r="R260">
         <v>0.83666002653407556</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>252</v>
       </c>
@@ -8497,14 +8164,11 @@
       <c r="P261">
         <v>0</v>
       </c>
-      <c r="Q261" t="s">
-        <v>60</v>
-      </c>
-      <c r="S261">
+      <c r="R261">
         <v>0.3</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>255</v>
       </c>
@@ -8544,14 +8208,11 @@
       <c r="P262">
         <v>0</v>
       </c>
-      <c r="Q262" t="s">
-        <v>60</v>
-      </c>
-      <c r="S262">
+      <c r="R262">
         <v>0.3</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>257</v>
       </c>
@@ -8594,14 +8255,11 @@
       <c r="P263">
         <v>0</v>
       </c>
-      <c r="Q263" t="s">
-        <v>60</v>
-      </c>
-      <c r="S263">
+      <c r="R263">
         <v>0.83666002653407556</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>260</v>
       </c>
@@ -8644,14 +8302,11 @@
       <c r="P264">
         <v>0</v>
       </c>
-      <c r="Q264" t="s">
-        <v>60</v>
-      </c>
-      <c r="S264">
+      <c r="R264">
         <v>0.28284271247461901</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>263</v>
       </c>
@@ -8691,14 +8346,11 @@
       <c r="P265">
         <v>0</v>
       </c>
-      <c r="Q265" t="s">
-        <v>60</v>
-      </c>
-      <c r="S265">
+      <c r="R265">
         <v>0.59160797830996159</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -8738,14 +8390,11 @@
       <c r="P266">
         <v>0</v>
       </c>
-      <c r="Q266" t="s">
-        <v>60</v>
-      </c>
-      <c r="S266">
+      <c r="R266">
         <v>0.59160797830996159</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>267</v>
       </c>
@@ -8788,14 +8437,11 @@
       <c r="P267">
         <v>0</v>
       </c>
-      <c r="Q267" t="s">
-        <v>60</v>
-      </c>
-      <c r="S267">
+      <c r="R267">
         <v>0.3</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>270</v>
       </c>
@@ -8838,14 +8484,11 @@
       <c r="P268">
         <v>0</v>
       </c>
-      <c r="Q268" t="s">
-        <v>60</v>
-      </c>
-      <c r="S268">
+      <c r="R268">
         <v>0.3</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>273</v>
       </c>
@@ -8888,14 +8531,11 @@
       <c r="P269">
         <v>0</v>
       </c>
-      <c r="Q269" t="s">
-        <v>60</v>
-      </c>
-      <c r="S269">
+      <c r="R269">
         <v>0.83666002653407556</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>276</v>
       </c>
@@ -8938,14 +8578,11 @@
       <c r="P270">
         <v>0</v>
       </c>
-      <c r="Q270" t="s">
-        <v>60</v>
-      </c>
-      <c r="S270">
+      <c r="R270">
         <v>0.83666002653407556</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>279</v>
       </c>
@@ -8988,14 +8625,11 @@
       <c r="P271">
         <v>0</v>
       </c>
-      <c r="Q271" t="s">
-        <v>60</v>
-      </c>
-      <c r="S271">
+      <c r="R271">
         <v>0.22360679774997899</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>282</v>
       </c>
@@ -9038,14 +8672,11 @@
       <c r="P272">
         <v>0</v>
       </c>
-      <c r="Q272" t="s">
-        <v>60</v>
-      </c>
-      <c r="S272">
+      <c r="R272">
         <v>0.3</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>288</v>
       </c>
@@ -9088,14 +8719,11 @@
       <c r="P273">
         <v>0</v>
       </c>
-      <c r="Q273" t="s">
-        <v>60</v>
-      </c>
-      <c r="S273">
+      <c r="R273">
         <v>0.83666002653407556</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>291</v>
       </c>
@@ -9138,14 +8766,11 @@
       <c r="P274">
         <v>0</v>
       </c>
-      <c r="Q274" t="s">
-        <v>60</v>
-      </c>
-      <c r="S274">
+      <c r="R274">
         <v>0.3</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>32</v>
       </c>
@@ -9180,13 +8805,10 @@
         <v>0</v>
       </c>
       <c r="Q275" t="s">
-        <v>60</v>
-      </c>
-      <c r="R275" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>379</v>
       </c>
@@ -9230,16 +8852,13 @@
         <v>0</v>
       </c>
       <c r="Q276" t="s">
-        <v>60</v>
-      </c>
-      <c r="R276" t="s">
         <v>379</v>
       </c>
-      <c r="S276">
+      <c r="R276">
         <v>0.55677643628300222</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>357</v>
       </c>
@@ -9283,16 +8902,13 @@
         <v>0</v>
       </c>
       <c r="Q277" t="s">
-        <v>60</v>
-      </c>
-      <c r="R277" t="s">
         <v>22</v>
       </c>
-      <c r="S277">
+      <c r="R277">
         <v>0.1</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>340</v>
       </c>
@@ -9336,16 +8952,13 @@
         <v>0</v>
       </c>
       <c r="Q278" t="s">
-        <v>60</v>
-      </c>
-      <c r="R278" t="s">
         <v>343</v>
       </c>
-      <c r="S278">
+      <c r="R278">
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>387</v>
       </c>
@@ -9389,16 +9002,13 @@
         <v>0</v>
       </c>
       <c r="Q279" t="s">
-        <v>60</v>
-      </c>
-      <c r="R279" t="s">
         <v>392</v>
       </c>
-      <c r="S279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>393</v>
       </c>
@@ -9442,16 +9052,13 @@
         <v>0</v>
       </c>
       <c r="Q280" t="s">
-        <v>60</v>
-      </c>
-      <c r="R280" t="s">
         <v>397</v>
       </c>
-      <c r="S280">
+      <c r="R280">
         <v>0.55677643628300222</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>398</v>
       </c>
@@ -9495,12 +9102,9 @@
         <v>0</v>
       </c>
       <c r="Q281" t="s">
-        <v>60</v>
-      </c>
-      <c r="R281" t="s">
         <v>403</v>
       </c>
-      <c r="S281">
+      <c r="R281">
         <v>0.55677643628300222</v>
       </c>
     </row>
